--- a/src/main/resources/static/uploadFile/解析模板.xlsx
+++ b/src/main/resources/static/uploadFile/解析模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="326">
   <si>
     <t>姓名</t>
   </si>
@@ -100,6 +100,900 @@
   </si>
   <si>
     <t>名称22</t>
+  </si>
+  <si>
+    <t>名称23</t>
+  </si>
+  <si>
+    <t>名称24</t>
+  </si>
+  <si>
+    <t>名称25</t>
+  </si>
+  <si>
+    <t>名称26</t>
+  </si>
+  <si>
+    <t>名称27</t>
+  </si>
+  <si>
+    <t>名称28</t>
+  </si>
+  <si>
+    <t>名称29</t>
+  </si>
+  <si>
+    <t>名称30</t>
+  </si>
+  <si>
+    <t>名称31</t>
+  </si>
+  <si>
+    <t>名称32</t>
+  </si>
+  <si>
+    <t>名称33</t>
+  </si>
+  <si>
+    <t>名称34</t>
+  </si>
+  <si>
+    <t>名称35</t>
+  </si>
+  <si>
+    <t>名称36</t>
+  </si>
+  <si>
+    <t>名称37</t>
+  </si>
+  <si>
+    <t>名称38</t>
+  </si>
+  <si>
+    <t>名称39</t>
+  </si>
+  <si>
+    <t>名称40</t>
+  </si>
+  <si>
+    <t>名称41</t>
+  </si>
+  <si>
+    <t>名称42</t>
+  </si>
+  <si>
+    <t>名称43</t>
+  </si>
+  <si>
+    <t>名称44</t>
+  </si>
+  <si>
+    <t>名称45</t>
+  </si>
+  <si>
+    <t>名称46</t>
+  </si>
+  <si>
+    <t>名称47</t>
+  </si>
+  <si>
+    <t>名称48</t>
+  </si>
+  <si>
+    <t>名称49</t>
+  </si>
+  <si>
+    <t>名称50</t>
+  </si>
+  <si>
+    <t>名称51</t>
+  </si>
+  <si>
+    <t>名称52</t>
+  </si>
+  <si>
+    <t>名称53</t>
+  </si>
+  <si>
+    <t>名称54</t>
+  </si>
+  <si>
+    <t>名称55</t>
+  </si>
+  <si>
+    <t>名称56</t>
+  </si>
+  <si>
+    <t>名称57</t>
+  </si>
+  <si>
+    <t>名称58</t>
+  </si>
+  <si>
+    <t>名称59</t>
+  </si>
+  <si>
+    <t>名称60</t>
+  </si>
+  <si>
+    <t>名称61</t>
+  </si>
+  <si>
+    <t>名称62</t>
+  </si>
+  <si>
+    <t>名称63</t>
+  </si>
+  <si>
+    <t>名称64</t>
+  </si>
+  <si>
+    <t>名称65</t>
+  </si>
+  <si>
+    <t>名称66</t>
+  </si>
+  <si>
+    <t>名称67</t>
+  </si>
+  <si>
+    <t>名称68</t>
+  </si>
+  <si>
+    <t>名称69</t>
+  </si>
+  <si>
+    <t>名称70</t>
+  </si>
+  <si>
+    <t>名称71</t>
+  </si>
+  <si>
+    <t>名称72</t>
+  </si>
+  <si>
+    <t>名称73</t>
+  </si>
+  <si>
+    <t>名称74</t>
+  </si>
+  <si>
+    <t>名称75</t>
+  </si>
+  <si>
+    <t>名称76</t>
+  </si>
+  <si>
+    <t>名称77</t>
+  </si>
+  <si>
+    <t>名称78</t>
+  </si>
+  <si>
+    <t>名称79</t>
+  </si>
+  <si>
+    <t>名称80</t>
+  </si>
+  <si>
+    <t>名称81</t>
+  </si>
+  <si>
+    <t>名称82</t>
+  </si>
+  <si>
+    <t>名称83</t>
+  </si>
+  <si>
+    <t>名称84</t>
+  </si>
+  <si>
+    <t>名称85</t>
+  </si>
+  <si>
+    <t>名称86</t>
+  </si>
+  <si>
+    <t>名称87</t>
+  </si>
+  <si>
+    <t>名称88</t>
+  </si>
+  <si>
+    <t>名称89</t>
+  </si>
+  <si>
+    <t>名称90</t>
+  </si>
+  <si>
+    <t>名称91</t>
+  </si>
+  <si>
+    <t>名称92</t>
+  </si>
+  <si>
+    <t>名称93</t>
+  </si>
+  <si>
+    <t>名称94</t>
+  </si>
+  <si>
+    <t>名称95</t>
+  </si>
+  <si>
+    <t>名称96</t>
+  </si>
+  <si>
+    <t>名称97</t>
+  </si>
+  <si>
+    <t>名称98</t>
+  </si>
+  <si>
+    <t>名称99</t>
+  </si>
+  <si>
+    <t>名称100</t>
+  </si>
+  <si>
+    <t>名称101</t>
+  </si>
+  <si>
+    <t>名称102</t>
+  </si>
+  <si>
+    <t>名称103</t>
+  </si>
+  <si>
+    <t>名称104</t>
+  </si>
+  <si>
+    <t>名称105</t>
+  </si>
+  <si>
+    <t>名称106</t>
+  </si>
+  <si>
+    <t>名称107</t>
+  </si>
+  <si>
+    <t>名称108</t>
+  </si>
+  <si>
+    <t>名称109</t>
+  </si>
+  <si>
+    <t>名称110</t>
+  </si>
+  <si>
+    <t>名称111</t>
+  </si>
+  <si>
+    <t>名称112</t>
+  </si>
+  <si>
+    <t>名称113</t>
+  </si>
+  <si>
+    <t>名称114</t>
+  </si>
+  <si>
+    <t>名称115</t>
+  </si>
+  <si>
+    <t>名称116</t>
+  </si>
+  <si>
+    <t>名称117</t>
+  </si>
+  <si>
+    <t>名称118</t>
+  </si>
+  <si>
+    <t>名称119</t>
+  </si>
+  <si>
+    <t>名称120</t>
+  </si>
+  <si>
+    <t>名称121</t>
+  </si>
+  <si>
+    <t>名称122</t>
+  </si>
+  <si>
+    <t>名称123</t>
+  </si>
+  <si>
+    <t>名称124</t>
+  </si>
+  <si>
+    <t>名称125</t>
+  </si>
+  <si>
+    <t>名称126</t>
+  </si>
+  <si>
+    <t>名称127</t>
+  </si>
+  <si>
+    <t>名称128</t>
+  </si>
+  <si>
+    <t>名称129</t>
+  </si>
+  <si>
+    <t>名称130</t>
+  </si>
+  <si>
+    <t>名称131</t>
+  </si>
+  <si>
+    <t>名称132</t>
+  </si>
+  <si>
+    <t>名称133</t>
+  </si>
+  <si>
+    <t>名称134</t>
+  </si>
+  <si>
+    <t>名称135</t>
+  </si>
+  <si>
+    <t>名称136</t>
+  </si>
+  <si>
+    <t>名称137</t>
+  </si>
+  <si>
+    <t>名称138</t>
+  </si>
+  <si>
+    <t>名称139</t>
+  </si>
+  <si>
+    <t>名称140</t>
+  </si>
+  <si>
+    <t>名称141</t>
+  </si>
+  <si>
+    <t>名称142</t>
+  </si>
+  <si>
+    <t>名称143</t>
+  </si>
+  <si>
+    <t>名称144</t>
+  </si>
+  <si>
+    <t>名称145</t>
+  </si>
+  <si>
+    <t>名称146</t>
+  </si>
+  <si>
+    <t>名称147</t>
+  </si>
+  <si>
+    <t>名称148</t>
+  </si>
+  <si>
+    <t>名称149</t>
+  </si>
+  <si>
+    <t>名称150</t>
+  </si>
+  <si>
+    <t>名称151</t>
+  </si>
+  <si>
+    <t>名称152</t>
+  </si>
+  <si>
+    <t>名称153</t>
+  </si>
+  <si>
+    <t>名称154</t>
+  </si>
+  <si>
+    <t>名称155</t>
+  </si>
+  <si>
+    <t>名称156</t>
+  </si>
+  <si>
+    <t>名称157</t>
+  </si>
+  <si>
+    <t>名称158</t>
+  </si>
+  <si>
+    <t>名称159</t>
+  </si>
+  <si>
+    <t>名称160</t>
+  </si>
+  <si>
+    <t>名称161</t>
+  </si>
+  <si>
+    <t>名称162</t>
+  </si>
+  <si>
+    <t>名称163</t>
+  </si>
+  <si>
+    <t>名称164</t>
+  </si>
+  <si>
+    <t>名称165</t>
+  </si>
+  <si>
+    <t>名称166</t>
+  </si>
+  <si>
+    <t>名称167</t>
+  </si>
+  <si>
+    <t>名称168</t>
+  </si>
+  <si>
+    <t>名称169</t>
+  </si>
+  <si>
+    <t>名称170</t>
+  </si>
+  <si>
+    <t>名称171</t>
+  </si>
+  <si>
+    <t>名称172</t>
+  </si>
+  <si>
+    <t>名称173</t>
+  </si>
+  <si>
+    <t>名称174</t>
+  </si>
+  <si>
+    <t>名称175</t>
+  </si>
+  <si>
+    <t>名称176</t>
+  </si>
+  <si>
+    <t>名称177</t>
+  </si>
+  <si>
+    <t>名称178</t>
+  </si>
+  <si>
+    <t>名称179</t>
+  </si>
+  <si>
+    <t>名称180</t>
+  </si>
+  <si>
+    <t>名称181</t>
+  </si>
+  <si>
+    <t>名称182</t>
+  </si>
+  <si>
+    <t>名称183</t>
+  </si>
+  <si>
+    <t>名称184</t>
+  </si>
+  <si>
+    <t>名称185</t>
+  </si>
+  <si>
+    <t>名称186</t>
+  </si>
+  <si>
+    <t>名称187</t>
+  </si>
+  <si>
+    <t>名称188</t>
+  </si>
+  <si>
+    <t>名称189</t>
+  </si>
+  <si>
+    <t>名称190</t>
+  </si>
+  <si>
+    <t>名称191</t>
+  </si>
+  <si>
+    <t>名称192</t>
+  </si>
+  <si>
+    <t>名称193</t>
+  </si>
+  <si>
+    <t>名称194</t>
+  </si>
+  <si>
+    <t>名称195</t>
+  </si>
+  <si>
+    <t>名称196</t>
+  </si>
+  <si>
+    <t>名称197</t>
+  </si>
+  <si>
+    <t>名称198</t>
+  </si>
+  <si>
+    <t>名称199</t>
+  </si>
+  <si>
+    <t>名称200</t>
+  </si>
+  <si>
+    <t>名称201</t>
+  </si>
+  <si>
+    <t>名称202</t>
+  </si>
+  <si>
+    <t>名称203</t>
+  </si>
+  <si>
+    <t>名称204</t>
+  </si>
+  <si>
+    <t>名称205</t>
+  </si>
+  <si>
+    <t>名称206</t>
+  </si>
+  <si>
+    <t>名称207</t>
+  </si>
+  <si>
+    <t>名称208</t>
+  </si>
+  <si>
+    <t>名称209</t>
+  </si>
+  <si>
+    <t>名称210</t>
+  </si>
+  <si>
+    <t>名称211</t>
+  </si>
+  <si>
+    <t>名称212</t>
+  </si>
+  <si>
+    <t>名称213</t>
+  </si>
+  <si>
+    <t>名称214</t>
+  </si>
+  <si>
+    <t>名称215</t>
+  </si>
+  <si>
+    <t>名称216</t>
+  </si>
+  <si>
+    <t>名称217</t>
+  </si>
+  <si>
+    <t>名称218</t>
+  </si>
+  <si>
+    <t>名称219</t>
+  </si>
+  <si>
+    <t>名称220</t>
+  </si>
+  <si>
+    <t>名称221</t>
+  </si>
+  <si>
+    <t>名称222</t>
+  </si>
+  <si>
+    <t>名称223</t>
+  </si>
+  <si>
+    <t>名称224</t>
+  </si>
+  <si>
+    <t>名称225</t>
+  </si>
+  <si>
+    <t>名称226</t>
+  </si>
+  <si>
+    <t>名称227</t>
+  </si>
+  <si>
+    <t>名称228</t>
+  </si>
+  <si>
+    <t>名称229</t>
+  </si>
+  <si>
+    <t>名称230</t>
+  </si>
+  <si>
+    <t>名称231</t>
+  </si>
+  <si>
+    <t>名称232</t>
+  </si>
+  <si>
+    <t>名称233</t>
+  </si>
+  <si>
+    <t>名称234</t>
+  </si>
+  <si>
+    <t>名称235</t>
+  </si>
+  <si>
+    <t>名称236</t>
+  </si>
+  <si>
+    <t>名称237</t>
+  </si>
+  <si>
+    <t>名称238</t>
+  </si>
+  <si>
+    <t>名称239</t>
+  </si>
+  <si>
+    <t>名称240</t>
+  </si>
+  <si>
+    <t>名称241</t>
+  </si>
+  <si>
+    <t>名称242</t>
+  </si>
+  <si>
+    <t>名称243</t>
+  </si>
+  <si>
+    <t>名称244</t>
+  </si>
+  <si>
+    <t>名称245</t>
+  </si>
+  <si>
+    <t>名称246</t>
+  </si>
+  <si>
+    <t>名称247</t>
+  </si>
+  <si>
+    <t>名称248</t>
+  </si>
+  <si>
+    <t>名称249</t>
+  </si>
+  <si>
+    <t>名称250</t>
+  </si>
+  <si>
+    <t>名称251</t>
+  </si>
+  <si>
+    <t>名称252</t>
+  </si>
+  <si>
+    <t>名称253</t>
+  </si>
+  <si>
+    <t>名称254</t>
+  </si>
+  <si>
+    <t>名称255</t>
+  </si>
+  <si>
+    <t>名称256</t>
+  </si>
+  <si>
+    <t>名称257</t>
+  </si>
+  <si>
+    <t>名称258</t>
+  </si>
+  <si>
+    <t>名称259</t>
+  </si>
+  <si>
+    <t>名称260</t>
+  </si>
+  <si>
+    <t>名称261</t>
+  </si>
+  <si>
+    <t>名称262</t>
+  </si>
+  <si>
+    <t>名称263</t>
+  </si>
+  <si>
+    <t>名称264</t>
+  </si>
+  <si>
+    <t>名称265</t>
+  </si>
+  <si>
+    <t>名称266</t>
+  </si>
+  <si>
+    <t>名称267</t>
+  </si>
+  <si>
+    <t>名称268</t>
+  </si>
+  <si>
+    <t>名称269</t>
+  </si>
+  <si>
+    <t>名称270</t>
+  </si>
+  <si>
+    <t>名称271</t>
+  </si>
+  <si>
+    <t>名称272</t>
+  </si>
+  <si>
+    <t>名称273</t>
+  </si>
+  <si>
+    <t>名称274</t>
+  </si>
+  <si>
+    <t>名称275</t>
+  </si>
+  <si>
+    <t>名称276</t>
+  </si>
+  <si>
+    <t>名称277</t>
+  </si>
+  <si>
+    <t>名称278</t>
+  </si>
+  <si>
+    <t>名称279</t>
+  </si>
+  <si>
+    <t>名称280</t>
+  </si>
+  <si>
+    <t>名称281</t>
+  </si>
+  <si>
+    <t>名称282</t>
+  </si>
+  <si>
+    <t>名称283</t>
+  </si>
+  <si>
+    <t>名称284</t>
+  </si>
+  <si>
+    <t>名称285</t>
+  </si>
+  <si>
+    <t>名称286</t>
+  </si>
+  <si>
+    <t>名称287</t>
+  </si>
+  <si>
+    <t>名称288</t>
+  </si>
+  <si>
+    <t>名称289</t>
+  </si>
+  <si>
+    <t>名称290</t>
+  </si>
+  <si>
+    <t>名称291</t>
+  </si>
+  <si>
+    <t>名称292</t>
+  </si>
+  <si>
+    <t>名称293</t>
+  </si>
+  <si>
+    <t>名称294</t>
+  </si>
+  <si>
+    <t>名称295</t>
+  </si>
+  <si>
+    <t>名称296</t>
+  </si>
+  <si>
+    <t>名称297</t>
+  </si>
+  <si>
+    <t>名称298</t>
+  </si>
+  <si>
+    <t>名称299</t>
+  </si>
+  <si>
+    <t>名称300</t>
+  </si>
+  <si>
+    <t>名称301</t>
+  </si>
+  <si>
+    <t>名称302</t>
+  </si>
+  <si>
+    <t>名称303</t>
+  </si>
+  <si>
+    <t>名称304</t>
+  </si>
+  <si>
+    <t>名称305</t>
+  </si>
+  <si>
+    <t>名称306</t>
+  </si>
+  <si>
+    <t>名称307</t>
+  </si>
+  <si>
+    <t>名称308</t>
+  </si>
+  <si>
+    <t>名称309</t>
+  </si>
+  <si>
+    <t>名称310</t>
+  </si>
+  <si>
+    <t>名称311</t>
+  </si>
+  <si>
+    <t>名称312</t>
+  </si>
+  <si>
+    <t>名称313</t>
+  </si>
+  <si>
+    <t>名称314</t>
+  </si>
+  <si>
+    <t>名称315</t>
+  </si>
+  <si>
+    <t>名称316</t>
+  </si>
+  <si>
+    <t>名称317</t>
+  </si>
+  <si>
+    <t>名称318</t>
+  </si>
+  <si>
+    <t>名称319</t>
+  </si>
+  <si>
+    <t>名称320</t>
   </si>
 </sst>
 </file>
@@ -107,11 +1001,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -135,6 +1029,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -148,22 +1064,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,16 +1080,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,14 +1127,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -242,22 +1144,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,6 +1160,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,6 +1187,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -305,7 +1223,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,163 +1361,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,6 +1392,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -509,6 +1412,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,15 +1450,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -556,21 +1465,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -603,10 +1497,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,19 +1509,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,112 +1530,112 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1112,10 +2006,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D321"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="C310" sqref="C310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1444,6 +2338,4178 @@
       </c>
       <c r="D23" s="1">
         <v>111132</v>
+      </c>
+    </row>
+    <row r="24" ht="15.15" spans="1:4">
+      <c r="A24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="5">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>111133</v>
+      </c>
+    </row>
+    <row r="25" ht="15.15" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="5">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1">
+        <v>111134</v>
+      </c>
+    </row>
+    <row r="26" ht="15.15" spans="1:4">
+      <c r="A26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="5">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1">
+        <v>111135</v>
+      </c>
+    </row>
+    <row r="27" ht="15.15" spans="1:4">
+      <c r="A27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="5">
+        <v>36</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1">
+        <v>111136</v>
+      </c>
+    </row>
+    <row r="28" ht="15.15" spans="1:4">
+      <c r="A28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="5">
+        <v>37</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>111137</v>
+      </c>
+    </row>
+    <row r="29" ht="15.15" spans="1:4">
+      <c r="A29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="5">
+        <v>38</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1">
+        <v>111138</v>
+      </c>
+    </row>
+    <row r="30" ht="15.15" spans="1:4">
+      <c r="A30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="5">
+        <v>39</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>111139</v>
+      </c>
+    </row>
+    <row r="31" ht="15.15" spans="1:4">
+      <c r="A31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="5">
+        <v>40</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>111140</v>
+      </c>
+    </row>
+    <row r="32" ht="15.15" spans="1:4">
+      <c r="A32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="5">
+        <v>41</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1">
+        <v>111141</v>
+      </c>
+    </row>
+    <row r="33" ht="15.15" spans="1:4">
+      <c r="A33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="5">
+        <v>42</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1">
+        <v>111142</v>
+      </c>
+    </row>
+    <row r="34" ht="15.15" spans="1:4">
+      <c r="A34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="5">
+        <v>43</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1">
+        <v>111143</v>
+      </c>
+    </row>
+    <row r="35" ht="15.15" spans="1:4">
+      <c r="A35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="5">
+        <v>44</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1">
+        <v>111144</v>
+      </c>
+    </row>
+    <row r="36" ht="15.15" spans="1:4">
+      <c r="A36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="5">
+        <v>45</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1">
+        <v>111145</v>
+      </c>
+    </row>
+    <row r="37" ht="15.15" spans="1:4">
+      <c r="A37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="5">
+        <v>46</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1">
+        <v>111146</v>
+      </c>
+    </row>
+    <row r="38" ht="15.15" spans="1:4">
+      <c r="A38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="5">
+        <v>47</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1">
+        <v>111147</v>
+      </c>
+    </row>
+    <row r="39" ht="15.15" spans="1:4">
+      <c r="A39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="5">
+        <v>48</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1">
+        <v>111148</v>
+      </c>
+    </row>
+    <row r="40" ht="15.15" spans="1:4">
+      <c r="A40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="5">
+        <v>49</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1">
+        <v>111149</v>
+      </c>
+    </row>
+    <row r="41" ht="15.15" spans="1:4">
+      <c r="A41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="5">
+        <v>50</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="1">
+        <v>111150</v>
+      </c>
+    </row>
+    <row r="42" ht="15.15" spans="1:4">
+      <c r="A42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="5">
+        <v>51</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1">
+        <v>111151</v>
+      </c>
+    </row>
+    <row r="43" ht="15.15" spans="1:4">
+      <c r="A43" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="5">
+        <v>52</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1">
+        <v>111152</v>
+      </c>
+    </row>
+    <row r="44" ht="15.15" spans="1:4">
+      <c r="A44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="5">
+        <v>53</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1">
+        <v>111153</v>
+      </c>
+    </row>
+    <row r="45" ht="15.15" spans="1:4">
+      <c r="A45" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="5">
+        <v>54</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1">
+        <v>111154</v>
+      </c>
+    </row>
+    <row r="46" ht="15.15" spans="1:4">
+      <c r="A46" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="5">
+        <v>55</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1">
+        <v>111155</v>
+      </c>
+    </row>
+    <row r="47" ht="15.15" spans="1:4">
+      <c r="A47" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="5">
+        <v>56</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1">
+        <v>111156</v>
+      </c>
+    </row>
+    <row r="48" ht="15.15" spans="1:4">
+      <c r="A48" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="5">
+        <v>57</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="1">
+        <v>111157</v>
+      </c>
+    </row>
+    <row r="49" ht="15.15" spans="1:4">
+      <c r="A49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="5">
+        <v>58</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="1">
+        <v>111158</v>
+      </c>
+    </row>
+    <row r="50" ht="15.15" spans="1:4">
+      <c r="A50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="5">
+        <v>59</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="1">
+        <v>111159</v>
+      </c>
+    </row>
+    <row r="51" ht="15.15" spans="1:4">
+      <c r="A51" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="5">
+        <v>60</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="1">
+        <v>111160</v>
+      </c>
+    </row>
+    <row r="52" ht="15.15" spans="1:4">
+      <c r="A52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="5">
+        <v>61</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="1">
+        <v>111161</v>
+      </c>
+    </row>
+    <row r="53" ht="15.15" spans="1:4">
+      <c r="A53" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="5">
+        <v>62</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1">
+        <v>111162</v>
+      </c>
+    </row>
+    <row r="54" ht="15.15" spans="1:4">
+      <c r="A54" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="5">
+        <v>63</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="1">
+        <v>111163</v>
+      </c>
+    </row>
+    <row r="55" ht="15.15" spans="1:4">
+      <c r="A55" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="5">
+        <v>64</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="1">
+        <v>111164</v>
+      </c>
+    </row>
+    <row r="56" ht="15.15" spans="1:4">
+      <c r="A56" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="5">
+        <v>65</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="1">
+        <v>111165</v>
+      </c>
+    </row>
+    <row r="57" ht="15.15" spans="1:4">
+      <c r="A57" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="5">
+        <v>66</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="1">
+        <v>111166</v>
+      </c>
+    </row>
+    <row r="58" ht="15.15" spans="1:4">
+      <c r="A58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="5">
+        <v>67</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="1">
+        <v>111167</v>
+      </c>
+    </row>
+    <row r="59" ht="15.15" spans="1:4">
+      <c r="A59" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="5">
+        <v>68</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="1">
+        <v>111168</v>
+      </c>
+    </row>
+    <row r="60" ht="15.15" spans="1:4">
+      <c r="A60" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="5">
+        <v>69</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="1">
+        <v>111169</v>
+      </c>
+    </row>
+    <row r="61" ht="15.15" spans="1:4">
+      <c r="A61" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="5">
+        <v>70</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="1">
+        <v>111170</v>
+      </c>
+    </row>
+    <row r="62" ht="15.15" spans="1:4">
+      <c r="A62" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="5">
+        <v>71</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="1">
+        <v>111171</v>
+      </c>
+    </row>
+    <row r="63" ht="15.15" spans="1:4">
+      <c r="A63" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="5">
+        <v>72</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="1">
+        <v>111172</v>
+      </c>
+    </row>
+    <row r="64" ht="15.15" spans="1:4">
+      <c r="A64" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="5">
+        <v>73</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="1">
+        <v>111173</v>
+      </c>
+    </row>
+    <row r="65" ht="15.15" spans="1:4">
+      <c r="A65" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="5">
+        <v>74</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="1">
+        <v>111174</v>
+      </c>
+    </row>
+    <row r="66" ht="15.15" spans="1:4">
+      <c r="A66" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="5">
+        <v>75</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="1">
+        <v>111175</v>
+      </c>
+    </row>
+    <row r="67" ht="15.15" spans="1:4">
+      <c r="A67" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="5">
+        <v>76</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="1">
+        <v>111176</v>
+      </c>
+    </row>
+    <row r="68" ht="15.15" spans="1:4">
+      <c r="A68" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="5">
+        <v>77</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="1">
+        <v>111177</v>
+      </c>
+    </row>
+    <row r="69" ht="15.15" spans="1:4">
+      <c r="A69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="5">
+        <v>78</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="1">
+        <v>111178</v>
+      </c>
+    </row>
+    <row r="70" ht="15.15" spans="1:4">
+      <c r="A70" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="5">
+        <v>79</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="1">
+        <v>111179</v>
+      </c>
+    </row>
+    <row r="71" ht="15.15" spans="1:4">
+      <c r="A71" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="5">
+        <v>80</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="1">
+        <v>111180</v>
+      </c>
+    </row>
+    <row r="72" ht="15.15" spans="1:4">
+      <c r="A72" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="5">
+        <v>81</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="1">
+        <v>111181</v>
+      </c>
+    </row>
+    <row r="73" ht="15.15" spans="1:4">
+      <c r="A73" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="5">
+        <v>82</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="1">
+        <v>111182</v>
+      </c>
+    </row>
+    <row r="74" ht="15.15" spans="1:4">
+      <c r="A74" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="5">
+        <v>83</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="1">
+        <v>111183</v>
+      </c>
+    </row>
+    <row r="75" ht="15.15" spans="1:4">
+      <c r="A75" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="5">
+        <v>84</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="1">
+        <v>111184</v>
+      </c>
+    </row>
+    <row r="76" ht="15.15" spans="1:4">
+      <c r="A76" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="5">
+        <v>85</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="1">
+        <v>111185</v>
+      </c>
+    </row>
+    <row r="77" ht="15.15" spans="1:4">
+      <c r="A77" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="5">
+        <v>86</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="1">
+        <v>111186</v>
+      </c>
+    </row>
+    <row r="78" ht="15.15" spans="1:4">
+      <c r="A78" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="5">
+        <v>87</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="1">
+        <v>111187</v>
+      </c>
+    </row>
+    <row r="79" ht="15.15" spans="1:4">
+      <c r="A79" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="5">
+        <v>88</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="1">
+        <v>111188</v>
+      </c>
+    </row>
+    <row r="80" ht="15.15" spans="1:4">
+      <c r="A80" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="5">
+        <v>89</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="1">
+        <v>111189</v>
+      </c>
+    </row>
+    <row r="81" ht="15.15" spans="1:4">
+      <c r="A81" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="5">
+        <v>90</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="1">
+        <v>111190</v>
+      </c>
+    </row>
+    <row r="82" ht="15.15" spans="1:4">
+      <c r="A82" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="5">
+        <v>91</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="1">
+        <v>111191</v>
+      </c>
+    </row>
+    <row r="83" ht="15.15" spans="1:4">
+      <c r="A83" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="5">
+        <v>92</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="1">
+        <v>111192</v>
+      </c>
+    </row>
+    <row r="84" ht="15.15" spans="1:4">
+      <c r="A84" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="5">
+        <v>93</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="1">
+        <v>111193</v>
+      </c>
+    </row>
+    <row r="85" ht="15.15" spans="1:4">
+      <c r="A85" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="5">
+        <v>94</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="1">
+        <v>111194</v>
+      </c>
+    </row>
+    <row r="86" ht="15.15" spans="1:4">
+      <c r="A86" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="5">
+        <v>95</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="1">
+        <v>111195</v>
+      </c>
+    </row>
+    <row r="87" ht="15.15" spans="1:4">
+      <c r="A87" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" s="5">
+        <v>96</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="1">
+        <v>111196</v>
+      </c>
+    </row>
+    <row r="88" ht="15.15" spans="1:4">
+      <c r="A88" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="5">
+        <v>97</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="1">
+        <v>111197</v>
+      </c>
+    </row>
+    <row r="89" ht="15.15" spans="1:4">
+      <c r="A89" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" s="5">
+        <v>98</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="1">
+        <v>111198</v>
+      </c>
+    </row>
+    <row r="90" ht="15.15" spans="1:4">
+      <c r="A90" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="5">
+        <v>99</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="1">
+        <v>111199</v>
+      </c>
+    </row>
+    <row r="91" ht="15.15" spans="1:4">
+      <c r="A91" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="5">
+        <v>100</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="1">
+        <v>111200</v>
+      </c>
+    </row>
+    <row r="92" ht="15.15" spans="1:4">
+      <c r="A92" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" s="5">
+        <v>101</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="1">
+        <v>111201</v>
+      </c>
+    </row>
+    <row r="93" ht="15.15" spans="1:4">
+      <c r="A93" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" s="5">
+        <v>102</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="1">
+        <v>111202</v>
+      </c>
+    </row>
+    <row r="94" ht="15.15" spans="1:4">
+      <c r="A94" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" s="5">
+        <v>103</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="1">
+        <v>111203</v>
+      </c>
+    </row>
+    <row r="95" ht="15.15" spans="1:4">
+      <c r="A95" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" s="5">
+        <v>104</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="1">
+        <v>111204</v>
+      </c>
+    </row>
+    <row r="96" ht="15.15" spans="1:4">
+      <c r="A96" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" s="5">
+        <v>105</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="1">
+        <v>111205</v>
+      </c>
+    </row>
+    <row r="97" ht="15.15" spans="1:4">
+      <c r="A97" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" s="5">
+        <v>106</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="1">
+        <v>111206</v>
+      </c>
+    </row>
+    <row r="98" ht="15.15" spans="1:4">
+      <c r="A98" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" s="5">
+        <v>107</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="1">
+        <v>111207</v>
+      </c>
+    </row>
+    <row r="99" ht="15.15" spans="1:4">
+      <c r="A99" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" s="5">
+        <v>108</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="1">
+        <v>111208</v>
+      </c>
+    </row>
+    <row r="100" ht="15.15" spans="1:4">
+      <c r="A100" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" s="5">
+        <v>109</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="1">
+        <v>111209</v>
+      </c>
+    </row>
+    <row r="101" ht="15.15" spans="1:4">
+      <c r="A101" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" s="5">
+        <v>110</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="1">
+        <v>111210</v>
+      </c>
+    </row>
+    <row r="102" ht="15.15" spans="1:4">
+      <c r="A102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" s="5">
+        <v>111</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="1">
+        <v>111211</v>
+      </c>
+    </row>
+    <row r="103" ht="15.15" spans="1:4">
+      <c r="A103" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" s="5">
+        <v>112</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="1">
+        <v>111212</v>
+      </c>
+    </row>
+    <row r="104" ht="15.15" spans="1:4">
+      <c r="A104" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" s="5">
+        <v>113</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="1">
+        <v>111213</v>
+      </c>
+    </row>
+    <row r="105" ht="15.15" spans="1:4">
+      <c r="A105" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" s="5">
+        <v>114</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="1">
+        <v>111214</v>
+      </c>
+    </row>
+    <row r="106" ht="15.15" spans="1:4">
+      <c r="A106" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" s="5">
+        <v>115</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="1">
+        <v>111215</v>
+      </c>
+    </row>
+    <row r="107" ht="15.15" spans="1:4">
+      <c r="A107" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" s="5">
+        <v>116</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="1">
+        <v>111216</v>
+      </c>
+    </row>
+    <row r="108" ht="15.15" spans="1:4">
+      <c r="A108" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" s="5">
+        <v>117</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="1">
+        <v>111217</v>
+      </c>
+    </row>
+    <row r="109" ht="15.15" spans="1:4">
+      <c r="A109" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" s="5">
+        <v>118</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="1">
+        <v>111218</v>
+      </c>
+    </row>
+    <row r="110" ht="15.15" spans="1:4">
+      <c r="A110" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" s="5">
+        <v>119</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="1">
+        <v>111219</v>
+      </c>
+    </row>
+    <row r="111" ht="15.15" spans="1:4">
+      <c r="A111" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" s="5">
+        <v>120</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="1">
+        <v>111220</v>
+      </c>
+    </row>
+    <row r="112" ht="15.15" spans="1:4">
+      <c r="A112" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" s="5">
+        <v>121</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="1">
+        <v>111221</v>
+      </c>
+    </row>
+    <row r="113" ht="15.15" spans="1:4">
+      <c r="A113" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" s="5">
+        <v>122</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="1">
+        <v>111222</v>
+      </c>
+    </row>
+    <row r="114" ht="15.15" spans="1:4">
+      <c r="A114" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114" s="5">
+        <v>123</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="1">
+        <v>111223</v>
+      </c>
+    </row>
+    <row r="115" ht="15.15" spans="1:4">
+      <c r="A115" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" s="5">
+        <v>124</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="1">
+        <v>111224</v>
+      </c>
+    </row>
+    <row r="116" ht="15.15" spans="1:4">
+      <c r="A116" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" s="5">
+        <v>125</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="1">
+        <v>111225</v>
+      </c>
+    </row>
+    <row r="117" ht="15.15" spans="1:4">
+      <c r="A117" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" s="5">
+        <v>126</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="1">
+        <v>111226</v>
+      </c>
+    </row>
+    <row r="118" ht="15.15" spans="1:4">
+      <c r="A118" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118" s="5">
+        <v>127</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="1">
+        <v>111227</v>
+      </c>
+    </row>
+    <row r="119" ht="15.15" spans="1:4">
+      <c r="A119" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" s="5">
+        <v>128</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" s="1">
+        <v>111228</v>
+      </c>
+    </row>
+    <row r="120" ht="15.15" spans="1:4">
+      <c r="A120" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" s="5">
+        <v>129</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" s="1">
+        <v>111229</v>
+      </c>
+    </row>
+    <row r="121" ht="15.15" spans="1:4">
+      <c r="A121" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" s="5">
+        <v>130</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="1">
+        <v>111230</v>
+      </c>
+    </row>
+    <row r="122" ht="15.15" spans="1:4">
+      <c r="A122" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" s="5">
+        <v>131</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" s="1">
+        <v>111231</v>
+      </c>
+    </row>
+    <row r="123" ht="15.15" spans="1:4">
+      <c r="A123" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" s="5">
+        <v>132</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" s="1">
+        <v>111232</v>
+      </c>
+    </row>
+    <row r="124" ht="15.15" spans="1:4">
+      <c r="A124" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" s="5">
+        <v>133</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" s="1">
+        <v>111233</v>
+      </c>
+    </row>
+    <row r="125" ht="15.15" spans="1:4">
+      <c r="A125" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125" s="5">
+        <v>134</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" s="1">
+        <v>111234</v>
+      </c>
+    </row>
+    <row r="126" ht="15.15" spans="1:4">
+      <c r="A126" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126" s="5">
+        <v>135</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" s="1">
+        <v>111235</v>
+      </c>
+    </row>
+    <row r="127" ht="15.15" spans="1:4">
+      <c r="A127" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B127" s="5">
+        <v>136</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" s="1">
+        <v>111236</v>
+      </c>
+    </row>
+    <row r="128" ht="15.15" spans="1:4">
+      <c r="A128" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" s="5">
+        <v>137</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" s="1">
+        <v>111237</v>
+      </c>
+    </row>
+    <row r="129" ht="15.15" spans="1:4">
+      <c r="A129" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129" s="5">
+        <v>138</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129" s="1">
+        <v>111238</v>
+      </c>
+    </row>
+    <row r="130" ht="15.15" spans="1:4">
+      <c r="A130" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B130" s="5">
+        <v>139</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" s="1">
+        <v>111239</v>
+      </c>
+    </row>
+    <row r="131" ht="15.15" spans="1:4">
+      <c r="A131" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B131" s="5">
+        <v>140</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" s="1">
+        <v>111240</v>
+      </c>
+    </row>
+    <row r="132" ht="15.15" spans="1:4">
+      <c r="A132" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" s="5">
+        <v>141</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" s="1">
+        <v>111241</v>
+      </c>
+    </row>
+    <row r="133" ht="15.15" spans="1:4">
+      <c r="A133" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133" s="5">
+        <v>142</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" s="1">
+        <v>111242</v>
+      </c>
+    </row>
+    <row r="134" ht="15.15" spans="1:4">
+      <c r="A134" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134" s="5">
+        <v>143</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" s="1">
+        <v>111243</v>
+      </c>
+    </row>
+    <row r="135" ht="15.15" spans="1:4">
+      <c r="A135" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135" s="5">
+        <v>144</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" s="1">
+        <v>111244</v>
+      </c>
+    </row>
+    <row r="136" ht="15.15" spans="1:4">
+      <c r="A136" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136" s="5">
+        <v>145</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" s="1">
+        <v>111245</v>
+      </c>
+    </row>
+    <row r="137" ht="15.15" spans="1:4">
+      <c r="A137" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137" s="5">
+        <v>146</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" s="1">
+        <v>111246</v>
+      </c>
+    </row>
+    <row r="138" ht="15.15" spans="1:4">
+      <c r="A138" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B138" s="5">
+        <v>147</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="1">
+        <v>111247</v>
+      </c>
+    </row>
+    <row r="139" ht="15.15" spans="1:4">
+      <c r="A139" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" s="5">
+        <v>148</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" s="1">
+        <v>111248</v>
+      </c>
+    </row>
+    <row r="140" ht="15.15" spans="1:4">
+      <c r="A140" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B140" s="5">
+        <v>149</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" s="1">
+        <v>111249</v>
+      </c>
+    </row>
+    <row r="141" ht="15.15" spans="1:4">
+      <c r="A141" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B141" s="5">
+        <v>150</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" s="1">
+        <v>111250</v>
+      </c>
+    </row>
+    <row r="142" ht="15.15" spans="1:4">
+      <c r="A142" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142" s="5">
+        <v>151</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" s="1">
+        <v>111251</v>
+      </c>
+    </row>
+    <row r="143" ht="15.15" spans="1:4">
+      <c r="A143" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B143" s="5">
+        <v>152</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143" s="1">
+        <v>111252</v>
+      </c>
+    </row>
+    <row r="144" ht="15.15" spans="1:4">
+      <c r="A144" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B144" s="5">
+        <v>153</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="1">
+        <v>111253</v>
+      </c>
+    </row>
+    <row r="145" ht="15.15" spans="1:4">
+      <c r="A145" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B145" s="5">
+        <v>154</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" s="1">
+        <v>111254</v>
+      </c>
+    </row>
+    <row r="146" ht="15.15" spans="1:4">
+      <c r="A146" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B146" s="5">
+        <v>155</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146" s="1">
+        <v>111255</v>
+      </c>
+    </row>
+    <row r="147" ht="15.15" spans="1:4">
+      <c r="A147" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B147" s="5">
+        <v>156</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" s="1">
+        <v>111256</v>
+      </c>
+    </row>
+    <row r="148" ht="15.15" spans="1:4">
+      <c r="A148" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B148" s="5">
+        <v>157</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148" s="1">
+        <v>111257</v>
+      </c>
+    </row>
+    <row r="149" ht="15.15" spans="1:4">
+      <c r="A149" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B149" s="5">
+        <v>158</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149" s="1">
+        <v>111258</v>
+      </c>
+    </row>
+    <row r="150" ht="15.15" spans="1:4">
+      <c r="A150" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B150" s="5">
+        <v>159</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" s="1">
+        <v>111259</v>
+      </c>
+    </row>
+    <row r="151" ht="15.15" spans="1:4">
+      <c r="A151" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B151" s="5">
+        <v>160</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" s="1">
+        <v>111260</v>
+      </c>
+    </row>
+    <row r="152" ht="15.15" spans="1:4">
+      <c r="A152" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B152" s="5">
+        <v>161</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" s="1">
+        <v>111261</v>
+      </c>
+    </row>
+    <row r="153" ht="15.15" spans="1:4">
+      <c r="A153" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B153" s="5">
+        <v>162</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" s="1">
+        <v>111262</v>
+      </c>
+    </row>
+    <row r="154" ht="15.15" spans="1:4">
+      <c r="A154" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" s="5">
+        <v>163</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" s="1">
+        <v>111263</v>
+      </c>
+    </row>
+    <row r="155" ht="15.15" spans="1:4">
+      <c r="A155" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B155" s="5">
+        <v>164</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D155" s="1">
+        <v>111264</v>
+      </c>
+    </row>
+    <row r="156" ht="15.15" spans="1:4">
+      <c r="A156" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B156" s="5">
+        <v>165</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156" s="1">
+        <v>111265</v>
+      </c>
+    </row>
+    <row r="157" ht="15.15" spans="1:4">
+      <c r="A157" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B157" s="5">
+        <v>166</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" s="1">
+        <v>111266</v>
+      </c>
+    </row>
+    <row r="158" ht="15.15" spans="1:4">
+      <c r="A158" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B158" s="5">
+        <v>167</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" s="1">
+        <v>111267</v>
+      </c>
+    </row>
+    <row r="159" ht="15.15" spans="1:4">
+      <c r="A159" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B159" s="5">
+        <v>168</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" s="1">
+        <v>111268</v>
+      </c>
+    </row>
+    <row r="160" ht="15.15" spans="1:4">
+      <c r="A160" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B160" s="5">
+        <v>169</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D160" s="1">
+        <v>111269</v>
+      </c>
+    </row>
+    <row r="161" ht="15.15" spans="1:4">
+      <c r="A161" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B161" s="5">
+        <v>170</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" s="1">
+        <v>111270</v>
+      </c>
+    </row>
+    <row r="162" ht="15.15" spans="1:4">
+      <c r="A162" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162" s="5">
+        <v>171</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162" s="1">
+        <v>111271</v>
+      </c>
+    </row>
+    <row r="163" ht="15.15" spans="1:4">
+      <c r="A163" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B163" s="5">
+        <v>172</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" s="1">
+        <v>111272</v>
+      </c>
+    </row>
+    <row r="164" ht="15.15" spans="1:4">
+      <c r="A164" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B164" s="5">
+        <v>173</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D164" s="1">
+        <v>111273</v>
+      </c>
+    </row>
+    <row r="165" ht="15.15" spans="1:4">
+      <c r="A165" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B165" s="5">
+        <v>174</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" s="1">
+        <v>111274</v>
+      </c>
+    </row>
+    <row r="166" ht="15.15" spans="1:4">
+      <c r="A166" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B166" s="5">
+        <v>175</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D166" s="1">
+        <v>111275</v>
+      </c>
+    </row>
+    <row r="167" ht="15.15" spans="1:4">
+      <c r="A167" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B167" s="5">
+        <v>176</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" s="1">
+        <v>111276</v>
+      </c>
+    </row>
+    <row r="168" ht="15.15" spans="1:4">
+      <c r="A168" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B168" s="5">
+        <v>177</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" s="1">
+        <v>111277</v>
+      </c>
+    </row>
+    <row r="169" ht="15.15" spans="1:4">
+      <c r="A169" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B169" s="5">
+        <v>178</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" s="1">
+        <v>111278</v>
+      </c>
+    </row>
+    <row r="170" ht="15.15" spans="1:4">
+      <c r="A170" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B170" s="5">
+        <v>179</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D170" s="1">
+        <v>111279</v>
+      </c>
+    </row>
+    <row r="171" ht="15.15" spans="1:4">
+      <c r="A171" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B171" s="5">
+        <v>180</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D171" s="1">
+        <v>111280</v>
+      </c>
+    </row>
+    <row r="172" ht="15.15" spans="1:4">
+      <c r="A172" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B172" s="5">
+        <v>181</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172" s="1">
+        <v>111281</v>
+      </c>
+    </row>
+    <row r="173" ht="15.15" spans="1:4">
+      <c r="A173" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B173" s="5">
+        <v>182</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D173" s="1">
+        <v>111282</v>
+      </c>
+    </row>
+    <row r="174" ht="15.15" spans="1:4">
+      <c r="A174" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174" s="5">
+        <v>183</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" s="1">
+        <v>111283</v>
+      </c>
+    </row>
+    <row r="175" ht="15.15" spans="1:4">
+      <c r="A175" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B175" s="5">
+        <v>184</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D175" s="1">
+        <v>111284</v>
+      </c>
+    </row>
+    <row r="176" ht="15.15" spans="1:4">
+      <c r="A176" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B176" s="5">
+        <v>185</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176" s="1">
+        <v>111285</v>
+      </c>
+    </row>
+    <row r="177" ht="15.15" spans="1:4">
+      <c r="A177" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B177" s="5">
+        <v>186</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" s="1">
+        <v>111286</v>
+      </c>
+    </row>
+    <row r="178" ht="15.15" spans="1:4">
+      <c r="A178" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B178" s="5">
+        <v>187</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D178" s="1">
+        <v>111287</v>
+      </c>
+    </row>
+    <row r="179" ht="15.15" spans="1:4">
+      <c r="A179" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B179" s="5">
+        <v>188</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D179" s="1">
+        <v>111288</v>
+      </c>
+    </row>
+    <row r="180" ht="15.15" spans="1:4">
+      <c r="A180" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B180" s="5">
+        <v>189</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D180" s="1">
+        <v>111289</v>
+      </c>
+    </row>
+    <row r="181" ht="15.15" spans="1:4">
+      <c r="A181" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B181" s="5">
+        <v>190</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" s="1">
+        <v>111290</v>
+      </c>
+    </row>
+    <row r="182" ht="15.15" spans="1:4">
+      <c r="A182" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B182" s="5">
+        <v>191</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D182" s="1">
+        <v>111291</v>
+      </c>
+    </row>
+    <row r="183" ht="15.15" spans="1:4">
+      <c r="A183" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B183" s="5">
+        <v>192</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" s="1">
+        <v>111292</v>
+      </c>
+    </row>
+    <row r="184" ht="15.15" spans="1:4">
+      <c r="A184" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B184" s="5">
+        <v>193</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D184" s="1">
+        <v>111293</v>
+      </c>
+    </row>
+    <row r="185" ht="15.15" spans="1:4">
+      <c r="A185" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B185" s="5">
+        <v>194</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" s="1">
+        <v>111294</v>
+      </c>
+    </row>
+    <row r="186" ht="15.15" spans="1:4">
+      <c r="A186" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B186" s="5">
+        <v>195</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D186" s="1">
+        <v>111295</v>
+      </c>
+    </row>
+    <row r="187" ht="15.15" spans="1:4">
+      <c r="A187" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B187" s="5">
+        <v>196</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" s="1">
+        <v>111296</v>
+      </c>
+    </row>
+    <row r="188" ht="15.15" spans="1:4">
+      <c r="A188" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B188" s="5">
+        <v>197</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D188" s="1">
+        <v>111297</v>
+      </c>
+    </row>
+    <row r="189" ht="15.15" spans="1:4">
+      <c r="A189" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B189" s="5">
+        <v>198</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D189" s="1">
+        <v>111298</v>
+      </c>
+    </row>
+    <row r="190" ht="15.15" spans="1:4">
+      <c r="A190" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B190" s="5">
+        <v>199</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D190" s="1">
+        <v>111299</v>
+      </c>
+    </row>
+    <row r="191" ht="15.15" spans="1:4">
+      <c r="A191" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B191" s="5">
+        <v>200</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D191" s="1">
+        <v>111300</v>
+      </c>
+    </row>
+    <row r="192" ht="15.15" spans="1:4">
+      <c r="A192" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B192" s="5">
+        <v>201</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D192" s="1">
+        <v>111301</v>
+      </c>
+    </row>
+    <row r="193" ht="15.15" spans="1:4">
+      <c r="A193" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B193" s="5">
+        <v>202</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D193" s="1">
+        <v>111302</v>
+      </c>
+    </row>
+    <row r="194" ht="15.15" spans="1:4">
+      <c r="A194" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B194" s="5">
+        <v>203</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194" s="1">
+        <v>111303</v>
+      </c>
+    </row>
+    <row r="195" ht="15.15" spans="1:4">
+      <c r="A195" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B195" s="5">
+        <v>204</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D195" s="1">
+        <v>111304</v>
+      </c>
+    </row>
+    <row r="196" ht="15.15" spans="1:4">
+      <c r="A196" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B196" s="5">
+        <v>205</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D196" s="1">
+        <v>111305</v>
+      </c>
+    </row>
+    <row r="197" ht="15.15" spans="1:4">
+      <c r="A197" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B197" s="5">
+        <v>206</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D197" s="1">
+        <v>111306</v>
+      </c>
+    </row>
+    <row r="198" ht="15.15" spans="1:4">
+      <c r="A198" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B198" s="5">
+        <v>207</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D198" s="1">
+        <v>111307</v>
+      </c>
+    </row>
+    <row r="199" ht="15.15" spans="1:4">
+      <c r="A199" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B199" s="5">
+        <v>208</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D199" s="1">
+        <v>111308</v>
+      </c>
+    </row>
+    <row r="200" ht="15.15" spans="1:4">
+      <c r="A200" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B200" s="5">
+        <v>209</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D200" s="1">
+        <v>111309</v>
+      </c>
+    </row>
+    <row r="201" ht="15.15" spans="1:4">
+      <c r="A201" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B201" s="5">
+        <v>210</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D201" s="1">
+        <v>111310</v>
+      </c>
+    </row>
+    <row r="202" ht="15.15" spans="1:4">
+      <c r="A202" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B202" s="5">
+        <v>211</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D202" s="1">
+        <v>111311</v>
+      </c>
+    </row>
+    <row r="203" ht="15.15" spans="1:4">
+      <c r="A203" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B203" s="5">
+        <v>212</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D203" s="1">
+        <v>111312</v>
+      </c>
+    </row>
+    <row r="204" ht="15.15" spans="1:4">
+      <c r="A204" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B204" s="5">
+        <v>213</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D204" s="1">
+        <v>111313</v>
+      </c>
+    </row>
+    <row r="205" ht="15.15" spans="1:4">
+      <c r="A205" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B205" s="5">
+        <v>214</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D205" s="1">
+        <v>111314</v>
+      </c>
+    </row>
+    <row r="206" ht="15.15" spans="1:4">
+      <c r="A206" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B206" s="5">
+        <v>215</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D206" s="1">
+        <v>111315</v>
+      </c>
+    </row>
+    <row r="207" ht="15.15" spans="1:4">
+      <c r="A207" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B207" s="5">
+        <v>216</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D207" s="1">
+        <v>111316</v>
+      </c>
+    </row>
+    <row r="208" ht="15.15" spans="1:4">
+      <c r="A208" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B208" s="5">
+        <v>217</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D208" s="1">
+        <v>111317</v>
+      </c>
+    </row>
+    <row r="209" ht="15.15" spans="1:4">
+      <c r="A209" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B209" s="5">
+        <v>218</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D209" s="1">
+        <v>111318</v>
+      </c>
+    </row>
+    <row r="210" ht="15.15" spans="1:4">
+      <c r="A210" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B210" s="5">
+        <v>219</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210" s="1">
+        <v>111319</v>
+      </c>
+    </row>
+    <row r="211" ht="15.15" spans="1:4">
+      <c r="A211" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B211" s="5">
+        <v>220</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D211" s="1">
+        <v>111320</v>
+      </c>
+    </row>
+    <row r="212" ht="15.15" spans="1:4">
+      <c r="A212" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B212" s="5">
+        <v>221</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D212" s="1">
+        <v>111321</v>
+      </c>
+    </row>
+    <row r="213" ht="15.15" spans="1:4">
+      <c r="A213" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B213" s="5">
+        <v>222</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D213" s="1">
+        <v>111322</v>
+      </c>
+    </row>
+    <row r="214" ht="15.15" spans="1:4">
+      <c r="A214" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B214" s="5">
+        <v>223</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D214" s="1">
+        <v>111323</v>
+      </c>
+    </row>
+    <row r="215" ht="15.15" spans="1:4">
+      <c r="A215" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B215" s="5">
+        <v>224</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D215" s="1">
+        <v>111324</v>
+      </c>
+    </row>
+    <row r="216" ht="15.15" spans="1:4">
+      <c r="A216" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B216" s="5">
+        <v>225</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D216" s="1">
+        <v>111325</v>
+      </c>
+    </row>
+    <row r="217" ht="15.15" spans="1:4">
+      <c r="A217" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B217" s="5">
+        <v>226</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D217" s="1">
+        <v>111326</v>
+      </c>
+    </row>
+    <row r="218" ht="15.15" spans="1:4">
+      <c r="A218" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B218" s="5">
+        <v>227</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D218" s="1">
+        <v>111327</v>
+      </c>
+    </row>
+    <row r="219" ht="15.15" spans="1:4">
+      <c r="A219" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B219" s="5">
+        <v>228</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D219" s="1">
+        <v>111328</v>
+      </c>
+    </row>
+    <row r="220" ht="15.15" spans="1:4">
+      <c r="A220" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B220" s="5">
+        <v>229</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D220" s="1">
+        <v>111329</v>
+      </c>
+    </row>
+    <row r="221" ht="15.15" spans="1:4">
+      <c r="A221" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B221" s="5">
+        <v>230</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D221" s="1">
+        <v>111330</v>
+      </c>
+    </row>
+    <row r="222" ht="15.15" spans="1:4">
+      <c r="A222" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B222" s="5">
+        <v>231</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D222" s="1">
+        <v>111331</v>
+      </c>
+    </row>
+    <row r="223" ht="15.15" spans="1:4">
+      <c r="A223" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B223" s="5">
+        <v>232</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D223" s="1">
+        <v>111332</v>
+      </c>
+    </row>
+    <row r="224" ht="15.15" spans="1:4">
+      <c r="A224" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B224" s="5">
+        <v>233</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D224" s="1">
+        <v>111333</v>
+      </c>
+    </row>
+    <row r="225" ht="15.15" spans="1:4">
+      <c r="A225" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B225" s="5">
+        <v>234</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D225" s="1">
+        <v>111334</v>
+      </c>
+    </row>
+    <row r="226" ht="15.15" spans="1:4">
+      <c r="A226" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B226" s="5">
+        <v>235</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D226" s="1">
+        <v>111335</v>
+      </c>
+    </row>
+    <row r="227" ht="15.15" spans="1:4">
+      <c r="A227" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B227" s="5">
+        <v>236</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D227" s="1">
+        <v>111336</v>
+      </c>
+    </row>
+    <row r="228" ht="15.15" spans="1:4">
+      <c r="A228" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B228" s="5">
+        <v>237</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D228" s="1">
+        <v>111337</v>
+      </c>
+    </row>
+    <row r="229" ht="15.15" spans="1:4">
+      <c r="A229" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B229" s="5">
+        <v>238</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D229" s="1">
+        <v>111338</v>
+      </c>
+    </row>
+    <row r="230" ht="15.15" spans="1:4">
+      <c r="A230" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B230" s="5">
+        <v>239</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D230" s="1">
+        <v>111339</v>
+      </c>
+    </row>
+    <row r="231" ht="15.15" spans="1:4">
+      <c r="A231" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B231" s="5">
+        <v>240</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D231" s="1">
+        <v>111340</v>
+      </c>
+    </row>
+    <row r="232" ht="15.15" spans="1:4">
+      <c r="A232" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B232" s="5">
+        <v>241</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D232" s="1">
+        <v>111341</v>
+      </c>
+    </row>
+    <row r="233" ht="15.15" spans="1:4">
+      <c r="A233" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B233" s="5">
+        <v>242</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D233" s="1">
+        <v>111342</v>
+      </c>
+    </row>
+    <row r="234" ht="15.15" spans="1:4">
+      <c r="A234" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B234" s="5">
+        <v>243</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D234" s="1">
+        <v>111343</v>
+      </c>
+    </row>
+    <row r="235" ht="15.15" spans="1:4">
+      <c r="A235" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B235" s="5">
+        <v>244</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D235" s="1">
+        <v>111344</v>
+      </c>
+    </row>
+    <row r="236" ht="15.15" spans="1:4">
+      <c r="A236" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B236" s="5">
+        <v>245</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D236" s="1">
+        <v>111345</v>
+      </c>
+    </row>
+    <row r="237" ht="15.15" spans="1:4">
+      <c r="A237" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B237" s="5">
+        <v>246</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D237" s="1">
+        <v>111346</v>
+      </c>
+    </row>
+    <row r="238" ht="15.15" spans="1:4">
+      <c r="A238" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B238" s="5">
+        <v>247</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D238" s="1">
+        <v>111347</v>
+      </c>
+    </row>
+    <row r="239" ht="15.15" spans="1:4">
+      <c r="A239" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B239" s="5">
+        <v>248</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D239" s="1">
+        <v>111348</v>
+      </c>
+    </row>
+    <row r="240" ht="15.15" spans="1:4">
+      <c r="A240" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B240" s="5">
+        <v>249</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D240" s="1">
+        <v>111349</v>
+      </c>
+    </row>
+    <row r="241" ht="15.15" spans="1:4">
+      <c r="A241" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B241" s="5">
+        <v>250</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D241" s="1">
+        <v>111350</v>
+      </c>
+    </row>
+    <row r="242" ht="15.15" spans="1:4">
+      <c r="A242" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B242" s="5">
+        <v>251</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D242" s="1">
+        <v>111351</v>
+      </c>
+    </row>
+    <row r="243" ht="15.15" spans="1:4">
+      <c r="A243" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B243" s="5">
+        <v>252</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D243" s="1">
+        <v>111352</v>
+      </c>
+    </row>
+    <row r="244" ht="15.15" spans="1:4">
+      <c r="A244" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B244" s="5">
+        <v>253</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D244" s="1">
+        <v>111353</v>
+      </c>
+    </row>
+    <row r="245" ht="15.15" spans="1:4">
+      <c r="A245" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B245" s="5">
+        <v>254</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D245" s="1">
+        <v>111354</v>
+      </c>
+    </row>
+    <row r="246" ht="15.15" spans="1:4">
+      <c r="A246" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B246" s="5">
+        <v>255</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D246" s="1">
+        <v>111355</v>
+      </c>
+    </row>
+    <row r="247" ht="15.15" spans="1:4">
+      <c r="A247" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B247" s="5">
+        <v>256</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D247" s="1">
+        <v>111356</v>
+      </c>
+    </row>
+    <row r="248" ht="15.15" spans="1:4">
+      <c r="A248" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B248" s="5">
+        <v>257</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D248" s="1">
+        <v>111357</v>
+      </c>
+    </row>
+    <row r="249" ht="15.15" spans="1:4">
+      <c r="A249" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B249" s="5">
+        <v>258</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D249" s="1">
+        <v>111358</v>
+      </c>
+    </row>
+    <row r="250" ht="15.15" spans="1:4">
+      <c r="A250" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B250" s="5">
+        <v>259</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D250" s="1">
+        <v>111359</v>
+      </c>
+    </row>
+    <row r="251" ht="15.15" spans="1:4">
+      <c r="A251" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B251" s="5">
+        <v>260</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D251" s="1">
+        <v>111360</v>
+      </c>
+    </row>
+    <row r="252" ht="15.15" spans="1:4">
+      <c r="A252" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B252" s="5">
+        <v>261</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D252" s="1">
+        <v>111361</v>
+      </c>
+    </row>
+    <row r="253" ht="15.15" spans="1:4">
+      <c r="A253" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B253" s="5">
+        <v>262</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D253" s="1">
+        <v>111362</v>
+      </c>
+    </row>
+    <row r="254" ht="15.15" spans="1:4">
+      <c r="A254" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B254" s="5">
+        <v>263</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D254" s="1">
+        <v>111363</v>
+      </c>
+    </row>
+    <row r="255" ht="15.15" spans="1:4">
+      <c r="A255" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B255" s="5">
+        <v>264</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D255" s="1">
+        <v>111364</v>
+      </c>
+    </row>
+    <row r="256" ht="15.15" spans="1:4">
+      <c r="A256" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B256" s="5">
+        <v>265</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D256" s="1">
+        <v>111365</v>
+      </c>
+    </row>
+    <row r="257" ht="15.15" spans="1:4">
+      <c r="A257" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B257" s="5">
+        <v>266</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D257" s="1">
+        <v>111366</v>
+      </c>
+    </row>
+    <row r="258" ht="15.15" spans="1:4">
+      <c r="A258" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B258" s="5">
+        <v>267</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D258" s="1">
+        <v>111367</v>
+      </c>
+    </row>
+    <row r="259" ht="15.15" spans="1:4">
+      <c r="A259" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B259" s="5">
+        <v>268</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D259" s="1">
+        <v>111368</v>
+      </c>
+    </row>
+    <row r="260" ht="15.15" spans="1:4">
+      <c r="A260" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B260" s="5">
+        <v>269</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D260" s="1">
+        <v>111369</v>
+      </c>
+    </row>
+    <row r="261" ht="15.15" spans="1:4">
+      <c r="A261" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B261" s="5">
+        <v>270</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D261" s="1">
+        <v>111370</v>
+      </c>
+    </row>
+    <row r="262" ht="15.15" spans="1:4">
+      <c r="A262" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B262" s="5">
+        <v>271</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D262" s="1">
+        <v>111371</v>
+      </c>
+    </row>
+    <row r="263" ht="15.15" spans="1:4">
+      <c r="A263" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B263" s="5">
+        <v>272</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D263" s="1">
+        <v>111372</v>
+      </c>
+    </row>
+    <row r="264" ht="15.15" spans="1:4">
+      <c r="A264" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B264" s="5">
+        <v>273</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D264" s="1">
+        <v>111373</v>
+      </c>
+    </row>
+    <row r="265" ht="15.15" spans="1:4">
+      <c r="A265" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B265" s="5">
+        <v>274</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D265" s="1">
+        <v>111374</v>
+      </c>
+    </row>
+    <row r="266" ht="15.15" spans="1:4">
+      <c r="A266" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B266" s="5">
+        <v>275</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D266" s="1">
+        <v>111375</v>
+      </c>
+    </row>
+    <row r="267" ht="15.15" spans="1:4">
+      <c r="A267" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B267" s="5">
+        <v>276</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D267" s="1">
+        <v>111376</v>
+      </c>
+    </row>
+    <row r="268" ht="15.15" spans="1:4">
+      <c r="A268" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B268" s="5">
+        <v>277</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D268" s="1">
+        <v>111377</v>
+      </c>
+    </row>
+    <row r="269" ht="15.15" spans="1:4">
+      <c r="A269" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B269" s="5">
+        <v>278</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D269" s="1">
+        <v>111378</v>
+      </c>
+    </row>
+    <row r="270" ht="15.15" spans="1:4">
+      <c r="A270" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B270" s="5">
+        <v>279</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D270" s="1">
+        <v>111379</v>
+      </c>
+    </row>
+    <row r="271" ht="15.15" spans="1:4">
+      <c r="A271" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B271" s="5">
+        <v>280</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D271" s="1">
+        <v>111380</v>
+      </c>
+    </row>
+    <row r="272" ht="15.15" spans="1:4">
+      <c r="A272" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B272" s="5">
+        <v>281</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D272" s="1">
+        <v>111381</v>
+      </c>
+    </row>
+    <row r="273" ht="15.15" spans="1:4">
+      <c r="A273" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B273" s="5">
+        <v>282</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D273" s="1">
+        <v>111382</v>
+      </c>
+    </row>
+    <row r="274" ht="15.15" spans="1:4">
+      <c r="A274" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B274" s="5">
+        <v>283</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D274" s="1">
+        <v>111383</v>
+      </c>
+    </row>
+    <row r="275" ht="15.15" spans="1:4">
+      <c r="A275" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B275" s="5">
+        <v>284</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D275" s="1">
+        <v>111384</v>
+      </c>
+    </row>
+    <row r="276" ht="15.15" spans="1:4">
+      <c r="A276" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B276" s="5">
+        <v>285</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D276" s="1">
+        <v>111385</v>
+      </c>
+    </row>
+    <row r="277" ht="15.15" spans="1:4">
+      <c r="A277" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B277" s="5">
+        <v>286</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D277" s="1">
+        <v>111386</v>
+      </c>
+    </row>
+    <row r="278" ht="15.15" spans="1:4">
+      <c r="A278" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B278" s="5">
+        <v>287</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D278" s="1">
+        <v>111387</v>
+      </c>
+    </row>
+    <row r="279" ht="15.15" spans="1:4">
+      <c r="A279" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B279" s="5">
+        <v>288</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D279" s="1">
+        <v>111388</v>
+      </c>
+    </row>
+    <row r="280" ht="15.15" spans="1:4">
+      <c r="A280" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B280" s="5">
+        <v>289</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D280" s="1">
+        <v>111389</v>
+      </c>
+    </row>
+    <row r="281" ht="15.15" spans="1:4">
+      <c r="A281" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B281" s="5">
+        <v>290</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D281" s="1">
+        <v>111390</v>
+      </c>
+    </row>
+    <row r="282" ht="15.15" spans="1:4">
+      <c r="A282" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B282" s="5">
+        <v>291</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D282" s="1">
+        <v>111391</v>
+      </c>
+    </row>
+    <row r="283" ht="15.15" spans="1:4">
+      <c r="A283" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B283" s="5">
+        <v>292</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D283" s="1">
+        <v>111392</v>
+      </c>
+    </row>
+    <row r="284" ht="15.15" spans="1:4">
+      <c r="A284" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B284" s="5">
+        <v>293</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D284" s="1">
+        <v>111393</v>
+      </c>
+    </row>
+    <row r="285" ht="15.15" spans="1:4">
+      <c r="A285" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B285" s="5">
+        <v>294</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D285" s="1">
+        <v>111394</v>
+      </c>
+    </row>
+    <row r="286" ht="15.15" spans="1:4">
+      <c r="A286" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B286" s="5">
+        <v>295</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D286" s="1">
+        <v>111395</v>
+      </c>
+    </row>
+    <row r="287" ht="15.15" spans="1:4">
+      <c r="A287" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B287" s="5">
+        <v>296</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D287" s="1">
+        <v>111396</v>
+      </c>
+    </row>
+    <row r="288" ht="15.15" spans="1:4">
+      <c r="A288" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B288" s="5">
+        <v>297</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D288" s="1">
+        <v>111397</v>
+      </c>
+    </row>
+    <row r="289" ht="15.15" spans="1:4">
+      <c r="A289" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B289" s="5">
+        <v>298</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D289" s="1">
+        <v>111398</v>
+      </c>
+    </row>
+    <row r="290" ht="15.15" spans="1:4">
+      <c r="A290" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B290" s="5">
+        <v>299</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D290" s="1">
+        <v>111399</v>
+      </c>
+    </row>
+    <row r="291" ht="15.15" spans="1:4">
+      <c r="A291" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B291" s="5">
+        <v>300</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D291" s="1">
+        <v>111400</v>
+      </c>
+    </row>
+    <row r="292" ht="15.15" spans="1:4">
+      <c r="A292" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B292" s="5">
+        <v>301</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D292" s="1">
+        <v>111401</v>
+      </c>
+    </row>
+    <row r="293" ht="15.15" spans="1:4">
+      <c r="A293" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B293" s="5">
+        <v>302</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D293" s="1">
+        <v>111402</v>
+      </c>
+    </row>
+    <row r="294" ht="15.15" spans="1:4">
+      <c r="A294" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B294" s="5">
+        <v>303</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D294" s="1">
+        <v>111403</v>
+      </c>
+    </row>
+    <row r="295" ht="15.15" spans="1:4">
+      <c r="A295" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B295" s="5">
+        <v>304</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D295" s="1">
+        <v>111404</v>
+      </c>
+    </row>
+    <row r="296" ht="15.15" spans="1:4">
+      <c r="A296" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B296" s="5">
+        <v>305</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D296" s="1">
+        <v>111405</v>
+      </c>
+    </row>
+    <row r="297" ht="15.15" spans="1:4">
+      <c r="A297" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B297" s="5">
+        <v>306</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D297" s="1">
+        <v>111406</v>
+      </c>
+    </row>
+    <row r="298" ht="15.15" spans="1:4">
+      <c r="A298" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B298" s="5">
+        <v>307</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D298" s="1">
+        <v>111407</v>
+      </c>
+    </row>
+    <row r="299" ht="15.15" spans="1:4">
+      <c r="A299" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B299" s="5">
+        <v>308</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D299" s="1">
+        <v>111408</v>
+      </c>
+    </row>
+    <row r="300" ht="15.15" spans="1:4">
+      <c r="A300" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B300" s="5">
+        <v>309</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D300" s="1">
+        <v>111409</v>
+      </c>
+    </row>
+    <row r="301" ht="15.15" spans="1:4">
+      <c r="A301" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B301" s="5">
+        <v>310</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D301" s="1">
+        <v>111410</v>
+      </c>
+    </row>
+    <row r="302" ht="15.15" spans="1:4">
+      <c r="A302" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B302" s="5">
+        <v>311</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D302" s="1">
+        <v>111411</v>
+      </c>
+    </row>
+    <row r="303" ht="15.15" spans="1:4">
+      <c r="A303" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B303" s="5">
+        <v>312</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D303" s="1">
+        <v>111412</v>
+      </c>
+    </row>
+    <row r="304" ht="15.15" spans="1:4">
+      <c r="A304" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B304" s="5">
+        <v>313</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D304" s="1">
+        <v>111413</v>
+      </c>
+    </row>
+    <row r="305" ht="15.15" spans="1:4">
+      <c r="A305" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B305" s="5">
+        <v>314</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D305" s="1">
+        <v>111414</v>
+      </c>
+    </row>
+    <row r="306" ht="15.15" spans="1:4">
+      <c r="A306" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B306" s="5">
+        <v>315</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D306" s="1">
+        <v>111415</v>
+      </c>
+    </row>
+    <row r="307" ht="15.15" spans="1:4">
+      <c r="A307" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B307" s="5">
+        <v>316</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D307" s="1">
+        <v>111416</v>
+      </c>
+    </row>
+    <row r="308" ht="15.15" spans="1:4">
+      <c r="A308" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B308" s="5">
+        <v>317</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D308" s="1">
+        <v>111417</v>
+      </c>
+    </row>
+    <row r="309" ht="15.15" spans="1:4">
+      <c r="A309" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B309" s="5">
+        <v>318</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D309" s="1">
+        <v>111418</v>
+      </c>
+    </row>
+    <row r="310" ht="15.15" spans="1:4">
+      <c r="A310" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B310" s="5">
+        <v>319</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D310" s="1">
+        <v>111419</v>
+      </c>
+    </row>
+    <row r="311" ht="15.15" spans="1:4">
+      <c r="A311" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B311" s="5">
+        <v>320</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D311" s="1">
+        <v>111420</v>
+      </c>
+    </row>
+    <row r="312" ht="15.15" spans="1:4">
+      <c r="A312" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B312" s="5">
+        <v>321</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D312" s="1">
+        <v>111421</v>
+      </c>
+    </row>
+    <row r="313" ht="15.15" spans="1:4">
+      <c r="A313" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B313" s="5">
+        <v>322</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D313" s="1">
+        <v>111422</v>
+      </c>
+    </row>
+    <row r="314" ht="15.15" spans="1:4">
+      <c r="A314" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B314" s="5">
+        <v>323</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D314" s="1">
+        <v>111423</v>
+      </c>
+    </row>
+    <row r="315" ht="15.15" spans="1:4">
+      <c r="A315" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B315" s="5">
+        <v>324</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D315" s="1">
+        <v>111424</v>
+      </c>
+    </row>
+    <row r="316" ht="15.15" spans="1:4">
+      <c r="A316" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B316" s="5">
+        <v>325</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D316" s="1">
+        <v>111425</v>
+      </c>
+    </row>
+    <row r="317" ht="15.15" spans="1:4">
+      <c r="A317" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B317" s="5">
+        <v>326</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D317" s="1">
+        <v>111426</v>
+      </c>
+    </row>
+    <row r="318" ht="15.15" spans="1:4">
+      <c r="A318" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B318" s="5">
+        <v>327</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D318" s="1">
+        <v>111427</v>
+      </c>
+    </row>
+    <row r="319" ht="15.15" spans="1:4">
+      <c r="A319" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B319" s="5">
+        <v>328</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D319" s="1">
+        <v>111428</v>
+      </c>
+    </row>
+    <row r="320" ht="15.15" spans="1:4">
+      <c r="A320" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B320" s="5">
+        <v>329</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D320" s="1">
+        <v>111429</v>
+      </c>
+    </row>
+    <row r="321" ht="15.15" spans="1:4">
+      <c r="A321" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B321" s="5">
+        <v>330</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D321" s="1">
+        <v>111430</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/uploadFile/解析模板.xlsx
+++ b/src/main/resources/static/uploadFile/解析模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="666">
   <si>
     <t>姓名</t>
   </si>
@@ -30,970 +30,1990 @@
     <t>身份证号码</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>名称1</t>
   </si>
   <si>
     <t>男</t>
   </si>
   <si>
+    <t>备注1</t>
+  </si>
+  <si>
     <t>名称2</t>
   </si>
   <si>
     <t>女</t>
   </si>
   <si>
+    <t>备注2</t>
+  </si>
+  <si>
     <t>名称3</t>
   </si>
   <si>
+    <t>备注3</t>
+  </si>
+  <si>
     <t>名称4</t>
   </si>
   <si>
+    <t>备注4</t>
+  </si>
+  <si>
     <t>名称5</t>
   </si>
   <si>
+    <t>备注5</t>
+  </si>
+  <si>
     <t>名称6</t>
   </si>
   <si>
+    <t>备注6</t>
+  </si>
+  <si>
     <t>名称7</t>
   </si>
   <si>
+    <t>备注7</t>
+  </si>
+  <si>
     <t>名称8</t>
   </si>
   <si>
+    <t>备注8</t>
+  </si>
+  <si>
     <t>名称9</t>
   </si>
   <si>
+    <t>备注9</t>
+  </si>
+  <si>
     <t>名称10</t>
   </si>
   <si>
+    <t>备注10</t>
+  </si>
+  <si>
     <t>名称11</t>
   </si>
   <si>
+    <t>备注11</t>
+  </si>
+  <si>
     <t>名称12</t>
   </si>
   <si>
+    <t>备注12</t>
+  </si>
+  <si>
     <t>名称13</t>
   </si>
   <si>
+    <t>备注13</t>
+  </si>
+  <si>
     <t>名称14</t>
   </si>
   <si>
+    <t>备注14</t>
+  </si>
+  <si>
     <t>名称15</t>
   </si>
   <si>
+    <t>备注15</t>
+  </si>
+  <si>
     <t>名称16</t>
   </si>
   <si>
+    <t>备注16</t>
+  </si>
+  <si>
     <t>名称17</t>
   </si>
   <si>
+    <t>备注17</t>
+  </si>
+  <si>
     <t>名称18</t>
   </si>
   <si>
+    <t>备注18</t>
+  </si>
+  <si>
     <t>名称19</t>
   </si>
   <si>
+    <t>备注19</t>
+  </si>
+  <si>
     <t>名称20</t>
   </si>
   <si>
+    <t>备注20</t>
+  </si>
+  <si>
     <t>名称21</t>
   </si>
   <si>
+    <t>备注21</t>
+  </si>
+  <si>
     <t>名称22</t>
   </si>
   <si>
+    <t>备注22</t>
+  </si>
+  <si>
     <t>名称23</t>
   </si>
   <si>
+    <t>备注23</t>
+  </si>
+  <si>
     <t>名称24</t>
   </si>
   <si>
+    <t>备注24</t>
+  </si>
+  <si>
     <t>名称25</t>
   </si>
   <si>
+    <t>备注25</t>
+  </si>
+  <si>
     <t>名称26</t>
   </si>
   <si>
+    <t>备注26</t>
+  </si>
+  <si>
     <t>名称27</t>
   </si>
   <si>
+    <t>备注27</t>
+  </si>
+  <si>
     <t>名称28</t>
   </si>
   <si>
+    <t>备注28</t>
+  </si>
+  <si>
     <t>名称29</t>
   </si>
   <si>
+    <t>备注29</t>
+  </si>
+  <si>
     <t>名称30</t>
   </si>
   <si>
+    <t>备注30</t>
+  </si>
+  <si>
     <t>名称31</t>
   </si>
   <si>
+    <t>备注31</t>
+  </si>
+  <si>
     <t>名称32</t>
   </si>
   <si>
+    <t>备注32</t>
+  </si>
+  <si>
     <t>名称33</t>
   </si>
   <si>
+    <t>备注33</t>
+  </si>
+  <si>
     <t>名称34</t>
   </si>
   <si>
+    <t>备注34</t>
+  </si>
+  <si>
     <t>名称35</t>
   </si>
   <si>
+    <t>备注35</t>
+  </si>
+  <si>
     <t>名称36</t>
   </si>
   <si>
+    <t>备注36</t>
+  </si>
+  <si>
     <t>名称37</t>
   </si>
   <si>
+    <t>备注37</t>
+  </si>
+  <si>
     <t>名称38</t>
   </si>
   <si>
+    <t>备注38</t>
+  </si>
+  <si>
     <t>名称39</t>
   </si>
   <si>
+    <t>备注39</t>
+  </si>
+  <si>
     <t>名称40</t>
   </si>
   <si>
+    <t>备注40</t>
+  </si>
+  <si>
     <t>名称41</t>
   </si>
   <si>
+    <t>备注41</t>
+  </si>
+  <si>
     <t>名称42</t>
   </si>
   <si>
+    <t>备注42</t>
+  </si>
+  <si>
     <t>名称43</t>
   </si>
   <si>
+    <t>备注43</t>
+  </si>
+  <si>
     <t>名称44</t>
   </si>
   <si>
+    <t>备注44</t>
+  </si>
+  <si>
     <t>名称45</t>
   </si>
   <si>
+    <t>备注45</t>
+  </si>
+  <si>
     <t>名称46</t>
   </si>
   <si>
+    <t>备注46</t>
+  </si>
+  <si>
     <t>名称47</t>
   </si>
   <si>
+    <t>备注47</t>
+  </si>
+  <si>
     <t>名称48</t>
   </si>
   <si>
+    <t>备注48</t>
+  </si>
+  <si>
     <t>名称49</t>
   </si>
   <si>
+    <t>备注49</t>
+  </si>
+  <si>
     <t>名称50</t>
   </si>
   <si>
+    <t>备注50</t>
+  </si>
+  <si>
     <t>名称51</t>
   </si>
   <si>
+    <t>备注51</t>
+  </si>
+  <si>
     <t>名称52</t>
   </si>
   <si>
+    <t>备注52</t>
+  </si>
+  <si>
     <t>名称53</t>
   </si>
   <si>
+    <t>备注53</t>
+  </si>
+  <si>
     <t>名称54</t>
   </si>
   <si>
+    <t>备注54</t>
+  </si>
+  <si>
     <t>名称55</t>
   </si>
   <si>
+    <t>备注55</t>
+  </si>
+  <si>
     <t>名称56</t>
   </si>
   <si>
+    <t>备注56</t>
+  </si>
+  <si>
     <t>名称57</t>
   </si>
   <si>
+    <t>备注57</t>
+  </si>
+  <si>
     <t>名称58</t>
   </si>
   <si>
+    <t>备注58</t>
+  </si>
+  <si>
     <t>名称59</t>
   </si>
   <si>
+    <t>备注59</t>
+  </si>
+  <si>
     <t>名称60</t>
   </si>
   <si>
+    <t>备注60</t>
+  </si>
+  <si>
     <t>名称61</t>
   </si>
   <si>
+    <t>备注61</t>
+  </si>
+  <si>
     <t>名称62</t>
   </si>
   <si>
+    <t>备注62</t>
+  </si>
+  <si>
     <t>名称63</t>
   </si>
   <si>
+    <t>备注63</t>
+  </si>
+  <si>
     <t>名称64</t>
   </si>
   <si>
+    <t>备注64</t>
+  </si>
+  <si>
     <t>名称65</t>
   </si>
   <si>
+    <t>备注65</t>
+  </si>
+  <si>
     <t>名称66</t>
   </si>
   <si>
+    <t>备注66</t>
+  </si>
+  <si>
     <t>名称67</t>
   </si>
   <si>
+    <t>备注67</t>
+  </si>
+  <si>
     <t>名称68</t>
   </si>
   <si>
+    <t>备注68</t>
+  </si>
+  <si>
     <t>名称69</t>
   </si>
   <si>
+    <t>备注69</t>
+  </si>
+  <si>
     <t>名称70</t>
   </si>
   <si>
+    <t>备注70</t>
+  </si>
+  <si>
     <t>名称71</t>
   </si>
   <si>
+    <t>备注71</t>
+  </si>
+  <si>
     <t>名称72</t>
   </si>
   <si>
+    <t>备注72</t>
+  </si>
+  <si>
     <t>名称73</t>
   </si>
   <si>
+    <t>备注73</t>
+  </si>
+  <si>
     <t>名称74</t>
   </si>
   <si>
+    <t>备注74</t>
+  </si>
+  <si>
     <t>名称75</t>
   </si>
   <si>
+    <t>备注75</t>
+  </si>
+  <si>
     <t>名称76</t>
   </si>
   <si>
+    <t>备注76</t>
+  </si>
+  <si>
     <t>名称77</t>
   </si>
   <si>
+    <t>备注77</t>
+  </si>
+  <si>
     <t>名称78</t>
   </si>
   <si>
+    <t>备注78</t>
+  </si>
+  <si>
     <t>名称79</t>
   </si>
   <si>
+    <t>备注79</t>
+  </si>
+  <si>
     <t>名称80</t>
   </si>
   <si>
+    <t>备注80</t>
+  </si>
+  <si>
     <t>名称81</t>
   </si>
   <si>
+    <t>备注81</t>
+  </si>
+  <si>
     <t>名称82</t>
   </si>
   <si>
+    <t>备注82</t>
+  </si>
+  <si>
     <t>名称83</t>
   </si>
   <si>
+    <t>备注83</t>
+  </si>
+  <si>
     <t>名称84</t>
   </si>
   <si>
+    <t>备注84</t>
+  </si>
+  <si>
     <t>名称85</t>
   </si>
   <si>
+    <t>备注85</t>
+  </si>
+  <si>
     <t>名称86</t>
   </si>
   <si>
+    <t>备注86</t>
+  </si>
+  <si>
     <t>名称87</t>
   </si>
   <si>
+    <t>备注87</t>
+  </si>
+  <si>
     <t>名称88</t>
   </si>
   <si>
+    <t>备注88</t>
+  </si>
+  <si>
     <t>名称89</t>
   </si>
   <si>
+    <t>备注89</t>
+  </si>
+  <si>
     <t>名称90</t>
   </si>
   <si>
+    <t>备注90</t>
+  </si>
+  <si>
     <t>名称91</t>
   </si>
   <si>
+    <t>备注91</t>
+  </si>
+  <si>
     <t>名称92</t>
   </si>
   <si>
+    <t>备注92</t>
+  </si>
+  <si>
     <t>名称93</t>
   </si>
   <si>
+    <t>备注93</t>
+  </si>
+  <si>
     <t>名称94</t>
   </si>
   <si>
+    <t>备注94</t>
+  </si>
+  <si>
     <t>名称95</t>
   </si>
   <si>
+    <t>备注95</t>
+  </si>
+  <si>
     <t>名称96</t>
   </si>
   <si>
+    <t>备注96</t>
+  </si>
+  <si>
     <t>名称97</t>
   </si>
   <si>
+    <t>备注97</t>
+  </si>
+  <si>
     <t>名称98</t>
   </si>
   <si>
+    <t>备注98</t>
+  </si>
+  <si>
     <t>名称99</t>
   </si>
   <si>
+    <t>备注99</t>
+  </si>
+  <si>
     <t>名称100</t>
   </si>
   <si>
+    <t>备注100</t>
+  </si>
+  <si>
     <t>名称101</t>
   </si>
   <si>
+    <t>备注101</t>
+  </si>
+  <si>
     <t>名称102</t>
   </si>
   <si>
+    <t>备注102</t>
+  </si>
+  <si>
     <t>名称103</t>
   </si>
   <si>
+    <t>备注103</t>
+  </si>
+  <si>
     <t>名称104</t>
   </si>
   <si>
+    <t>备注104</t>
+  </si>
+  <si>
     <t>名称105</t>
   </si>
   <si>
+    <t>备注105</t>
+  </si>
+  <si>
     <t>名称106</t>
   </si>
   <si>
+    <t>备注106</t>
+  </si>
+  <si>
     <t>名称107</t>
   </si>
   <si>
+    <t>备注107</t>
+  </si>
+  <si>
     <t>名称108</t>
   </si>
   <si>
+    <t>备注108</t>
+  </si>
+  <si>
     <t>名称109</t>
   </si>
   <si>
+    <t>备注109</t>
+  </si>
+  <si>
     <t>名称110</t>
   </si>
   <si>
+    <t>备注110</t>
+  </si>
+  <si>
     <t>名称111</t>
   </si>
   <si>
+    <t>备注111</t>
+  </si>
+  <si>
     <t>名称112</t>
   </si>
   <si>
+    <t>备注112</t>
+  </si>
+  <si>
     <t>名称113</t>
   </si>
   <si>
+    <t>备注113</t>
+  </si>
+  <si>
     <t>名称114</t>
   </si>
   <si>
+    <t>备注114</t>
+  </si>
+  <si>
     <t>名称115</t>
   </si>
   <si>
+    <t>备注115</t>
+  </si>
+  <si>
     <t>名称116</t>
   </si>
   <si>
+    <t>备注116</t>
+  </si>
+  <si>
     <t>名称117</t>
   </si>
   <si>
+    <t>备注117</t>
+  </si>
+  <si>
     <t>名称118</t>
   </si>
   <si>
+    <t>备注118</t>
+  </si>
+  <si>
     <t>名称119</t>
   </si>
   <si>
+    <t>备注119</t>
+  </si>
+  <si>
     <t>名称120</t>
   </si>
   <si>
+    <t>备注120</t>
+  </si>
+  <si>
     <t>名称121</t>
   </si>
   <si>
+    <t>备注121</t>
+  </si>
+  <si>
     <t>名称122</t>
   </si>
   <si>
+    <t>备注122</t>
+  </si>
+  <si>
     <t>名称123</t>
   </si>
   <si>
+    <t>备注123</t>
+  </si>
+  <si>
     <t>名称124</t>
   </si>
   <si>
+    <t>备注124</t>
+  </si>
+  <si>
     <t>名称125</t>
   </si>
   <si>
+    <t>备注125</t>
+  </si>
+  <si>
     <t>名称126</t>
   </si>
   <si>
+    <t>备注126</t>
+  </si>
+  <si>
     <t>名称127</t>
   </si>
   <si>
+    <t>备注127</t>
+  </si>
+  <si>
     <t>名称128</t>
   </si>
   <si>
+    <t>备注128</t>
+  </si>
+  <si>
     <t>名称129</t>
   </si>
   <si>
+    <t>备注129</t>
+  </si>
+  <si>
     <t>名称130</t>
   </si>
   <si>
+    <t>备注130</t>
+  </si>
+  <si>
     <t>名称131</t>
   </si>
   <si>
+    <t>备注131</t>
+  </si>
+  <si>
     <t>名称132</t>
   </si>
   <si>
+    <t>备注132</t>
+  </si>
+  <si>
     <t>名称133</t>
   </si>
   <si>
+    <t>备注133</t>
+  </si>
+  <si>
     <t>名称134</t>
   </si>
   <si>
+    <t>备注134</t>
+  </si>
+  <si>
     <t>名称135</t>
   </si>
   <si>
+    <t>备注135</t>
+  </si>
+  <si>
     <t>名称136</t>
   </si>
   <si>
+    <t>备注136</t>
+  </si>
+  <si>
     <t>名称137</t>
   </si>
   <si>
+    <t>备注137</t>
+  </si>
+  <si>
     <t>名称138</t>
   </si>
   <si>
+    <t>备注138</t>
+  </si>
+  <si>
     <t>名称139</t>
   </si>
   <si>
+    <t>备注139</t>
+  </si>
+  <si>
     <t>名称140</t>
   </si>
   <si>
+    <t>备注140</t>
+  </si>
+  <si>
     <t>名称141</t>
   </si>
   <si>
+    <t>备注141</t>
+  </si>
+  <si>
     <t>名称142</t>
   </si>
   <si>
+    <t>备注142</t>
+  </si>
+  <si>
     <t>名称143</t>
   </si>
   <si>
+    <t>备注143</t>
+  </si>
+  <si>
     <t>名称144</t>
   </si>
   <si>
+    <t>备注144</t>
+  </si>
+  <si>
     <t>名称145</t>
   </si>
   <si>
+    <t>备注145</t>
+  </si>
+  <si>
     <t>名称146</t>
   </si>
   <si>
+    <t>备注146</t>
+  </si>
+  <si>
     <t>名称147</t>
   </si>
   <si>
+    <t>备注147</t>
+  </si>
+  <si>
     <t>名称148</t>
   </si>
   <si>
+    <t>备注148</t>
+  </si>
+  <si>
     <t>名称149</t>
   </si>
   <si>
+    <t>备注149</t>
+  </si>
+  <si>
     <t>名称150</t>
   </si>
   <si>
+    <t>备注150</t>
+  </si>
+  <si>
     <t>名称151</t>
   </si>
   <si>
+    <t>备注151</t>
+  </si>
+  <si>
     <t>名称152</t>
   </si>
   <si>
+    <t>备注152</t>
+  </si>
+  <si>
     <t>名称153</t>
   </si>
   <si>
+    <t>备注153</t>
+  </si>
+  <si>
     <t>名称154</t>
   </si>
   <si>
+    <t>备注154</t>
+  </si>
+  <si>
     <t>名称155</t>
   </si>
   <si>
+    <t>备注155</t>
+  </si>
+  <si>
     <t>名称156</t>
   </si>
   <si>
+    <t>备注156</t>
+  </si>
+  <si>
     <t>名称157</t>
   </si>
   <si>
+    <t>备注157</t>
+  </si>
+  <si>
     <t>名称158</t>
   </si>
   <si>
+    <t>备注158</t>
+  </si>
+  <si>
     <t>名称159</t>
   </si>
   <si>
+    <t>备注159</t>
+  </si>
+  <si>
     <t>名称160</t>
   </si>
   <si>
+    <t>备注160</t>
+  </si>
+  <si>
     <t>名称161</t>
   </si>
   <si>
+    <t>备注161</t>
+  </si>
+  <si>
     <t>名称162</t>
   </si>
   <si>
+    <t>备注162</t>
+  </si>
+  <si>
     <t>名称163</t>
   </si>
   <si>
+    <t>备注163</t>
+  </si>
+  <si>
     <t>名称164</t>
   </si>
   <si>
+    <t>备注164</t>
+  </si>
+  <si>
     <t>名称165</t>
   </si>
   <si>
+    <t>备注165</t>
+  </si>
+  <si>
     <t>名称166</t>
   </si>
   <si>
+    <t>备注166</t>
+  </si>
+  <si>
     <t>名称167</t>
   </si>
   <si>
+    <t>备注167</t>
+  </si>
+  <si>
     <t>名称168</t>
   </si>
   <si>
+    <t>备注168</t>
+  </si>
+  <si>
     <t>名称169</t>
   </si>
   <si>
+    <t>备注169</t>
+  </si>
+  <si>
     <t>名称170</t>
   </si>
   <si>
+    <t>备注170</t>
+  </si>
+  <si>
     <t>名称171</t>
   </si>
   <si>
+    <t>备注171</t>
+  </si>
+  <si>
     <t>名称172</t>
   </si>
   <si>
+    <t>备注172</t>
+  </si>
+  <si>
     <t>名称173</t>
   </si>
   <si>
+    <t>备注173</t>
+  </si>
+  <si>
     <t>名称174</t>
   </si>
   <si>
+    <t>备注174</t>
+  </si>
+  <si>
     <t>名称175</t>
   </si>
   <si>
+    <t>备注175</t>
+  </si>
+  <si>
     <t>名称176</t>
   </si>
   <si>
+    <t>备注176</t>
+  </si>
+  <si>
     <t>名称177</t>
   </si>
   <si>
+    <t>备注177</t>
+  </si>
+  <si>
     <t>名称178</t>
   </si>
   <si>
+    <t>备注178</t>
+  </si>
+  <si>
     <t>名称179</t>
   </si>
   <si>
+    <t>备注179</t>
+  </si>
+  <si>
     <t>名称180</t>
   </si>
   <si>
+    <t>备注180</t>
+  </si>
+  <si>
     <t>名称181</t>
   </si>
   <si>
+    <t>备注181</t>
+  </si>
+  <si>
     <t>名称182</t>
   </si>
   <si>
+    <t>备注182</t>
+  </si>
+  <si>
     <t>名称183</t>
   </si>
   <si>
+    <t>备注183</t>
+  </si>
+  <si>
     <t>名称184</t>
   </si>
   <si>
+    <t>备注184</t>
+  </si>
+  <si>
     <t>名称185</t>
   </si>
   <si>
+    <t>备注185</t>
+  </si>
+  <si>
     <t>名称186</t>
   </si>
   <si>
+    <t>备注186</t>
+  </si>
+  <si>
     <t>名称187</t>
   </si>
   <si>
+    <t>备注187</t>
+  </si>
+  <si>
     <t>名称188</t>
   </si>
   <si>
+    <t>备注188</t>
+  </si>
+  <si>
     <t>名称189</t>
   </si>
   <si>
+    <t>备注189</t>
+  </si>
+  <si>
     <t>名称190</t>
   </si>
   <si>
+    <t>备注190</t>
+  </si>
+  <si>
     <t>名称191</t>
   </si>
   <si>
+    <t>备注191</t>
+  </si>
+  <si>
     <t>名称192</t>
   </si>
   <si>
+    <t>备注192</t>
+  </si>
+  <si>
     <t>名称193</t>
   </si>
   <si>
+    <t>备注193</t>
+  </si>
+  <si>
     <t>名称194</t>
   </si>
   <si>
+    <t>备注194</t>
+  </si>
+  <si>
     <t>名称195</t>
   </si>
   <si>
+    <t>备注195</t>
+  </si>
+  <si>
     <t>名称196</t>
   </si>
   <si>
+    <t>备注196</t>
+  </si>
+  <si>
     <t>名称197</t>
   </si>
   <si>
+    <t>备注197</t>
+  </si>
+  <si>
     <t>名称198</t>
   </si>
   <si>
+    <t>备注198</t>
+  </si>
+  <si>
     <t>名称199</t>
   </si>
   <si>
+    <t>备注199</t>
+  </si>
+  <si>
     <t>名称200</t>
   </si>
   <si>
+    <t>备注200</t>
+  </si>
+  <si>
     <t>名称201</t>
   </si>
   <si>
+    <t>备注201</t>
+  </si>
+  <si>
     <t>名称202</t>
   </si>
   <si>
+    <t>备注202</t>
+  </si>
+  <si>
     <t>名称203</t>
   </si>
   <si>
+    <t>备注203</t>
+  </si>
+  <si>
     <t>名称204</t>
   </si>
   <si>
+    <t>备注204</t>
+  </si>
+  <si>
     <t>名称205</t>
   </si>
   <si>
+    <t>备注205</t>
+  </si>
+  <si>
     <t>名称206</t>
   </si>
   <si>
+    <t>备注206</t>
+  </si>
+  <si>
     <t>名称207</t>
   </si>
   <si>
+    <t>备注207</t>
+  </si>
+  <si>
     <t>名称208</t>
   </si>
   <si>
+    <t>备注208</t>
+  </si>
+  <si>
     <t>名称209</t>
   </si>
   <si>
+    <t>备注209</t>
+  </si>
+  <si>
     <t>名称210</t>
   </si>
   <si>
+    <t>备注210</t>
+  </si>
+  <si>
     <t>名称211</t>
   </si>
   <si>
+    <t>备注211</t>
+  </si>
+  <si>
     <t>名称212</t>
   </si>
   <si>
+    <t>备注212</t>
+  </si>
+  <si>
     <t>名称213</t>
   </si>
   <si>
+    <t>备注213</t>
+  </si>
+  <si>
     <t>名称214</t>
   </si>
   <si>
+    <t>备注214</t>
+  </si>
+  <si>
     <t>名称215</t>
   </si>
   <si>
+    <t>备注215</t>
+  </si>
+  <si>
     <t>名称216</t>
   </si>
   <si>
+    <t>备注216</t>
+  </si>
+  <si>
     <t>名称217</t>
   </si>
   <si>
+    <t>备注217</t>
+  </si>
+  <si>
     <t>名称218</t>
   </si>
   <si>
+    <t>备注218</t>
+  </si>
+  <si>
     <t>名称219</t>
   </si>
   <si>
+    <t>备注219</t>
+  </si>
+  <si>
     <t>名称220</t>
   </si>
   <si>
+    <t>备注220</t>
+  </si>
+  <si>
     <t>名称221</t>
   </si>
   <si>
+    <t>备注221</t>
+  </si>
+  <si>
     <t>名称222</t>
   </si>
   <si>
+    <t>备注222</t>
+  </si>
+  <si>
     <t>名称223</t>
   </si>
   <si>
+    <t>备注223</t>
+  </si>
+  <si>
     <t>名称224</t>
   </si>
   <si>
+    <t>备注224</t>
+  </si>
+  <si>
     <t>名称225</t>
   </si>
   <si>
+    <t>备注225</t>
+  </si>
+  <si>
     <t>名称226</t>
   </si>
   <si>
+    <t>备注226</t>
+  </si>
+  <si>
     <t>名称227</t>
   </si>
   <si>
+    <t>备注227</t>
+  </si>
+  <si>
     <t>名称228</t>
   </si>
   <si>
+    <t>备注228</t>
+  </si>
+  <si>
     <t>名称229</t>
   </si>
   <si>
+    <t>备注229</t>
+  </si>
+  <si>
     <t>名称230</t>
   </si>
   <si>
+    <t>备注230</t>
+  </si>
+  <si>
     <t>名称231</t>
   </si>
   <si>
+    <t>备注231</t>
+  </si>
+  <si>
     <t>名称232</t>
   </si>
   <si>
+    <t>备注232</t>
+  </si>
+  <si>
     <t>名称233</t>
   </si>
   <si>
+    <t>备注233</t>
+  </si>
+  <si>
     <t>名称234</t>
   </si>
   <si>
+    <t>备注234</t>
+  </si>
+  <si>
     <t>名称235</t>
   </si>
   <si>
+    <t>备注235</t>
+  </si>
+  <si>
     <t>名称236</t>
   </si>
   <si>
+    <t>备注236</t>
+  </si>
+  <si>
     <t>名称237</t>
   </si>
   <si>
+    <t>备注237</t>
+  </si>
+  <si>
     <t>名称238</t>
   </si>
   <si>
+    <t>备注238</t>
+  </si>
+  <si>
     <t>名称239</t>
   </si>
   <si>
+    <t>备注239</t>
+  </si>
+  <si>
     <t>名称240</t>
   </si>
   <si>
+    <t>备注240</t>
+  </si>
+  <si>
     <t>名称241</t>
   </si>
   <si>
+    <t>备注241</t>
+  </si>
+  <si>
     <t>名称242</t>
   </si>
   <si>
+    <t>备注242</t>
+  </si>
+  <si>
     <t>名称243</t>
   </si>
   <si>
+    <t>备注243</t>
+  </si>
+  <si>
     <t>名称244</t>
   </si>
   <si>
+    <t>备注244</t>
+  </si>
+  <si>
     <t>名称245</t>
   </si>
   <si>
+    <t>备注245</t>
+  </si>
+  <si>
     <t>名称246</t>
   </si>
   <si>
+    <t>备注246</t>
+  </si>
+  <si>
     <t>名称247</t>
   </si>
   <si>
+    <t>备注247</t>
+  </si>
+  <si>
     <t>名称248</t>
   </si>
   <si>
+    <t>备注248</t>
+  </si>
+  <si>
     <t>名称249</t>
   </si>
   <si>
+    <t>备注249</t>
+  </si>
+  <si>
     <t>名称250</t>
   </si>
   <si>
+    <t>备注250</t>
+  </si>
+  <si>
     <t>名称251</t>
   </si>
   <si>
+    <t>备注251</t>
+  </si>
+  <si>
     <t>名称252</t>
   </si>
   <si>
+    <t>备注252</t>
+  </si>
+  <si>
     <t>名称253</t>
   </si>
   <si>
+    <t>备注253</t>
+  </si>
+  <si>
     <t>名称254</t>
   </si>
   <si>
+    <t>备注254</t>
+  </si>
+  <si>
     <t>名称255</t>
   </si>
   <si>
+    <t>备注255</t>
+  </si>
+  <si>
     <t>名称256</t>
   </si>
   <si>
+    <t>备注256</t>
+  </si>
+  <si>
     <t>名称257</t>
   </si>
   <si>
+    <t>备注257</t>
+  </si>
+  <si>
     <t>名称258</t>
   </si>
   <si>
+    <t>备注258</t>
+  </si>
+  <si>
     <t>名称259</t>
   </si>
   <si>
+    <t>备注259</t>
+  </si>
+  <si>
     <t>名称260</t>
   </si>
   <si>
+    <t>备注260</t>
+  </si>
+  <si>
     <t>名称261</t>
   </si>
   <si>
+    <t>备注261</t>
+  </si>
+  <si>
     <t>名称262</t>
   </si>
   <si>
+    <t>备注262</t>
+  </si>
+  <si>
     <t>名称263</t>
   </si>
   <si>
+    <t>备注263</t>
+  </si>
+  <si>
     <t>名称264</t>
   </si>
   <si>
+    <t>备注264</t>
+  </si>
+  <si>
     <t>名称265</t>
   </si>
   <si>
+    <t>备注265</t>
+  </si>
+  <si>
     <t>名称266</t>
   </si>
   <si>
+    <t>备注266</t>
+  </si>
+  <si>
     <t>名称267</t>
   </si>
   <si>
+    <t>备注267</t>
+  </si>
+  <si>
     <t>名称268</t>
   </si>
   <si>
+    <t>备注268</t>
+  </si>
+  <si>
     <t>名称269</t>
   </si>
   <si>
+    <t>备注269</t>
+  </si>
+  <si>
     <t>名称270</t>
   </si>
   <si>
+    <t>备注270</t>
+  </si>
+  <si>
     <t>名称271</t>
   </si>
   <si>
+    <t>备注271</t>
+  </si>
+  <si>
     <t>名称272</t>
   </si>
   <si>
+    <t>备注272</t>
+  </si>
+  <si>
     <t>名称273</t>
   </si>
   <si>
+    <t>备注273</t>
+  </si>
+  <si>
     <t>名称274</t>
   </si>
   <si>
+    <t>备注274</t>
+  </si>
+  <si>
     <t>名称275</t>
   </si>
   <si>
+    <t>备注275</t>
+  </si>
+  <si>
     <t>名称276</t>
   </si>
   <si>
+    <t>备注276</t>
+  </si>
+  <si>
     <t>名称277</t>
   </si>
   <si>
+    <t>备注277</t>
+  </si>
+  <si>
     <t>名称278</t>
   </si>
   <si>
+    <t>备注278</t>
+  </si>
+  <si>
     <t>名称279</t>
   </si>
   <si>
+    <t>备注279</t>
+  </si>
+  <si>
     <t>名称280</t>
   </si>
   <si>
+    <t>备注280</t>
+  </si>
+  <si>
     <t>名称281</t>
   </si>
   <si>
+    <t>备注281</t>
+  </si>
+  <si>
     <t>名称282</t>
   </si>
   <si>
+    <t>备注282</t>
+  </si>
+  <si>
     <t>名称283</t>
   </si>
   <si>
+    <t>备注283</t>
+  </si>
+  <si>
     <t>名称284</t>
   </si>
   <si>
+    <t>备注284</t>
+  </si>
+  <si>
     <t>名称285</t>
   </si>
   <si>
+    <t>备注285</t>
+  </si>
+  <si>
     <t>名称286</t>
   </si>
   <si>
+    <t>备注286</t>
+  </si>
+  <si>
     <t>名称287</t>
   </si>
   <si>
+    <t>备注287</t>
+  </si>
+  <si>
     <t>名称288</t>
   </si>
   <si>
+    <t>备注288</t>
+  </si>
+  <si>
     <t>名称289</t>
   </si>
   <si>
+    <t>备注289</t>
+  </si>
+  <si>
     <t>名称290</t>
   </si>
   <si>
+    <t>备注290</t>
+  </si>
+  <si>
     <t>名称291</t>
   </si>
   <si>
+    <t>备注291</t>
+  </si>
+  <si>
     <t>名称292</t>
   </si>
   <si>
+    <t>备注292</t>
+  </si>
+  <si>
     <t>名称293</t>
   </si>
   <si>
+    <t>备注293</t>
+  </si>
+  <si>
     <t>名称294</t>
   </si>
   <si>
+    <t>备注294</t>
+  </si>
+  <si>
     <t>名称295</t>
   </si>
   <si>
+    <t>备注295</t>
+  </si>
+  <si>
     <t>名称296</t>
   </si>
   <si>
+    <t>备注296</t>
+  </si>
+  <si>
     <t>名称297</t>
   </si>
   <si>
+    <t>备注297</t>
+  </si>
+  <si>
     <t>名称298</t>
   </si>
   <si>
+    <t>备注298</t>
+  </si>
+  <si>
     <t>名称299</t>
   </si>
   <si>
+    <t>备注299</t>
+  </si>
+  <si>
     <t>名称300</t>
   </si>
   <si>
+    <t>备注300</t>
+  </si>
+  <si>
     <t>名称301</t>
   </si>
   <si>
+    <t>备注301</t>
+  </si>
+  <si>
     <t>名称302</t>
   </si>
   <si>
+    <t>备注302</t>
+  </si>
+  <si>
     <t>名称303</t>
   </si>
   <si>
+    <t>备注303</t>
+  </si>
+  <si>
     <t>名称304</t>
   </si>
   <si>
+    <t>备注304</t>
+  </si>
+  <si>
     <t>名称305</t>
   </si>
   <si>
+    <t>备注305</t>
+  </si>
+  <si>
     <t>名称306</t>
   </si>
   <si>
+    <t>备注306</t>
+  </si>
+  <si>
     <t>名称307</t>
   </si>
   <si>
+    <t>备注307</t>
+  </si>
+  <si>
     <t>名称308</t>
   </si>
   <si>
+    <t>备注308</t>
+  </si>
+  <si>
     <t>名称309</t>
   </si>
   <si>
+    <t>备注309</t>
+  </si>
+  <si>
     <t>名称310</t>
   </si>
   <si>
+    <t>备注310</t>
+  </si>
+  <si>
     <t>名称311</t>
   </si>
   <si>
+    <t>备注311</t>
+  </si>
+  <si>
     <t>名称312</t>
   </si>
   <si>
+    <t>备注312</t>
+  </si>
+  <si>
     <t>名称313</t>
   </si>
   <si>
+    <t>备注313</t>
+  </si>
+  <si>
     <t>名称314</t>
   </si>
   <si>
+    <t>备注314</t>
+  </si>
+  <si>
     <t>名称315</t>
   </si>
   <si>
+    <t>备注315</t>
+  </si>
+  <si>
     <t>名称316</t>
   </si>
   <si>
+    <t>备注316</t>
+  </si>
+  <si>
     <t>名称317</t>
   </si>
   <si>
+    <t>备注317</t>
+  </si>
+  <si>
     <t>名称318</t>
   </si>
   <si>
+    <t>备注318</t>
+  </si>
+  <si>
     <t>名称319</t>
   </si>
   <si>
+    <t>备注319</t>
+  </si>
+  <si>
     <t>名称320</t>
+  </si>
+  <si>
+    <t>备注320</t>
+  </si>
+  <si>
+    <t>班级</t>
+  </si>
+  <si>
+    <t>学号</t>
+  </si>
+  <si>
+    <t>1班</t>
+  </si>
+  <si>
+    <t>2班</t>
+  </si>
+  <si>
+    <t>3班</t>
+  </si>
+  <si>
+    <t>4班</t>
+  </si>
+  <si>
+    <t>5班</t>
+  </si>
+  <si>
+    <t>6班</t>
+  </si>
+  <si>
+    <t>7班</t>
+  </si>
+  <si>
+    <t>8班</t>
+  </si>
+  <si>
+    <t>9班</t>
+  </si>
+  <si>
+    <t>10班</t>
+  </si>
+  <si>
+    <t>11班</t>
+  </si>
+  <si>
+    <t>12班</t>
+  </si>
+  <si>
+    <t>13班</t>
+  </si>
+  <si>
+    <t>14班</t>
+  </si>
+  <si>
+    <t>15班</t>
+  </si>
+  <si>
+    <t>16班</t>
+  </si>
+  <si>
+    <t>17班</t>
   </si>
 </sst>
 </file>
@@ -1001,8 +2021,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
@@ -1042,54 +2062,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1103,7 +2078,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1118,9 +2093,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1134,6 +2115,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1144,7 +2132,39 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1166,7 +2186,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1187,6 +2207,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1199,175 +2375,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1416,17 +2436,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1446,25 +2475,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1497,10 +2517,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1509,73 +2529,73 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1584,58 +2604,58 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2006,19 +3026,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D321"/>
+  <dimension ref="A1:E321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="C310" sqref="C310"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="18.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="22.6666666666667" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2031,4485 +3051,5448 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15.15" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.15" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>111111</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15.15" spans="1:4">
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15.15" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5">
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>111112</v>
       </c>
-    </row>
-    <row r="4" ht="15.15" spans="1:4">
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="15.15" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5">
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
         <v>111113</v>
       </c>
-    </row>
-    <row r="5" ht="15.15" spans="1:4">
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="15.15" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1">
         <v>111114</v>
       </c>
-    </row>
-    <row r="6" ht="15.15" spans="1:4">
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="15.15" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5">
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
         <v>111115</v>
       </c>
-    </row>
-    <row r="7" ht="15.15" spans="1:4">
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="15.15" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5">
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1">
         <v>111116</v>
       </c>
-    </row>
-    <row r="8" ht="15.15" spans="1:4">
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="15.15" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5">
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
         <v>111117</v>
       </c>
-    </row>
-    <row r="9" ht="15.15" spans="1:4">
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="15.15" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5">
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
         <v>111118</v>
       </c>
-    </row>
-    <row r="10" ht="15.15" spans="1:4">
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="15.15" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5">
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1">
         <v>111119</v>
       </c>
-    </row>
-    <row r="11" ht="15.15" spans="1:4">
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" ht="15.15" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5">
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
         <v>111120</v>
       </c>
-    </row>
-    <row r="12" ht="15.15" spans="1:4">
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" ht="15.15" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B12" s="5">
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1">
         <v>111121</v>
       </c>
-    </row>
-    <row r="13" ht="15.15" spans="1:4">
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" ht="15.15" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5">
         <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1">
         <v>111122</v>
       </c>
-    </row>
-    <row r="14" ht="15.15" spans="1:4">
+      <c r="E13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" ht="15.15" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B14" s="5">
         <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1">
         <v>111123</v>
       </c>
-    </row>
-    <row r="15" ht="15.15" spans="1:4">
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" ht="15.15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B15" s="5">
         <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1">
         <v>111124</v>
       </c>
-    </row>
-    <row r="16" ht="15.15" spans="1:4">
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" ht="15.15" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B16" s="5">
         <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1">
         <v>111125</v>
       </c>
-    </row>
-    <row r="17" ht="15.15" spans="1:4">
+      <c r="E16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" ht="15.15" spans="1:5">
       <c r="A17" s="4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B17" s="5">
         <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1">
         <v>111126</v>
       </c>
-    </row>
-    <row r="18" ht="15.15" spans="1:4">
+      <c r="E17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" ht="15.15" spans="1:5">
       <c r="A18" s="4" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B18" s="5">
         <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1">
         <v>111127</v>
       </c>
-    </row>
-    <row r="19" ht="15.15" spans="1:4">
+      <c r="E18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" ht="15.15" spans="1:5">
       <c r="A19" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B19" s="5">
         <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1">
         <v>111128</v>
       </c>
-    </row>
-    <row r="20" ht="15.15" spans="1:4">
+      <c r="E19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" ht="15.15" spans="1:5">
       <c r="A20" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B20" s="5">
         <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1">
         <v>111129</v>
       </c>
-    </row>
-    <row r="21" ht="15.15" spans="1:4">
+      <c r="E20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" ht="15.15" spans="1:5">
       <c r="A21" s="4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B21" s="5">
         <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1">
         <v>111130</v>
       </c>
-    </row>
-    <row r="22" ht="15.15" spans="1:4">
+      <c r="E21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" ht="15.15" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B22" s="5">
         <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1">
         <v>111131</v>
       </c>
-    </row>
-    <row r="23" ht="15.15" spans="1:4">
+      <c r="E22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" ht="15.15" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B23" s="5">
         <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" s="1">
         <v>111132</v>
       </c>
-    </row>
-    <row r="24" ht="15.15" spans="1:4">
+      <c r="E23" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" ht="15.15" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B24" s="5">
         <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1">
         <v>111133</v>
       </c>
-    </row>
-    <row r="25" ht="15.15" spans="1:4">
+      <c r="E24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" ht="15.15" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B25" s="5">
         <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D25" s="1">
         <v>111134</v>
       </c>
-    </row>
-    <row r="26" ht="15.15" spans="1:4">
+      <c r="E25" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" ht="15.15" spans="1:5">
       <c r="A26" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B26" s="5">
         <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1">
         <v>111135</v>
       </c>
-    </row>
-    <row r="27" ht="15.15" spans="1:4">
+      <c r="E26" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" ht="15.15" spans="1:5">
       <c r="A27" s="4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B27" s="5">
         <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D27" s="1">
         <v>111136</v>
       </c>
-    </row>
-    <row r="28" ht="15.15" spans="1:4">
+      <c r="E27" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" ht="15.15" spans="1:5">
       <c r="A28" s="4" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B28" s="5">
         <v>37</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" s="1">
         <v>111137</v>
       </c>
-    </row>
-    <row r="29" ht="15.15" spans="1:4">
+      <c r="E28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" ht="15.15" spans="1:5">
       <c r="A29" s="4" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B29" s="5">
         <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D29" s="1">
         <v>111138</v>
       </c>
-    </row>
-    <row r="30" ht="15.15" spans="1:4">
+      <c r="E29" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" ht="15.15" spans="1:5">
       <c r="A30" s="4" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B30" s="5">
         <v>39</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30" s="1">
         <v>111139</v>
       </c>
-    </row>
-    <row r="31" ht="15.15" spans="1:4">
+      <c r="E30" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" ht="15.15" spans="1:5">
       <c r="A31" s="4" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B31" s="5">
         <v>40</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D31" s="1">
         <v>111140</v>
       </c>
-    </row>
-    <row r="32" ht="15.15" spans="1:4">
+      <c r="E31" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" ht="15.15" spans="1:5">
       <c r="A32" s="4" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B32" s="5">
         <v>41</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D32" s="1">
         <v>111141</v>
       </c>
-    </row>
-    <row r="33" ht="15.15" spans="1:4">
+      <c r="E32" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" ht="15.15" spans="1:5">
       <c r="A33" s="4" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B33" s="5">
         <v>42</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D33" s="1">
         <v>111142</v>
       </c>
-    </row>
-    <row r="34" ht="15.15" spans="1:4">
+      <c r="E33" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" ht="15.15" spans="1:5">
       <c r="A34" s="4" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B34" s="5">
         <v>43</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D34" s="1">
         <v>111143</v>
       </c>
-    </row>
-    <row r="35" ht="15.15" spans="1:4">
+      <c r="E34" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" ht="15.15" spans="1:5">
       <c r="A35" s="4" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B35" s="5">
         <v>44</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D35" s="1">
         <v>111144</v>
       </c>
-    </row>
-    <row r="36" ht="15.15" spans="1:4">
+      <c r="E35" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" ht="15.15" spans="1:5">
       <c r="A36" s="4" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B36" s="5">
         <v>45</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D36" s="1">
         <v>111145</v>
       </c>
-    </row>
-    <row r="37" ht="15.15" spans="1:4">
+      <c r="E36" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" ht="15.15" spans="1:5">
       <c r="A37" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B37" s="5">
         <v>46</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37" s="1">
         <v>111146</v>
       </c>
-    </row>
-    <row r="38" ht="15.15" spans="1:4">
+      <c r="E37" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" ht="15.15" spans="1:5">
       <c r="A38" s="4" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B38" s="5">
         <v>47</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38" s="1">
         <v>111147</v>
       </c>
-    </row>
-    <row r="39" ht="15.15" spans="1:4">
+      <c r="E38" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" ht="15.15" spans="1:5">
       <c r="A39" s="4" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B39" s="5">
         <v>48</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D39" s="1">
         <v>111148</v>
       </c>
-    </row>
-    <row r="40" ht="15.15" spans="1:4">
+      <c r="E39" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" ht="15.15" spans="1:5">
       <c r="A40" s="4" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B40" s="5">
         <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D40" s="1">
         <v>111149</v>
       </c>
-    </row>
-    <row r="41" ht="15.15" spans="1:4">
+      <c r="E40" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" ht="15.15" spans="1:5">
       <c r="A41" s="4" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B41" s="5">
         <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D41" s="1">
         <v>111150</v>
       </c>
-    </row>
-    <row r="42" ht="15.15" spans="1:4">
+      <c r="E41" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" ht="15.15" spans="1:5">
       <c r="A42" s="4" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="B42" s="5">
         <v>51</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D42" s="1">
         <v>111151</v>
       </c>
-    </row>
-    <row r="43" ht="15.15" spans="1:4">
+      <c r="E42" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" ht="15.15" spans="1:5">
       <c r="A43" s="4" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B43" s="5">
         <v>52</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D43" s="1">
         <v>111152</v>
       </c>
-    </row>
-    <row r="44" ht="15.15" spans="1:4">
+      <c r="E43" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" ht="15.15" spans="1:5">
       <c r="A44" s="4" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="B44" s="5">
         <v>53</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D44" s="1">
         <v>111153</v>
       </c>
-    </row>
-    <row r="45" ht="15.15" spans="1:4">
+      <c r="E44" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" ht="15.15" spans="1:5">
       <c r="A45" s="4" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="B45" s="5">
         <v>54</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D45" s="1">
         <v>111154</v>
       </c>
-    </row>
-    <row r="46" ht="15.15" spans="1:4">
+      <c r="E45" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" ht="15.15" spans="1:5">
       <c r="A46" s="4" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B46" s="5">
         <v>55</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D46" s="1">
         <v>111155</v>
       </c>
-    </row>
-    <row r="47" ht="15.15" spans="1:4">
+      <c r="E46" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" ht="15.15" spans="1:5">
       <c r="A47" s="4" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="B47" s="5">
         <v>56</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D47" s="1">
         <v>111156</v>
       </c>
-    </row>
-    <row r="48" ht="15.15" spans="1:4">
+      <c r="E47" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" ht="15.15" spans="1:5">
       <c r="A48" s="4" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="B48" s="5">
         <v>57</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D48" s="1">
         <v>111157</v>
       </c>
-    </row>
-    <row r="49" ht="15.15" spans="1:4">
+      <c r="E48" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" ht="15.15" spans="1:5">
       <c r="A49" s="4" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="B49" s="5">
         <v>58</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D49" s="1">
         <v>111158</v>
       </c>
-    </row>
-    <row r="50" ht="15.15" spans="1:4">
+      <c r="E49" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" ht="15.15" spans="1:5">
       <c r="A50" s="4" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="B50" s="5">
         <v>59</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D50" s="1">
         <v>111159</v>
       </c>
-    </row>
-    <row r="51" ht="15.15" spans="1:4">
+      <c r="E50" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" ht="15.15" spans="1:5">
       <c r="A51" s="4" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="B51" s="5">
         <v>60</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D51" s="1">
         <v>111160</v>
       </c>
-    </row>
-    <row r="52" ht="15.15" spans="1:4">
+      <c r="E51" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" ht="15.15" spans="1:5">
       <c r="A52" s="4" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="B52" s="5">
         <v>61</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D52" s="1">
         <v>111161</v>
       </c>
-    </row>
-    <row r="53" ht="15.15" spans="1:4">
+      <c r="E52" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" ht="15.15" spans="1:5">
       <c r="A53" s="4" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="B53" s="5">
         <v>62</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53" s="1">
         <v>111162</v>
       </c>
-    </row>
-    <row r="54" ht="15.15" spans="1:4">
+      <c r="E53" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" ht="15.15" spans="1:5">
       <c r="A54" s="4" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="B54" s="5">
         <v>63</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D54" s="1">
         <v>111163</v>
       </c>
-    </row>
-    <row r="55" ht="15.15" spans="1:4">
+      <c r="E54" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" ht="15.15" spans="1:5">
       <c r="A55" s="4" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="B55" s="5">
         <v>64</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D55" s="1">
         <v>111164</v>
       </c>
-    </row>
-    <row r="56" ht="15.15" spans="1:4">
+      <c r="E55" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" ht="15.15" spans="1:5">
       <c r="A56" s="4" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="B56" s="5">
         <v>65</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D56" s="1">
         <v>111165</v>
       </c>
-    </row>
-    <row r="57" ht="15.15" spans="1:4">
+      <c r="E56" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" ht="15.15" spans="1:5">
       <c r="A57" s="4" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="B57" s="5">
         <v>66</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D57" s="1">
         <v>111166</v>
       </c>
-    </row>
-    <row r="58" ht="15.15" spans="1:4">
+      <c r="E57" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" ht="15.15" spans="1:5">
       <c r="A58" s="4" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B58" s="5">
         <v>67</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D58" s="1">
         <v>111167</v>
       </c>
-    </row>
-    <row r="59" ht="15.15" spans="1:4">
+      <c r="E58" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" ht="15.15" spans="1:5">
       <c r="A59" s="4" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="B59" s="5">
         <v>68</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D59" s="1">
         <v>111168</v>
       </c>
-    </row>
-    <row r="60" ht="15.15" spans="1:4">
+      <c r="E59" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" ht="15.15" spans="1:5">
       <c r="A60" s="4" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="B60" s="5">
         <v>69</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D60" s="1">
         <v>111169</v>
       </c>
-    </row>
-    <row r="61" ht="15.15" spans="1:4">
+      <c r="E60" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" ht="15.15" spans="1:5">
       <c r="A61" s="4" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="B61" s="5">
         <v>70</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D61" s="1">
         <v>111170</v>
       </c>
-    </row>
-    <row r="62" ht="15.15" spans="1:4">
+      <c r="E61" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" ht="15.15" spans="1:5">
       <c r="A62" s="4" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="B62" s="5">
         <v>71</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D62" s="1">
         <v>111171</v>
       </c>
-    </row>
-    <row r="63" ht="15.15" spans="1:4">
+      <c r="E62" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" ht="15.15" spans="1:5">
       <c r="A63" s="4" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="B63" s="5">
         <v>72</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D63" s="1">
         <v>111172</v>
       </c>
-    </row>
-    <row r="64" ht="15.15" spans="1:4">
+      <c r="E63" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" ht="15.15" spans="1:5">
       <c r="A64" s="4" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="B64" s="5">
         <v>73</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D64" s="1">
         <v>111173</v>
       </c>
-    </row>
-    <row r="65" ht="15.15" spans="1:4">
+      <c r="E64" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" ht="15.15" spans="1:5">
       <c r="A65" s="4" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="B65" s="5">
         <v>74</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D65" s="1">
         <v>111174</v>
       </c>
-    </row>
-    <row r="66" ht="15.15" spans="1:4">
+      <c r="E65" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" ht="15.15" spans="1:5">
       <c r="A66" s="4" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="B66" s="5">
         <v>75</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D66" s="1">
         <v>111175</v>
       </c>
-    </row>
-    <row r="67" ht="15.15" spans="1:4">
+      <c r="E66" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" ht="15.15" spans="1:5">
       <c r="A67" s="4" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="B67" s="5">
         <v>76</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D67" s="1">
         <v>111176</v>
       </c>
-    </row>
-    <row r="68" ht="15.15" spans="1:4">
+      <c r="E67" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" ht="15.15" spans="1:5">
       <c r="A68" s="4" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="B68" s="5">
         <v>77</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D68" s="1">
         <v>111177</v>
       </c>
-    </row>
-    <row r="69" ht="15.15" spans="1:4">
+      <c r="E68" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" ht="15.15" spans="1:5">
       <c r="A69" s="4" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="B69" s="5">
         <v>78</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D69" s="1">
         <v>111178</v>
       </c>
-    </row>
-    <row r="70" ht="15.15" spans="1:4">
+      <c r="E69" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" ht="15.15" spans="1:5">
       <c r="A70" s="4" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="B70" s="5">
         <v>79</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D70" s="1">
         <v>111179</v>
       </c>
-    </row>
-    <row r="71" ht="15.15" spans="1:4">
+      <c r="E70" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" ht="15.15" spans="1:5">
       <c r="A71" s="4" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="B71" s="5">
         <v>80</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D71" s="1">
         <v>111180</v>
       </c>
-    </row>
-    <row r="72" ht="15.15" spans="1:4">
+      <c r="E71" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" ht="15.15" spans="1:5">
       <c r="A72" s="4" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="B72" s="5">
         <v>81</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D72" s="1">
         <v>111181</v>
       </c>
-    </row>
-    <row r="73" ht="15.15" spans="1:4">
+      <c r="E72" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" ht="15.15" spans="1:5">
       <c r="A73" s="4" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="B73" s="5">
         <v>82</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D73" s="1">
         <v>111182</v>
       </c>
-    </row>
-    <row r="74" ht="15.15" spans="1:4">
+      <c r="E73" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" ht="15.15" spans="1:5">
       <c r="A74" s="4" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="B74" s="5">
         <v>83</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D74" s="1">
         <v>111183</v>
       </c>
-    </row>
-    <row r="75" ht="15.15" spans="1:4">
+      <c r="E74" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" ht="15.15" spans="1:5">
       <c r="A75" s="4" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="B75" s="5">
         <v>84</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D75" s="1">
         <v>111184</v>
       </c>
-    </row>
-    <row r="76" ht="15.15" spans="1:4">
+      <c r="E75" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" ht="15.15" spans="1:5">
       <c r="A76" s="4" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="B76" s="5">
         <v>85</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D76" s="1">
         <v>111185</v>
       </c>
-    </row>
-    <row r="77" ht="15.15" spans="1:4">
+      <c r="E76" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" ht="15.15" spans="1:5">
       <c r="A77" s="4" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="B77" s="5">
         <v>86</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D77" s="1">
         <v>111186</v>
       </c>
-    </row>
-    <row r="78" ht="15.15" spans="1:4">
+      <c r="E77" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" ht="15.15" spans="1:5">
       <c r="A78" s="4" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="B78" s="5">
         <v>87</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D78" s="1">
         <v>111187</v>
       </c>
-    </row>
-    <row r="79" ht="15.15" spans="1:4">
+      <c r="E78" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" ht="15.15" spans="1:5">
       <c r="A79" s="4" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="B79" s="5">
         <v>88</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D79" s="1">
         <v>111188</v>
       </c>
-    </row>
-    <row r="80" ht="15.15" spans="1:4">
+      <c r="E79" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" ht="15.15" spans="1:5">
       <c r="A80" s="4" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="B80" s="5">
         <v>89</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D80" s="1">
         <v>111189</v>
       </c>
-    </row>
-    <row r="81" ht="15.15" spans="1:4">
+      <c r="E80" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" ht="15.15" spans="1:5">
       <c r="A81" s="4" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="B81" s="5">
         <v>90</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D81" s="1">
         <v>111190</v>
       </c>
-    </row>
-    <row r="82" ht="15.15" spans="1:4">
+      <c r="E81" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" ht="15.15" spans="1:5">
       <c r="A82" s="4" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="B82" s="5">
         <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D82" s="1">
         <v>111191</v>
       </c>
-    </row>
-    <row r="83" ht="15.15" spans="1:4">
+      <c r="E82" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" ht="15.15" spans="1:5">
       <c r="A83" s="4" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="B83" s="5">
         <v>92</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D83" s="1">
         <v>111192</v>
       </c>
-    </row>
-    <row r="84" ht="15.15" spans="1:4">
+      <c r="E83" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" ht="15.15" spans="1:5">
       <c r="A84" s="4" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="B84" s="5">
         <v>93</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D84" s="1">
         <v>111193</v>
       </c>
-    </row>
-    <row r="85" ht="15.15" spans="1:4">
+      <c r="E84" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" ht="15.15" spans="1:5">
       <c r="A85" s="4" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="B85" s="5">
         <v>94</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D85" s="1">
         <v>111194</v>
       </c>
-    </row>
-    <row r="86" ht="15.15" spans="1:4">
+      <c r="E85" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" ht="15.15" spans="1:5">
       <c r="A86" s="4" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="B86" s="5">
         <v>95</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D86" s="1">
         <v>111195</v>
       </c>
-    </row>
-    <row r="87" ht="15.15" spans="1:4">
+      <c r="E86" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="87" ht="15.15" spans="1:5">
       <c r="A87" s="4" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="B87" s="5">
         <v>96</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D87" s="1">
         <v>111196</v>
       </c>
-    </row>
-    <row r="88" ht="15.15" spans="1:4">
+      <c r="E87" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" ht="15.15" spans="1:5">
       <c r="A88" s="4" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="B88" s="5">
         <v>97</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D88" s="1">
         <v>111197</v>
       </c>
-    </row>
-    <row r="89" ht="15.15" spans="1:4">
+      <c r="E88" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" ht="15.15" spans="1:5">
       <c r="A89" s="4" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="B89" s="5">
         <v>98</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D89" s="1">
         <v>111198</v>
       </c>
-    </row>
-    <row r="90" ht="15.15" spans="1:4">
+      <c r="E89" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90" ht="15.15" spans="1:5">
       <c r="A90" s="4" t="s">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="B90" s="5">
         <v>99</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D90" s="1">
         <v>111199</v>
       </c>
-    </row>
-    <row r="91" ht="15.15" spans="1:4">
+      <c r="E90" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" ht="15.15" spans="1:5">
       <c r="A91" s="4" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="B91" s="5">
         <v>100</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D91" s="1">
         <v>111200</v>
       </c>
-    </row>
-    <row r="92" ht="15.15" spans="1:4">
+      <c r="E91" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92" ht="15.15" spans="1:5">
       <c r="A92" s="4" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="B92" s="5">
         <v>101</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D92" s="1">
         <v>111201</v>
       </c>
-    </row>
-    <row r="93" ht="15.15" spans="1:4">
+      <c r="E92" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" ht="15.15" spans="1:5">
       <c r="A93" s="4" t="s">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="B93" s="5">
         <v>102</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D93" s="1">
         <v>111202</v>
       </c>
-    </row>
-    <row r="94" ht="15.15" spans="1:4">
+      <c r="E93" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94" ht="15.15" spans="1:5">
       <c r="A94" s="4" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="B94" s="5">
         <v>103</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D94" s="1">
         <v>111203</v>
       </c>
-    </row>
-    <row r="95" ht="15.15" spans="1:4">
+      <c r="E94" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="95" ht="15.15" spans="1:5">
       <c r="A95" s="4" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="B95" s="5">
         <v>104</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D95" s="1">
         <v>111204</v>
       </c>
-    </row>
-    <row r="96" ht="15.15" spans="1:4">
+      <c r="E95" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96" ht="15.15" spans="1:5">
       <c r="A96" s="4" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="B96" s="5">
         <v>105</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D96" s="1">
         <v>111205</v>
       </c>
-    </row>
-    <row r="97" ht="15.15" spans="1:4">
+      <c r="E96" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="97" ht="15.15" spans="1:5">
       <c r="A97" s="4" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="B97" s="5">
         <v>106</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D97" s="1">
         <v>111206</v>
       </c>
-    </row>
-    <row r="98" ht="15.15" spans="1:4">
+      <c r="E97" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" ht="15.15" spans="1:5">
       <c r="A98" s="4" t="s">
-        <v>102</v>
+        <v>199</v>
       </c>
       <c r="B98" s="5">
         <v>107</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D98" s="1">
         <v>111207</v>
       </c>
-    </row>
-    <row r="99" ht="15.15" spans="1:4">
+      <c r="E98" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" ht="15.15" spans="1:5">
       <c r="A99" s="4" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="B99" s="5">
         <v>108</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D99" s="1">
         <v>111208</v>
       </c>
-    </row>
-    <row r="100" ht="15.15" spans="1:4">
+      <c r="E99" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" ht="15.15" spans="1:5">
       <c r="A100" s="4" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="B100" s="5">
         <v>109</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D100" s="1">
         <v>111209</v>
       </c>
-    </row>
-    <row r="101" ht="15.15" spans="1:4">
+      <c r="E100" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="101" ht="15.15" spans="1:5">
       <c r="A101" s="4" t="s">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="B101" s="5">
         <v>110</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D101" s="1">
         <v>111210</v>
       </c>
-    </row>
-    <row r="102" ht="15.15" spans="1:4">
+      <c r="E101" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102" ht="15.15" spans="1:5">
       <c r="A102" s="4" t="s">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="B102" s="5">
         <v>111</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D102" s="1">
         <v>111211</v>
       </c>
-    </row>
-    <row r="103" ht="15.15" spans="1:4">
+      <c r="E102" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" ht="15.15" spans="1:5">
       <c r="A103" s="4" t="s">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="B103" s="5">
         <v>112</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D103" s="1">
         <v>111212</v>
       </c>
-    </row>
-    <row r="104" ht="15.15" spans="1:4">
+      <c r="E103" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104" ht="15.15" spans="1:5">
       <c r="A104" s="4" t="s">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="B104" s="5">
         <v>113</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D104" s="1">
         <v>111213</v>
       </c>
-    </row>
-    <row r="105" ht="15.15" spans="1:4">
+      <c r="E104" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="105" ht="15.15" spans="1:5">
       <c r="A105" s="4" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="B105" s="5">
         <v>114</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D105" s="1">
         <v>111214</v>
       </c>
-    </row>
-    <row r="106" ht="15.15" spans="1:4">
+      <c r="E105" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="106" ht="15.15" spans="1:5">
       <c r="A106" s="4" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="B106" s="5">
         <v>115</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D106" s="1">
         <v>111215</v>
       </c>
-    </row>
-    <row r="107" ht="15.15" spans="1:4">
+      <c r="E106" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="107" ht="15.15" spans="1:5">
       <c r="A107" s="4" t="s">
-        <v>111</v>
+        <v>217</v>
       </c>
       <c r="B107" s="5">
         <v>116</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D107" s="1">
         <v>111216</v>
       </c>
-    </row>
-    <row r="108" ht="15.15" spans="1:4">
+      <c r="E107" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="108" ht="15.15" spans="1:5">
       <c r="A108" s="4" t="s">
-        <v>112</v>
+        <v>219</v>
       </c>
       <c r="B108" s="5">
         <v>117</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D108" s="1">
         <v>111217</v>
       </c>
-    </row>
-    <row r="109" ht="15.15" spans="1:4">
+      <c r="E108" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="109" ht="15.15" spans="1:5">
       <c r="A109" s="4" t="s">
-        <v>113</v>
+        <v>221</v>
       </c>
       <c r="B109" s="5">
         <v>118</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D109" s="1">
         <v>111218</v>
       </c>
-    </row>
-    <row r="110" ht="15.15" spans="1:4">
+      <c r="E109" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="110" ht="15.15" spans="1:5">
       <c r="A110" s="4" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="B110" s="5">
         <v>119</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D110" s="1">
         <v>111219</v>
       </c>
-    </row>
-    <row r="111" ht="15.15" spans="1:4">
+      <c r="E110" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="111" ht="15.15" spans="1:5">
       <c r="A111" s="4" t="s">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="B111" s="5">
         <v>120</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D111" s="1">
         <v>111220</v>
       </c>
-    </row>
-    <row r="112" ht="15.15" spans="1:4">
+      <c r="E111" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="112" ht="15.15" spans="1:5">
       <c r="A112" s="4" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="B112" s="5">
         <v>121</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D112" s="1">
         <v>111221</v>
       </c>
-    </row>
-    <row r="113" ht="15.15" spans="1:4">
+      <c r="E112" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="113" ht="15.15" spans="1:5">
       <c r="A113" s="4" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="B113" s="5">
         <v>122</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D113" s="1">
         <v>111222</v>
       </c>
-    </row>
-    <row r="114" ht="15.15" spans="1:4">
+      <c r="E113" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="114" ht="15.15" spans="1:5">
       <c r="A114" s="4" t="s">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="B114" s="5">
         <v>123</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D114" s="1">
         <v>111223</v>
       </c>
-    </row>
-    <row r="115" ht="15.15" spans="1:4">
+      <c r="E114" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="115" ht="15.15" spans="1:5">
       <c r="A115" s="4" t="s">
-        <v>119</v>
+        <v>233</v>
       </c>
       <c r="B115" s="5">
         <v>124</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D115" s="1">
         <v>111224</v>
       </c>
-    </row>
-    <row r="116" ht="15.15" spans="1:4">
+      <c r="E115" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="116" ht="15.15" spans="1:5">
       <c r="A116" s="4" t="s">
-        <v>120</v>
+        <v>235</v>
       </c>
       <c r="B116" s="5">
         <v>125</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D116" s="1">
         <v>111225</v>
       </c>
-    </row>
-    <row r="117" ht="15.15" spans="1:4">
+      <c r="E116" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="117" ht="15.15" spans="1:5">
       <c r="A117" s="4" t="s">
-        <v>121</v>
+        <v>237</v>
       </c>
       <c r="B117" s="5">
         <v>126</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D117" s="1">
         <v>111226</v>
       </c>
-    </row>
-    <row r="118" ht="15.15" spans="1:4">
+      <c r="E117" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="118" ht="15.15" spans="1:5">
       <c r="A118" s="4" t="s">
-        <v>122</v>
+        <v>239</v>
       </c>
       <c r="B118" s="5">
         <v>127</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D118" s="1">
         <v>111227</v>
       </c>
-    </row>
-    <row r="119" ht="15.15" spans="1:4">
+      <c r="E118" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="119" ht="15.15" spans="1:5">
       <c r="A119" s="4" t="s">
-        <v>123</v>
+        <v>241</v>
       </c>
       <c r="B119" s="5">
         <v>128</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D119" s="1">
         <v>111228</v>
       </c>
-    </row>
-    <row r="120" ht="15.15" spans="1:4">
+      <c r="E119" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="120" ht="15.15" spans="1:5">
       <c r="A120" s="4" t="s">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="B120" s="5">
         <v>129</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D120" s="1">
         <v>111229</v>
       </c>
-    </row>
-    <row r="121" ht="15.15" spans="1:4">
+      <c r="E120" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="121" ht="15.15" spans="1:5">
       <c r="A121" s="4" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="B121" s="5">
         <v>130</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D121" s="1">
         <v>111230</v>
       </c>
-    </row>
-    <row r="122" ht="15.15" spans="1:4">
+      <c r="E121" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="122" ht="15.15" spans="1:5">
       <c r="A122" s="4" t="s">
-        <v>126</v>
+        <v>247</v>
       </c>
       <c r="B122" s="5">
         <v>131</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D122" s="1">
         <v>111231</v>
       </c>
-    </row>
-    <row r="123" ht="15.15" spans="1:4">
+      <c r="E122" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="123" ht="15.15" spans="1:5">
       <c r="A123" s="4" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="B123" s="5">
         <v>132</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D123" s="1">
         <v>111232</v>
       </c>
-    </row>
-    <row r="124" ht="15.15" spans="1:4">
+      <c r="E123" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="124" ht="15.15" spans="1:5">
       <c r="A124" s="4" t="s">
-        <v>128</v>
+        <v>251</v>
       </c>
       <c r="B124" s="5">
         <v>133</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D124" s="1">
         <v>111233</v>
       </c>
-    </row>
-    <row r="125" ht="15.15" spans="1:4">
+      <c r="E124" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="125" ht="15.15" spans="1:5">
       <c r="A125" s="4" t="s">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c r="B125" s="5">
         <v>134</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D125" s="1">
         <v>111234</v>
       </c>
-    </row>
-    <row r="126" ht="15.15" spans="1:4">
+      <c r="E125" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="126" ht="15.15" spans="1:5">
       <c r="A126" s="4" t="s">
-        <v>130</v>
+        <v>255</v>
       </c>
       <c r="B126" s="5">
         <v>135</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D126" s="1">
         <v>111235</v>
       </c>
-    </row>
-    <row r="127" ht="15.15" spans="1:4">
+      <c r="E126" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="127" ht="15.15" spans="1:5">
       <c r="A127" s="4" t="s">
-        <v>131</v>
+        <v>257</v>
       </c>
       <c r="B127" s="5">
         <v>136</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D127" s="1">
         <v>111236</v>
       </c>
-    </row>
-    <row r="128" ht="15.15" spans="1:4">
+      <c r="E127" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="128" ht="15.15" spans="1:5">
       <c r="A128" s="4" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="B128" s="5">
         <v>137</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D128" s="1">
         <v>111237</v>
       </c>
-    </row>
-    <row r="129" ht="15.15" spans="1:4">
+      <c r="E128" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="129" ht="15.15" spans="1:5">
       <c r="A129" s="4" t="s">
-        <v>133</v>
+        <v>261</v>
       </c>
       <c r="B129" s="5">
         <v>138</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D129" s="1">
         <v>111238</v>
       </c>
-    </row>
-    <row r="130" ht="15.15" spans="1:4">
+      <c r="E129" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="130" ht="15.15" spans="1:5">
       <c r="A130" s="4" t="s">
-        <v>134</v>
+        <v>263</v>
       </c>
       <c r="B130" s="5">
         <v>139</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D130" s="1">
         <v>111239</v>
       </c>
-    </row>
-    <row r="131" ht="15.15" spans="1:4">
+      <c r="E130" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="131" ht="15.15" spans="1:5">
       <c r="A131" s="4" t="s">
-        <v>135</v>
+        <v>265</v>
       </c>
       <c r="B131" s="5">
         <v>140</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D131" s="1">
         <v>111240</v>
       </c>
-    </row>
-    <row r="132" ht="15.15" spans="1:4">
+      <c r="E131" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="132" ht="15.15" spans="1:5">
       <c r="A132" s="4" t="s">
-        <v>136</v>
+        <v>267</v>
       </c>
       <c r="B132" s="5">
         <v>141</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D132" s="1">
         <v>111241</v>
       </c>
-    </row>
-    <row r="133" ht="15.15" spans="1:4">
+      <c r="E132" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="133" ht="15.15" spans="1:5">
       <c r="A133" s="4" t="s">
-        <v>137</v>
+        <v>269</v>
       </c>
       <c r="B133" s="5">
         <v>142</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D133" s="1">
         <v>111242</v>
       </c>
-    </row>
-    <row r="134" ht="15.15" spans="1:4">
+      <c r="E133" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="134" ht="15.15" spans="1:5">
       <c r="A134" s="4" t="s">
-        <v>138</v>
+        <v>271</v>
       </c>
       <c r="B134" s="5">
         <v>143</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D134" s="1">
         <v>111243</v>
       </c>
-    </row>
-    <row r="135" ht="15.15" spans="1:4">
+      <c r="E134" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="135" ht="15.15" spans="1:5">
       <c r="A135" s="4" t="s">
-        <v>139</v>
+        <v>273</v>
       </c>
       <c r="B135" s="5">
         <v>144</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D135" s="1">
         <v>111244</v>
       </c>
-    </row>
-    <row r="136" ht="15.15" spans="1:4">
+      <c r="E135" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="136" ht="15.15" spans="1:5">
       <c r="A136" s="4" t="s">
-        <v>140</v>
+        <v>275</v>
       </c>
       <c r="B136" s="5">
         <v>145</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D136" s="1">
         <v>111245</v>
       </c>
-    </row>
-    <row r="137" ht="15.15" spans="1:4">
+      <c r="E136" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="137" ht="15.15" spans="1:5">
       <c r="A137" s="4" t="s">
-        <v>141</v>
+        <v>277</v>
       </c>
       <c r="B137" s="5">
         <v>146</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D137" s="1">
         <v>111246</v>
       </c>
-    </row>
-    <row r="138" ht="15.15" spans="1:4">
+      <c r="E137" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="138" ht="15.15" spans="1:5">
       <c r="A138" s="4" t="s">
-        <v>142</v>
+        <v>279</v>
       </c>
       <c r="B138" s="5">
         <v>147</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D138" s="1">
         <v>111247</v>
       </c>
-    </row>
-    <row r="139" ht="15.15" spans="1:4">
+      <c r="E138" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="139" ht="15.15" spans="1:5">
       <c r="A139" s="4" t="s">
-        <v>143</v>
+        <v>281</v>
       </c>
       <c r="B139" s="5">
         <v>148</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D139" s="1">
         <v>111248</v>
       </c>
-    </row>
-    <row r="140" ht="15.15" spans="1:4">
+      <c r="E139" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="140" ht="15.15" spans="1:5">
       <c r="A140" s="4" t="s">
-        <v>144</v>
+        <v>283</v>
       </c>
       <c r="B140" s="5">
         <v>149</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D140" s="1">
         <v>111249</v>
       </c>
-    </row>
-    <row r="141" ht="15.15" spans="1:4">
+      <c r="E140" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="141" ht="15.15" spans="1:5">
       <c r="A141" s="4" t="s">
-        <v>145</v>
+        <v>285</v>
       </c>
       <c r="B141" s="5">
         <v>150</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D141" s="1">
         <v>111250</v>
       </c>
-    </row>
-    <row r="142" ht="15.15" spans="1:4">
+      <c r="E141" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="142" ht="15.15" spans="1:5">
       <c r="A142" s="4" t="s">
-        <v>146</v>
+        <v>287</v>
       </c>
       <c r="B142" s="5">
         <v>151</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D142" s="1">
         <v>111251</v>
       </c>
-    </row>
-    <row r="143" ht="15.15" spans="1:4">
+      <c r="E142" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="143" ht="15.15" spans="1:5">
       <c r="A143" s="4" t="s">
-        <v>147</v>
+        <v>289</v>
       </c>
       <c r="B143" s="5">
         <v>152</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D143" s="1">
         <v>111252</v>
       </c>
-    </row>
-    <row r="144" ht="15.15" spans="1:4">
+      <c r="E143" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="144" ht="15.15" spans="1:5">
       <c r="A144" s="4" t="s">
-        <v>148</v>
+        <v>291</v>
       </c>
       <c r="B144" s="5">
         <v>153</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D144" s="1">
         <v>111253</v>
       </c>
-    </row>
-    <row r="145" ht="15.15" spans="1:4">
+      <c r="E144" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="145" ht="15.15" spans="1:5">
       <c r="A145" s="4" t="s">
-        <v>149</v>
+        <v>293</v>
       </c>
       <c r="B145" s="5">
         <v>154</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D145" s="1">
         <v>111254</v>
       </c>
-    </row>
-    <row r="146" ht="15.15" spans="1:4">
+      <c r="E145" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="146" ht="15.15" spans="1:5">
       <c r="A146" s="4" t="s">
-        <v>150</v>
+        <v>295</v>
       </c>
       <c r="B146" s="5">
         <v>155</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D146" s="1">
         <v>111255</v>
       </c>
-    </row>
-    <row r="147" ht="15.15" spans="1:4">
+      <c r="E146" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="147" ht="15.15" spans="1:5">
       <c r="A147" s="4" t="s">
-        <v>151</v>
+        <v>297</v>
       </c>
       <c r="B147" s="5">
         <v>156</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D147" s="1">
         <v>111256</v>
       </c>
-    </row>
-    <row r="148" ht="15.15" spans="1:4">
+      <c r="E147" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="148" ht="15.15" spans="1:5">
       <c r="A148" s="4" t="s">
-        <v>152</v>
+        <v>299</v>
       </c>
       <c r="B148" s="5">
         <v>157</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D148" s="1">
         <v>111257</v>
       </c>
-    </row>
-    <row r="149" ht="15.15" spans="1:4">
+      <c r="E148" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="149" ht="15.15" spans="1:5">
       <c r="A149" s="4" t="s">
-        <v>153</v>
+        <v>301</v>
       </c>
       <c r="B149" s="5">
         <v>158</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D149" s="1">
         <v>111258</v>
       </c>
-    </row>
-    <row r="150" ht="15.15" spans="1:4">
+      <c r="E149" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="150" ht="15.15" spans="1:5">
       <c r="A150" s="4" t="s">
-        <v>154</v>
+        <v>303</v>
       </c>
       <c r="B150" s="5">
         <v>159</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D150" s="1">
         <v>111259</v>
       </c>
-    </row>
-    <row r="151" ht="15.15" spans="1:4">
+      <c r="E150" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="151" ht="15.15" spans="1:5">
       <c r="A151" s="4" t="s">
-        <v>155</v>
+        <v>305</v>
       </c>
       <c r="B151" s="5">
         <v>160</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D151" s="1">
         <v>111260</v>
       </c>
-    </row>
-    <row r="152" ht="15.15" spans="1:4">
+      <c r="E151" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="152" ht="15.15" spans="1:5">
       <c r="A152" s="4" t="s">
-        <v>156</v>
+        <v>307</v>
       </c>
       <c r="B152" s="5">
         <v>161</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D152" s="1">
         <v>111261</v>
       </c>
-    </row>
-    <row r="153" ht="15.15" spans="1:4">
+      <c r="E152" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="153" ht="15.15" spans="1:5">
       <c r="A153" s="4" t="s">
-        <v>157</v>
+        <v>309</v>
       </c>
       <c r="B153" s="5">
         <v>162</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D153" s="1">
         <v>111262</v>
       </c>
-    </row>
-    <row r="154" ht="15.15" spans="1:4">
+      <c r="E153" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="154" ht="15.15" spans="1:5">
       <c r="A154" s="4" t="s">
-        <v>158</v>
+        <v>311</v>
       </c>
       <c r="B154" s="5">
         <v>163</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D154" s="1">
         <v>111263</v>
       </c>
-    </row>
-    <row r="155" ht="15.15" spans="1:4">
+      <c r="E154" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="155" ht="15.15" spans="1:5">
       <c r="A155" s="4" t="s">
-        <v>159</v>
+        <v>313</v>
       </c>
       <c r="B155" s="5">
         <v>164</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D155" s="1">
         <v>111264</v>
       </c>
-    </row>
-    <row r="156" ht="15.15" spans="1:4">
+      <c r="E155" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="156" ht="15.15" spans="1:5">
       <c r="A156" s="4" t="s">
-        <v>160</v>
+        <v>315</v>
       </c>
       <c r="B156" s="5">
         <v>165</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D156" s="1">
         <v>111265</v>
       </c>
-    </row>
-    <row r="157" ht="15.15" spans="1:4">
+      <c r="E156" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="157" ht="15.15" spans="1:5">
       <c r="A157" s="4" t="s">
-        <v>161</v>
+        <v>317</v>
       </c>
       <c r="B157" s="5">
         <v>166</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D157" s="1">
         <v>111266</v>
       </c>
-    </row>
-    <row r="158" ht="15.15" spans="1:4">
+      <c r="E157" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="158" ht="15.15" spans="1:5">
       <c r="A158" s="4" t="s">
-        <v>162</v>
+        <v>319</v>
       </c>
       <c r="B158" s="5">
         <v>167</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D158" s="1">
         <v>111267</v>
       </c>
-    </row>
-    <row r="159" ht="15.15" spans="1:4">
+      <c r="E158" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="159" ht="15.15" spans="1:5">
       <c r="A159" s="4" t="s">
-        <v>163</v>
+        <v>321</v>
       </c>
       <c r="B159" s="5">
         <v>168</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D159" s="1">
         <v>111268</v>
       </c>
-    </row>
-    <row r="160" ht="15.15" spans="1:4">
+      <c r="E159" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="160" ht="15.15" spans="1:5">
       <c r="A160" s="4" t="s">
-        <v>164</v>
+        <v>323</v>
       </c>
       <c r="B160" s="5">
         <v>169</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D160" s="1">
         <v>111269</v>
       </c>
-    </row>
-    <row r="161" ht="15.15" spans="1:4">
+      <c r="E160" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="161" ht="15.15" spans="1:5">
       <c r="A161" s="4" t="s">
-        <v>165</v>
+        <v>325</v>
       </c>
       <c r="B161" s="5">
         <v>170</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D161" s="1">
         <v>111270</v>
       </c>
-    </row>
-    <row r="162" ht="15.15" spans="1:4">
+      <c r="E161" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="162" ht="15.15" spans="1:5">
       <c r="A162" s="4" t="s">
-        <v>166</v>
+        <v>327</v>
       </c>
       <c r="B162" s="5">
         <v>171</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D162" s="1">
         <v>111271</v>
       </c>
-    </row>
-    <row r="163" ht="15.15" spans="1:4">
+      <c r="E162" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="163" ht="15.15" spans="1:5">
       <c r="A163" s="4" t="s">
-        <v>167</v>
+        <v>329</v>
       </c>
       <c r="B163" s="5">
         <v>172</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D163" s="1">
         <v>111272</v>
       </c>
-    </row>
-    <row r="164" ht="15.15" spans="1:4">
+      <c r="E163" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="164" ht="15.15" spans="1:5">
       <c r="A164" s="4" t="s">
-        <v>168</v>
+        <v>331</v>
       </c>
       <c r="B164" s="5">
         <v>173</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D164" s="1">
         <v>111273</v>
       </c>
-    </row>
-    <row r="165" ht="15.15" spans="1:4">
+      <c r="E164" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="165" ht="15.15" spans="1:5">
       <c r="A165" s="4" t="s">
-        <v>169</v>
+        <v>333</v>
       </c>
       <c r="B165" s="5">
         <v>174</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D165" s="1">
         <v>111274</v>
       </c>
-    </row>
-    <row r="166" ht="15.15" spans="1:4">
+      <c r="E165" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="166" ht="15.15" spans="1:5">
       <c r="A166" s="4" t="s">
-        <v>170</v>
+        <v>335</v>
       </c>
       <c r="B166" s="5">
         <v>175</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D166" s="1">
         <v>111275</v>
       </c>
-    </row>
-    <row r="167" ht="15.15" spans="1:4">
+      <c r="E166" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="167" ht="15.15" spans="1:5">
       <c r="A167" s="4" t="s">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="B167" s="5">
         <v>176</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D167" s="1">
         <v>111276</v>
       </c>
-    </row>
-    <row r="168" ht="15.15" spans="1:4">
+      <c r="E167" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="168" ht="15.15" spans="1:5">
       <c r="A168" s="4" t="s">
-        <v>172</v>
+        <v>339</v>
       </c>
       <c r="B168" s="5">
         <v>177</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D168" s="1">
         <v>111277</v>
       </c>
-    </row>
-    <row r="169" ht="15.15" spans="1:4">
+      <c r="E168" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="169" ht="15.15" spans="1:5">
       <c r="A169" s="4" t="s">
-        <v>173</v>
+        <v>341</v>
       </c>
       <c r="B169" s="5">
         <v>178</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D169" s="1">
         <v>111278</v>
       </c>
-    </row>
-    <row r="170" ht="15.15" spans="1:4">
+      <c r="E169" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="170" ht="15.15" spans="1:5">
       <c r="A170" s="4" t="s">
-        <v>174</v>
+        <v>343</v>
       </c>
       <c r="B170" s="5">
         <v>179</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D170" s="1">
         <v>111279</v>
       </c>
-    </row>
-    <row r="171" ht="15.15" spans="1:4">
+      <c r="E170" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="171" ht="15.15" spans="1:5">
       <c r="A171" s="4" t="s">
-        <v>175</v>
+        <v>345</v>
       </c>
       <c r="B171" s="5">
         <v>180</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D171" s="1">
         <v>111280</v>
       </c>
-    </row>
-    <row r="172" ht="15.15" spans="1:4">
+      <c r="E171" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="172" ht="15.15" spans="1:5">
       <c r="A172" s="4" t="s">
-        <v>176</v>
+        <v>347</v>
       </c>
       <c r="B172" s="5">
         <v>181</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D172" s="1">
         <v>111281</v>
       </c>
-    </row>
-    <row r="173" ht="15.15" spans="1:4">
+      <c r="E172" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="173" ht="15.15" spans="1:5">
       <c r="A173" s="4" t="s">
-        <v>177</v>
+        <v>349</v>
       </c>
       <c r="B173" s="5">
         <v>182</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D173" s="1">
         <v>111282</v>
       </c>
-    </row>
-    <row r="174" ht="15.15" spans="1:4">
+      <c r="E173" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="174" ht="15.15" spans="1:5">
       <c r="A174" s="4" t="s">
-        <v>178</v>
+        <v>351</v>
       </c>
       <c r="B174" s="5">
         <v>183</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D174" s="1">
         <v>111283</v>
       </c>
-    </row>
-    <row r="175" ht="15.15" spans="1:4">
+      <c r="E174" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="175" ht="15.15" spans="1:5">
       <c r="A175" s="4" t="s">
-        <v>179</v>
+        <v>353</v>
       </c>
       <c r="B175" s="5">
         <v>184</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D175" s="1">
         <v>111284</v>
       </c>
-    </row>
-    <row r="176" ht="15.15" spans="1:4">
+      <c r="E175" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="176" ht="15.15" spans="1:5">
       <c r="A176" s="4" t="s">
-        <v>180</v>
+        <v>355</v>
       </c>
       <c r="B176" s="5">
         <v>185</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D176" s="1">
         <v>111285</v>
       </c>
-    </row>
-    <row r="177" ht="15.15" spans="1:4">
+      <c r="E176" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="177" ht="15.15" spans="1:5">
       <c r="A177" s="4" t="s">
-        <v>181</v>
+        <v>357</v>
       </c>
       <c r="B177" s="5">
         <v>186</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D177" s="1">
         <v>111286</v>
       </c>
-    </row>
-    <row r="178" ht="15.15" spans="1:4">
+      <c r="E177" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="178" ht="15.15" spans="1:5">
       <c r="A178" s="4" t="s">
-        <v>182</v>
+        <v>359</v>
       </c>
       <c r="B178" s="5">
         <v>187</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D178" s="1">
         <v>111287</v>
       </c>
-    </row>
-    <row r="179" ht="15.15" spans="1:4">
+      <c r="E178" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="179" ht="15.15" spans="1:5">
       <c r="A179" s="4" t="s">
-        <v>183</v>
+        <v>361</v>
       </c>
       <c r="B179" s="5">
         <v>188</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D179" s="1">
         <v>111288</v>
       </c>
-    </row>
-    <row r="180" ht="15.15" spans="1:4">
+      <c r="E179" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="180" ht="15.15" spans="1:5">
       <c r="A180" s="4" t="s">
-        <v>184</v>
+        <v>363</v>
       </c>
       <c r="B180" s="5">
         <v>189</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D180" s="1">
         <v>111289</v>
       </c>
-    </row>
-    <row r="181" ht="15.15" spans="1:4">
+      <c r="E180" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="181" ht="15.15" spans="1:5">
       <c r="A181" s="4" t="s">
-        <v>185</v>
+        <v>365</v>
       </c>
       <c r="B181" s="5">
         <v>190</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D181" s="1">
         <v>111290</v>
       </c>
-    </row>
-    <row r="182" ht="15.15" spans="1:4">
+      <c r="E181" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="182" ht="15.15" spans="1:5">
       <c r="A182" s="4" t="s">
-        <v>186</v>
+        <v>367</v>
       </c>
       <c r="B182" s="5">
         <v>191</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D182" s="1">
         <v>111291</v>
       </c>
-    </row>
-    <row r="183" ht="15.15" spans="1:4">
+      <c r="E182" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="183" ht="15.15" spans="1:5">
       <c r="A183" s="4" t="s">
-        <v>187</v>
+        <v>369</v>
       </c>
       <c r="B183" s="5">
         <v>192</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D183" s="1">
         <v>111292</v>
       </c>
-    </row>
-    <row r="184" ht="15.15" spans="1:4">
+      <c r="E183" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="184" ht="15.15" spans="1:5">
       <c r="A184" s="4" t="s">
-        <v>188</v>
+        <v>371</v>
       </c>
       <c r="B184" s="5">
         <v>193</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D184" s="1">
         <v>111293</v>
       </c>
-    </row>
-    <row r="185" ht="15.15" spans="1:4">
+      <c r="E184" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="185" ht="15.15" spans="1:5">
       <c r="A185" s="4" t="s">
-        <v>189</v>
+        <v>373</v>
       </c>
       <c r="B185" s="5">
         <v>194</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D185" s="1">
         <v>111294</v>
       </c>
-    </row>
-    <row r="186" ht="15.15" spans="1:4">
+      <c r="E185" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="186" ht="15.15" spans="1:5">
       <c r="A186" s="4" t="s">
-        <v>190</v>
+        <v>375</v>
       </c>
       <c r="B186" s="5">
         <v>195</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D186" s="1">
         <v>111295</v>
       </c>
-    </row>
-    <row r="187" ht="15.15" spans="1:4">
+      <c r="E186" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="187" ht="15.15" spans="1:5">
       <c r="A187" s="4" t="s">
-        <v>191</v>
+        <v>377</v>
       </c>
       <c r="B187" s="5">
         <v>196</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D187" s="1">
         <v>111296</v>
       </c>
-    </row>
-    <row r="188" ht="15.15" spans="1:4">
+      <c r="E187" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="188" ht="15.15" spans="1:5">
       <c r="A188" s="4" t="s">
-        <v>192</v>
+        <v>379</v>
       </c>
       <c r="B188" s="5">
         <v>197</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D188" s="1">
         <v>111297</v>
       </c>
-    </row>
-    <row r="189" ht="15.15" spans="1:4">
+      <c r="E188" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="189" ht="15.15" spans="1:5">
       <c r="A189" s="4" t="s">
-        <v>193</v>
+        <v>381</v>
       </c>
       <c r="B189" s="5">
         <v>198</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D189" s="1">
         <v>111298</v>
       </c>
-    </row>
-    <row r="190" ht="15.15" spans="1:4">
+      <c r="E189" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="190" ht="15.15" spans="1:5">
       <c r="A190" s="4" t="s">
-        <v>194</v>
+        <v>383</v>
       </c>
       <c r="B190" s="5">
         <v>199</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D190" s="1">
         <v>111299</v>
       </c>
-    </row>
-    <row r="191" ht="15.15" spans="1:4">
+      <c r="E190" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="191" ht="15.15" spans="1:5">
       <c r="A191" s="4" t="s">
-        <v>195</v>
+        <v>385</v>
       </c>
       <c r="B191" s="5">
         <v>200</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D191" s="1">
         <v>111300</v>
       </c>
-    </row>
-    <row r="192" ht="15.15" spans="1:4">
+      <c r="E191" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="192" ht="15.15" spans="1:5">
       <c r="A192" s="4" t="s">
-        <v>196</v>
+        <v>387</v>
       </c>
       <c r="B192" s="5">
         <v>201</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D192" s="1">
         <v>111301</v>
       </c>
-    </row>
-    <row r="193" ht="15.15" spans="1:4">
+      <c r="E192" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="193" ht="15.15" spans="1:5">
       <c r="A193" s="4" t="s">
-        <v>197</v>
+        <v>389</v>
       </c>
       <c r="B193" s="5">
         <v>202</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D193" s="1">
         <v>111302</v>
       </c>
-    </row>
-    <row r="194" ht="15.15" spans="1:4">
+      <c r="E193" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="194" ht="15.15" spans="1:5">
       <c r="A194" s="4" t="s">
-        <v>198</v>
+        <v>391</v>
       </c>
       <c r="B194" s="5">
         <v>203</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D194" s="1">
         <v>111303</v>
       </c>
-    </row>
-    <row r="195" ht="15.15" spans="1:4">
+      <c r="E194" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="195" ht="15.15" spans="1:5">
       <c r="A195" s="4" t="s">
-        <v>199</v>
+        <v>393</v>
       </c>
       <c r="B195" s="5">
         <v>204</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D195" s="1">
         <v>111304</v>
       </c>
-    </row>
-    <row r="196" ht="15.15" spans="1:4">
+      <c r="E195" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="196" ht="15.15" spans="1:5">
       <c r="A196" s="4" t="s">
-        <v>200</v>
+        <v>395</v>
       </c>
       <c r="B196" s="5">
         <v>205</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D196" s="1">
         <v>111305</v>
       </c>
-    </row>
-    <row r="197" ht="15.15" spans="1:4">
+      <c r="E196" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="197" ht="15.15" spans="1:5">
       <c r="A197" s="4" t="s">
-        <v>201</v>
+        <v>397</v>
       </c>
       <c r="B197" s="5">
         <v>206</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D197" s="1">
         <v>111306</v>
       </c>
-    </row>
-    <row r="198" ht="15.15" spans="1:4">
+      <c r="E197" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="198" ht="15.15" spans="1:5">
       <c r="A198" s="4" t="s">
-        <v>202</v>
+        <v>399</v>
       </c>
       <c r="B198" s="5">
         <v>207</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D198" s="1">
         <v>111307</v>
       </c>
-    </row>
-    <row r="199" ht="15.15" spans="1:4">
+      <c r="E198" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="199" ht="15.15" spans="1:5">
       <c r="A199" s="4" t="s">
-        <v>203</v>
+        <v>401</v>
       </c>
       <c r="B199" s="5">
         <v>208</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D199" s="1">
         <v>111308</v>
       </c>
-    </row>
-    <row r="200" ht="15.15" spans="1:4">
+      <c r="E199" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="200" ht="15.15" spans="1:5">
       <c r="A200" s="4" t="s">
-        <v>204</v>
+        <v>403</v>
       </c>
       <c r="B200" s="5">
         <v>209</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D200" s="1">
         <v>111309</v>
       </c>
-    </row>
-    <row r="201" ht="15.15" spans="1:4">
+      <c r="E200" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="201" ht="15.15" spans="1:5">
       <c r="A201" s="4" t="s">
-        <v>205</v>
+        <v>405</v>
       </c>
       <c r="B201" s="5">
         <v>210</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D201" s="1">
         <v>111310</v>
       </c>
-    </row>
-    <row r="202" ht="15.15" spans="1:4">
+      <c r="E201" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="202" ht="15.15" spans="1:5">
       <c r="A202" s="4" t="s">
-        <v>206</v>
+        <v>407</v>
       </c>
       <c r="B202" s="5">
         <v>211</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D202" s="1">
         <v>111311</v>
       </c>
-    </row>
-    <row r="203" ht="15.15" spans="1:4">
+      <c r="E202" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="203" ht="15.15" spans="1:5">
       <c r="A203" s="4" t="s">
-        <v>207</v>
+        <v>409</v>
       </c>
       <c r="B203" s="5">
         <v>212</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D203" s="1">
         <v>111312</v>
       </c>
-    </row>
-    <row r="204" ht="15.15" spans="1:4">
+      <c r="E203" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="204" ht="15.15" spans="1:5">
       <c r="A204" s="4" t="s">
-        <v>208</v>
+        <v>411</v>
       </c>
       <c r="B204" s="5">
         <v>213</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D204" s="1">
         <v>111313</v>
       </c>
-    </row>
-    <row r="205" ht="15.15" spans="1:4">
+      <c r="E204" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="205" ht="15.15" spans="1:5">
       <c r="A205" s="4" t="s">
-        <v>209</v>
+        <v>413</v>
       </c>
       <c r="B205" s="5">
         <v>214</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D205" s="1">
         <v>111314</v>
       </c>
-    </row>
-    <row r="206" ht="15.15" spans="1:4">
+      <c r="E205" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="206" ht="15.15" spans="1:5">
       <c r="A206" s="4" t="s">
-        <v>210</v>
+        <v>415</v>
       </c>
       <c r="B206" s="5">
         <v>215</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D206" s="1">
         <v>111315</v>
       </c>
-    </row>
-    <row r="207" ht="15.15" spans="1:4">
+      <c r="E206" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="207" ht="15.15" spans="1:5">
       <c r="A207" s="4" t="s">
-        <v>211</v>
+        <v>417</v>
       </c>
       <c r="B207" s="5">
         <v>216</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D207" s="1">
         <v>111316</v>
       </c>
-    </row>
-    <row r="208" ht="15.15" spans="1:4">
+      <c r="E207" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="208" ht="15.15" spans="1:5">
       <c r="A208" s="4" t="s">
-        <v>212</v>
+        <v>419</v>
       </c>
       <c r="B208" s="5">
         <v>217</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D208" s="1">
         <v>111317</v>
       </c>
-    </row>
-    <row r="209" ht="15.15" spans="1:4">
+      <c r="E208" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="209" ht="15.15" spans="1:5">
       <c r="A209" s="4" t="s">
-        <v>213</v>
+        <v>421</v>
       </c>
       <c r="B209" s="5">
         <v>218</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D209" s="1">
         <v>111318</v>
       </c>
-    </row>
-    <row r="210" ht="15.15" spans="1:4">
+      <c r="E209" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="210" ht="15.15" spans="1:5">
       <c r="A210" s="4" t="s">
-        <v>214</v>
+        <v>423</v>
       </c>
       <c r="B210" s="5">
         <v>219</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D210" s="1">
         <v>111319</v>
       </c>
-    </row>
-    <row r="211" ht="15.15" spans="1:4">
+      <c r="E210" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="211" ht="15.15" spans="1:5">
       <c r="A211" s="4" t="s">
-        <v>215</v>
+        <v>425</v>
       </c>
       <c r="B211" s="5">
         <v>220</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D211" s="1">
         <v>111320</v>
       </c>
-    </row>
-    <row r="212" ht="15.15" spans="1:4">
+      <c r="E211" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="212" ht="15.15" spans="1:5">
       <c r="A212" s="4" t="s">
-        <v>216</v>
+        <v>427</v>
       </c>
       <c r="B212" s="5">
         <v>221</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D212" s="1">
         <v>111321</v>
       </c>
-    </row>
-    <row r="213" ht="15.15" spans="1:4">
+      <c r="E212" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="213" ht="15.15" spans="1:5">
       <c r="A213" s="4" t="s">
-        <v>217</v>
+        <v>429</v>
       </c>
       <c r="B213" s="5">
         <v>222</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D213" s="1">
         <v>111322</v>
       </c>
-    </row>
-    <row r="214" ht="15.15" spans="1:4">
+      <c r="E213" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="214" ht="15.15" spans="1:5">
       <c r="A214" s="4" t="s">
-        <v>218</v>
+        <v>431</v>
       </c>
       <c r="B214" s="5">
         <v>223</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D214" s="1">
         <v>111323</v>
       </c>
-    </row>
-    <row r="215" ht="15.15" spans="1:4">
+      <c r="E214" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="215" ht="15.15" spans="1:5">
       <c r="A215" s="4" t="s">
-        <v>219</v>
+        <v>433</v>
       </c>
       <c r="B215" s="5">
         <v>224</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D215" s="1">
         <v>111324</v>
       </c>
-    </row>
-    <row r="216" ht="15.15" spans="1:4">
+      <c r="E215" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="216" ht="15.15" spans="1:5">
       <c r="A216" s="4" t="s">
-        <v>220</v>
+        <v>435</v>
       </c>
       <c r="B216" s="5">
         <v>225</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D216" s="1">
         <v>111325</v>
       </c>
-    </row>
-    <row r="217" ht="15.15" spans="1:4">
+      <c r="E216" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="217" ht="15.15" spans="1:5">
       <c r="A217" s="4" t="s">
-        <v>221</v>
+        <v>437</v>
       </c>
       <c r="B217" s="5">
         <v>226</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D217" s="1">
         <v>111326</v>
       </c>
-    </row>
-    <row r="218" ht="15.15" spans="1:4">
+      <c r="E217" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="218" ht="15.15" spans="1:5">
       <c r="A218" s="4" t="s">
-        <v>222</v>
+        <v>439</v>
       </c>
       <c r="B218" s="5">
         <v>227</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D218" s="1">
         <v>111327</v>
       </c>
-    </row>
-    <row r="219" ht="15.15" spans="1:4">
+      <c r="E218" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="219" ht="15.15" spans="1:5">
       <c r="A219" s="4" t="s">
-        <v>223</v>
+        <v>441</v>
       </c>
       <c r="B219" s="5">
         <v>228</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D219" s="1">
         <v>111328</v>
       </c>
-    </row>
-    <row r="220" ht="15.15" spans="1:4">
+      <c r="E219" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="220" ht="15.15" spans="1:5">
       <c r="A220" s="4" t="s">
-        <v>224</v>
+        <v>443</v>
       </c>
       <c r="B220" s="5">
         <v>229</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D220" s="1">
         <v>111329</v>
       </c>
-    </row>
-    <row r="221" ht="15.15" spans="1:4">
+      <c r="E220" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="221" ht="15.15" spans="1:5">
       <c r="A221" s="4" t="s">
-        <v>225</v>
+        <v>445</v>
       </c>
       <c r="B221" s="5">
         <v>230</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D221" s="1">
         <v>111330</v>
       </c>
-    </row>
-    <row r="222" ht="15.15" spans="1:4">
+      <c r="E221" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="222" ht="15.15" spans="1:5">
       <c r="A222" s="4" t="s">
-        <v>226</v>
+        <v>447</v>
       </c>
       <c r="B222" s="5">
         <v>231</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D222" s="1">
         <v>111331</v>
       </c>
-    </row>
-    <row r="223" ht="15.15" spans="1:4">
+      <c r="E222" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="223" ht="15.15" spans="1:5">
       <c r="A223" s="4" t="s">
-        <v>227</v>
+        <v>449</v>
       </c>
       <c r="B223" s="5">
         <v>232</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D223" s="1">
         <v>111332</v>
       </c>
-    </row>
-    <row r="224" ht="15.15" spans="1:4">
+      <c r="E223" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="224" ht="15.15" spans="1:5">
       <c r="A224" s="4" t="s">
-        <v>228</v>
+        <v>451</v>
       </c>
       <c r="B224" s="5">
         <v>233</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D224" s="1">
         <v>111333</v>
       </c>
-    </row>
-    <row r="225" ht="15.15" spans="1:4">
+      <c r="E224" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="225" ht="15.15" spans="1:5">
       <c r="A225" s="4" t="s">
-        <v>229</v>
+        <v>453</v>
       </c>
       <c r="B225" s="5">
         <v>234</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D225" s="1">
         <v>111334</v>
       </c>
-    </row>
-    <row r="226" ht="15.15" spans="1:4">
+      <c r="E225" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="226" ht="15.15" spans="1:5">
       <c r="A226" s="4" t="s">
-        <v>230</v>
+        <v>455</v>
       </c>
       <c r="B226" s="5">
         <v>235</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D226" s="1">
         <v>111335</v>
       </c>
-    </row>
-    <row r="227" ht="15.15" spans="1:4">
+      <c r="E226" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="227" ht="15.15" spans="1:5">
       <c r="A227" s="4" t="s">
-        <v>231</v>
+        <v>457</v>
       </c>
       <c r="B227" s="5">
         <v>236</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D227" s="1">
         <v>111336</v>
       </c>
-    </row>
-    <row r="228" ht="15.15" spans="1:4">
+      <c r="E227" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="228" ht="15.15" spans="1:5">
       <c r="A228" s="4" t="s">
-        <v>232</v>
+        <v>459</v>
       </c>
       <c r="B228" s="5">
         <v>237</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D228" s="1">
         <v>111337</v>
       </c>
-    </row>
-    <row r="229" ht="15.15" spans="1:4">
+      <c r="E228" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="229" ht="15.15" spans="1:5">
       <c r="A229" s="4" t="s">
-        <v>233</v>
+        <v>461</v>
       </c>
       <c r="B229" s="5">
         <v>238</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D229" s="1">
         <v>111338</v>
       </c>
-    </row>
-    <row r="230" ht="15.15" spans="1:4">
+      <c r="E229" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="230" ht="15.15" spans="1:5">
       <c r="A230" s="4" t="s">
-        <v>234</v>
+        <v>463</v>
       </c>
       <c r="B230" s="5">
         <v>239</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D230" s="1">
         <v>111339</v>
       </c>
-    </row>
-    <row r="231" ht="15.15" spans="1:4">
+      <c r="E230" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="231" ht="15.15" spans="1:5">
       <c r="A231" s="4" t="s">
-        <v>235</v>
+        <v>465</v>
       </c>
       <c r="B231" s="5">
         <v>240</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D231" s="1">
         <v>111340</v>
       </c>
-    </row>
-    <row r="232" ht="15.15" spans="1:4">
+      <c r="E231" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="232" ht="15.15" spans="1:5">
       <c r="A232" s="4" t="s">
-        <v>236</v>
+        <v>467</v>
       </c>
       <c r="B232" s="5">
         <v>241</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D232" s="1">
         <v>111341</v>
       </c>
-    </row>
-    <row r="233" ht="15.15" spans="1:4">
+      <c r="E232" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="233" ht="15.15" spans="1:5">
       <c r="A233" s="4" t="s">
-        <v>237</v>
+        <v>469</v>
       </c>
       <c r="B233" s="5">
         <v>242</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D233" s="1">
         <v>111342</v>
       </c>
-    </row>
-    <row r="234" ht="15.15" spans="1:4">
+      <c r="E233" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="234" ht="15.15" spans="1:5">
       <c r="A234" s="4" t="s">
-        <v>238</v>
+        <v>471</v>
       </c>
       <c r="B234" s="5">
         <v>243</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D234" s="1">
         <v>111343</v>
       </c>
-    </row>
-    <row r="235" ht="15.15" spans="1:4">
+      <c r="E234" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="235" ht="15.15" spans="1:5">
       <c r="A235" s="4" t="s">
-        <v>239</v>
+        <v>473</v>
       </c>
       <c r="B235" s="5">
         <v>244</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D235" s="1">
         <v>111344</v>
       </c>
-    </row>
-    <row r="236" ht="15.15" spans="1:4">
+      <c r="E235" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="236" ht="15.15" spans="1:5">
       <c r="A236" s="4" t="s">
-        <v>240</v>
+        <v>475</v>
       </c>
       <c r="B236" s="5">
         <v>245</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D236" s="1">
         <v>111345</v>
       </c>
-    </row>
-    <row r="237" ht="15.15" spans="1:4">
+      <c r="E236" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="237" ht="15.15" spans="1:5">
       <c r="A237" s="4" t="s">
-        <v>241</v>
+        <v>477</v>
       </c>
       <c r="B237" s="5">
         <v>246</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D237" s="1">
         <v>111346</v>
       </c>
-    </row>
-    <row r="238" ht="15.15" spans="1:4">
+      <c r="E237" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="238" ht="15.15" spans="1:5">
       <c r="A238" s="4" t="s">
-        <v>242</v>
+        <v>479</v>
       </c>
       <c r="B238" s="5">
         <v>247</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D238" s="1">
         <v>111347</v>
       </c>
-    </row>
-    <row r="239" ht="15.15" spans="1:4">
+      <c r="E238" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="239" ht="15.15" spans="1:5">
       <c r="A239" s="4" t="s">
-        <v>243</v>
+        <v>481</v>
       </c>
       <c r="B239" s="5">
         <v>248</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D239" s="1">
         <v>111348</v>
       </c>
-    </row>
-    <row r="240" ht="15.15" spans="1:4">
+      <c r="E239" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="240" ht="15.15" spans="1:5">
       <c r="A240" s="4" t="s">
-        <v>244</v>
+        <v>483</v>
       </c>
       <c r="B240" s="5">
         <v>249</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D240" s="1">
         <v>111349</v>
       </c>
-    </row>
-    <row r="241" ht="15.15" spans="1:4">
+      <c r="E240" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="241" ht="15.15" spans="1:5">
       <c r="A241" s="4" t="s">
-        <v>245</v>
+        <v>485</v>
       </c>
       <c r="B241" s="5">
         <v>250</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D241" s="1">
         <v>111350</v>
       </c>
-    </row>
-    <row r="242" ht="15.15" spans="1:4">
+      <c r="E241" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="242" ht="15.15" spans="1:5">
       <c r="A242" s="4" t="s">
-        <v>246</v>
+        <v>487</v>
       </c>
       <c r="B242" s="5">
         <v>251</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D242" s="1">
         <v>111351</v>
       </c>
-    </row>
-    <row r="243" ht="15.15" spans="1:4">
+      <c r="E242" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="243" ht="15.15" spans="1:5">
       <c r="A243" s="4" t="s">
-        <v>247</v>
+        <v>489</v>
       </c>
       <c r="B243" s="5">
         <v>252</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D243" s="1">
         <v>111352</v>
       </c>
-    </row>
-    <row r="244" ht="15.15" spans="1:4">
+      <c r="E243" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="244" ht="15.15" spans="1:5">
       <c r="A244" s="4" t="s">
-        <v>248</v>
+        <v>491</v>
       </c>
       <c r="B244" s="5">
         <v>253</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D244" s="1">
         <v>111353</v>
       </c>
-    </row>
-    <row r="245" ht="15.15" spans="1:4">
+      <c r="E244" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="245" ht="15.15" spans="1:5">
       <c r="A245" s="4" t="s">
-        <v>249</v>
+        <v>493</v>
       </c>
       <c r="B245" s="5">
         <v>254</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D245" s="1">
         <v>111354</v>
       </c>
-    </row>
-    <row r="246" ht="15.15" spans="1:4">
+      <c r="E245" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="246" ht="15.15" spans="1:5">
       <c r="A246" s="4" t="s">
-        <v>250</v>
+        <v>495</v>
       </c>
       <c r="B246" s="5">
         <v>255</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D246" s="1">
         <v>111355</v>
       </c>
-    </row>
-    <row r="247" ht="15.15" spans="1:4">
+      <c r="E246" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="247" ht="15.15" spans="1:5">
       <c r="A247" s="4" t="s">
-        <v>251</v>
+        <v>497</v>
       </c>
       <c r="B247" s="5">
         <v>256</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D247" s="1">
         <v>111356</v>
       </c>
-    </row>
-    <row r="248" ht="15.15" spans="1:4">
+      <c r="E247" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="248" ht="15.15" spans="1:5">
       <c r="A248" s="4" t="s">
-        <v>252</v>
+        <v>499</v>
       </c>
       <c r="B248" s="5">
         <v>257</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D248" s="1">
         <v>111357</v>
       </c>
-    </row>
-    <row r="249" ht="15.15" spans="1:4">
+      <c r="E248" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="249" ht="15.15" spans="1:5">
       <c r="A249" s="4" t="s">
-        <v>253</v>
+        <v>501</v>
       </c>
       <c r="B249" s="5">
         <v>258</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D249" s="1">
         <v>111358</v>
       </c>
-    </row>
-    <row r="250" ht="15.15" spans="1:4">
+      <c r="E249" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="250" ht="15.15" spans="1:5">
       <c r="A250" s="4" t="s">
-        <v>254</v>
+        <v>503</v>
       </c>
       <c r="B250" s="5">
         <v>259</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D250" s="1">
         <v>111359</v>
       </c>
-    </row>
-    <row r="251" ht="15.15" spans="1:4">
+      <c r="E250" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="251" ht="15.15" spans="1:5">
       <c r="A251" s="4" t="s">
-        <v>255</v>
+        <v>505</v>
       </c>
       <c r="B251" s="5">
         <v>260</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D251" s="1">
         <v>111360</v>
       </c>
-    </row>
-    <row r="252" ht="15.15" spans="1:4">
+      <c r="E251" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="252" ht="15.15" spans="1:5">
       <c r="A252" s="4" t="s">
-        <v>256</v>
+        <v>507</v>
       </c>
       <c r="B252" s="5">
         <v>261</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D252" s="1">
         <v>111361</v>
       </c>
-    </row>
-    <row r="253" ht="15.15" spans="1:4">
+      <c r="E252" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="253" ht="15.15" spans="1:5">
       <c r="A253" s="4" t="s">
-        <v>257</v>
+        <v>509</v>
       </c>
       <c r="B253" s="5">
         <v>262</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D253" s="1">
         <v>111362</v>
       </c>
-    </row>
-    <row r="254" ht="15.15" spans="1:4">
+      <c r="E253" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="254" ht="15.15" spans="1:5">
       <c r="A254" s="4" t="s">
-        <v>258</v>
+        <v>511</v>
       </c>
       <c r="B254" s="5">
         <v>263</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D254" s="1">
         <v>111363</v>
       </c>
-    </row>
-    <row r="255" ht="15.15" spans="1:4">
+      <c r="E254" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="255" ht="15.15" spans="1:5">
       <c r="A255" s="4" t="s">
-        <v>259</v>
+        <v>513</v>
       </c>
       <c r="B255" s="5">
         <v>264</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D255" s="1">
         <v>111364</v>
       </c>
-    </row>
-    <row r="256" ht="15.15" spans="1:4">
+      <c r="E255" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="256" ht="15.15" spans="1:5">
       <c r="A256" s="4" t="s">
-        <v>260</v>
+        <v>515</v>
       </c>
       <c r="B256" s="5">
         <v>265</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D256" s="1">
         <v>111365</v>
       </c>
-    </row>
-    <row r="257" ht="15.15" spans="1:4">
+      <c r="E256" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="257" ht="15.15" spans="1:5">
       <c r="A257" s="4" t="s">
-        <v>261</v>
+        <v>517</v>
       </c>
       <c r="B257" s="5">
         <v>266</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D257" s="1">
         <v>111366</v>
       </c>
-    </row>
-    <row r="258" ht="15.15" spans="1:4">
+      <c r="E257" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="258" ht="15.15" spans="1:5">
       <c r="A258" s="4" t="s">
-        <v>262</v>
+        <v>519</v>
       </c>
       <c r="B258" s="5">
         <v>267</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D258" s="1">
         <v>111367</v>
       </c>
-    </row>
-    <row r="259" ht="15.15" spans="1:4">
+      <c r="E258" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="259" ht="15.15" spans="1:5">
       <c r="A259" s="4" t="s">
-        <v>263</v>
+        <v>521</v>
       </c>
       <c r="B259" s="5">
         <v>268</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D259" s="1">
         <v>111368</v>
       </c>
-    </row>
-    <row r="260" ht="15.15" spans="1:4">
+      <c r="E259" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="260" ht="15.15" spans="1:5">
       <c r="A260" s="4" t="s">
-        <v>264</v>
+        <v>523</v>
       </c>
       <c r="B260" s="5">
         <v>269</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D260" s="1">
         <v>111369</v>
       </c>
-    </row>
-    <row r="261" ht="15.15" spans="1:4">
+      <c r="E260" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="261" ht="15.15" spans="1:5">
       <c r="A261" s="4" t="s">
-        <v>265</v>
+        <v>525</v>
       </c>
       <c r="B261" s="5">
         <v>270</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D261" s="1">
         <v>111370</v>
       </c>
-    </row>
-    <row r="262" ht="15.15" spans="1:4">
+      <c r="E261" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="262" ht="15.15" spans="1:5">
       <c r="A262" s="4" t="s">
-        <v>266</v>
+        <v>527</v>
       </c>
       <c r="B262" s="5">
         <v>271</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D262" s="1">
         <v>111371</v>
       </c>
-    </row>
-    <row r="263" ht="15.15" spans="1:4">
+      <c r="E262" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="263" ht="15.15" spans="1:5">
       <c r="A263" s="4" t="s">
-        <v>267</v>
+        <v>529</v>
       </c>
       <c r="B263" s="5">
         <v>272</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D263" s="1">
         <v>111372</v>
       </c>
-    </row>
-    <row r="264" ht="15.15" spans="1:4">
+      <c r="E263" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="264" ht="15.15" spans="1:5">
       <c r="A264" s="4" t="s">
-        <v>268</v>
+        <v>531</v>
       </c>
       <c r="B264" s="5">
         <v>273</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D264" s="1">
         <v>111373</v>
       </c>
-    </row>
-    <row r="265" ht="15.15" spans="1:4">
+      <c r="E264" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="265" ht="15.15" spans="1:5">
       <c r="A265" s="4" t="s">
-        <v>269</v>
+        <v>533</v>
       </c>
       <c r="B265" s="5">
         <v>274</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D265" s="1">
         <v>111374</v>
       </c>
-    </row>
-    <row r="266" ht="15.15" spans="1:4">
+      <c r="E265" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="266" ht="15.15" spans="1:5">
       <c r="A266" s="4" t="s">
-        <v>270</v>
+        <v>535</v>
       </c>
       <c r="B266" s="5">
         <v>275</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D266" s="1">
         <v>111375</v>
       </c>
-    </row>
-    <row r="267" ht="15.15" spans="1:4">
+      <c r="E266" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="267" ht="15.15" spans="1:5">
       <c r="A267" s="4" t="s">
-        <v>271</v>
+        <v>537</v>
       </c>
       <c r="B267" s="5">
         <v>276</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D267" s="1">
         <v>111376</v>
       </c>
-    </row>
-    <row r="268" ht="15.15" spans="1:4">
+      <c r="E267" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="268" ht="15.15" spans="1:5">
       <c r="A268" s="4" t="s">
-        <v>272</v>
+        <v>539</v>
       </c>
       <c r="B268" s="5">
         <v>277</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D268" s="1">
         <v>111377</v>
       </c>
-    </row>
-    <row r="269" ht="15.15" spans="1:4">
+      <c r="E268" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="269" ht="15.15" spans="1:5">
       <c r="A269" s="4" t="s">
-        <v>273</v>
+        <v>541</v>
       </c>
       <c r="B269" s="5">
         <v>278</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D269" s="1">
         <v>111378</v>
       </c>
-    </row>
-    <row r="270" ht="15.15" spans="1:4">
+      <c r="E269" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="270" ht="15.15" spans="1:5">
       <c r="A270" s="4" t="s">
-        <v>274</v>
+        <v>543</v>
       </c>
       <c r="B270" s="5">
         <v>279</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D270" s="1">
         <v>111379</v>
       </c>
-    </row>
-    <row r="271" ht="15.15" spans="1:4">
+      <c r="E270" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="271" ht="15.15" spans="1:5">
       <c r="A271" s="4" t="s">
-        <v>275</v>
+        <v>545</v>
       </c>
       <c r="B271" s="5">
         <v>280</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D271" s="1">
         <v>111380</v>
       </c>
-    </row>
-    <row r="272" ht="15.15" spans="1:4">
+      <c r="E271" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="272" ht="15.15" spans="1:5">
       <c r="A272" s="4" t="s">
-        <v>276</v>
+        <v>547</v>
       </c>
       <c r="B272" s="5">
         <v>281</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D272" s="1">
         <v>111381</v>
       </c>
-    </row>
-    <row r="273" ht="15.15" spans="1:4">
+      <c r="E272" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="273" ht="15.15" spans="1:5">
       <c r="A273" s="4" t="s">
-        <v>277</v>
+        <v>549</v>
       </c>
       <c r="B273" s="5">
         <v>282</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D273" s="1">
         <v>111382</v>
       </c>
-    </row>
-    <row r="274" ht="15.15" spans="1:4">
+      <c r="E273" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="274" ht="15.15" spans="1:5">
       <c r="A274" s="4" t="s">
-        <v>278</v>
+        <v>551</v>
       </c>
       <c r="B274" s="5">
         <v>283</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D274" s="1">
         <v>111383</v>
       </c>
-    </row>
-    <row r="275" ht="15.15" spans="1:4">
+      <c r="E274" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="275" ht="15.15" spans="1:5">
       <c r="A275" s="4" t="s">
-        <v>279</v>
+        <v>553</v>
       </c>
       <c r="B275" s="5">
         <v>284</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D275" s="1">
         <v>111384</v>
       </c>
-    </row>
-    <row r="276" ht="15.15" spans="1:4">
+      <c r="E275" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="276" ht="15.15" spans="1:5">
       <c r="A276" s="4" t="s">
-        <v>280</v>
+        <v>555</v>
       </c>
       <c r="B276" s="5">
         <v>285</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D276" s="1">
         <v>111385</v>
       </c>
-    </row>
-    <row r="277" ht="15.15" spans="1:4">
+      <c r="E276" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="277" ht="15.15" spans="1:5">
       <c r="A277" s="4" t="s">
-        <v>281</v>
+        <v>557</v>
       </c>
       <c r="B277" s="5">
         <v>286</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D277" s="1">
         <v>111386</v>
       </c>
-    </row>
-    <row r="278" ht="15.15" spans="1:4">
+      <c r="E277" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="278" ht="15.15" spans="1:5">
       <c r="A278" s="4" t="s">
-        <v>282</v>
+        <v>559</v>
       </c>
       <c r="B278" s="5">
         <v>287</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D278" s="1">
         <v>111387</v>
       </c>
-    </row>
-    <row r="279" ht="15.15" spans="1:4">
+      <c r="E278" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="279" ht="15.15" spans="1:5">
       <c r="A279" s="4" t="s">
-        <v>283</v>
+        <v>561</v>
       </c>
       <c r="B279" s="5">
         <v>288</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D279" s="1">
         <v>111388</v>
       </c>
-    </row>
-    <row r="280" ht="15.15" spans="1:4">
+      <c r="E279" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="280" ht="15.15" spans="1:5">
       <c r="A280" s="4" t="s">
-        <v>284</v>
+        <v>563</v>
       </c>
       <c r="B280" s="5">
         <v>289</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D280" s="1">
         <v>111389</v>
       </c>
-    </row>
-    <row r="281" ht="15.15" spans="1:4">
+      <c r="E280" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="281" ht="15.15" spans="1:5">
       <c r="A281" s="4" t="s">
-        <v>285</v>
+        <v>565</v>
       </c>
       <c r="B281" s="5">
         <v>290</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D281" s="1">
         <v>111390</v>
       </c>
-    </row>
-    <row r="282" ht="15.15" spans="1:4">
+      <c r="E281" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="282" ht="15.15" spans="1:5">
       <c r="A282" s="4" t="s">
-        <v>286</v>
+        <v>567</v>
       </c>
       <c r="B282" s="5">
         <v>291</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D282" s="1">
         <v>111391</v>
       </c>
-    </row>
-    <row r="283" ht="15.15" spans="1:4">
+      <c r="E282" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="283" ht="15.15" spans="1:5">
       <c r="A283" s="4" t="s">
-        <v>287</v>
+        <v>569</v>
       </c>
       <c r="B283" s="5">
         <v>292</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D283" s="1">
         <v>111392</v>
       </c>
-    </row>
-    <row r="284" ht="15.15" spans="1:4">
+      <c r="E283" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="284" ht="15.15" spans="1:5">
       <c r="A284" s="4" t="s">
-        <v>288</v>
+        <v>571</v>
       </c>
       <c r="B284" s="5">
         <v>293</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D284" s="1">
         <v>111393</v>
       </c>
-    </row>
-    <row r="285" ht="15.15" spans="1:4">
+      <c r="E284" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="285" ht="15.15" spans="1:5">
       <c r="A285" s="4" t="s">
-        <v>289</v>
+        <v>573</v>
       </c>
       <c r="B285" s="5">
         <v>294</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D285" s="1">
         <v>111394</v>
       </c>
-    </row>
-    <row r="286" ht="15.15" spans="1:4">
+      <c r="E285" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="286" ht="15.15" spans="1:5">
       <c r="A286" s="4" t="s">
-        <v>290</v>
+        <v>575</v>
       </c>
       <c r="B286" s="5">
         <v>295</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D286" s="1">
         <v>111395</v>
       </c>
-    </row>
-    <row r="287" ht="15.15" spans="1:4">
+      <c r="E286" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="287" ht="15.15" spans="1:5">
       <c r="A287" s="4" t="s">
-        <v>291</v>
+        <v>577</v>
       </c>
       <c r="B287" s="5">
         <v>296</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D287" s="1">
         <v>111396</v>
       </c>
-    </row>
-    <row r="288" ht="15.15" spans="1:4">
+      <c r="E287" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="288" ht="15.15" spans="1:5">
       <c r="A288" s="4" t="s">
-        <v>292</v>
+        <v>579</v>
       </c>
       <c r="B288" s="5">
         <v>297</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D288" s="1">
         <v>111397</v>
       </c>
-    </row>
-    <row r="289" ht="15.15" spans="1:4">
+      <c r="E288" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="289" ht="15.15" spans="1:5">
       <c r="A289" s="4" t="s">
-        <v>293</v>
+        <v>581</v>
       </c>
       <c r="B289" s="5">
         <v>298</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D289" s="1">
         <v>111398</v>
       </c>
-    </row>
-    <row r="290" ht="15.15" spans="1:4">
+      <c r="E289" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="290" ht="15.15" spans="1:5">
       <c r="A290" s="4" t="s">
-        <v>294</v>
+        <v>583</v>
       </c>
       <c r="B290" s="5">
         <v>299</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D290" s="1">
         <v>111399</v>
       </c>
-    </row>
-    <row r="291" ht="15.15" spans="1:4">
+      <c r="E290" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="291" ht="15.15" spans="1:5">
       <c r="A291" s="4" t="s">
-        <v>295</v>
+        <v>585</v>
       </c>
       <c r="B291" s="5">
         <v>300</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D291" s="1">
         <v>111400</v>
       </c>
-    </row>
-    <row r="292" ht="15.15" spans="1:4">
+      <c r="E291" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="292" ht="15.15" spans="1:5">
       <c r="A292" s="4" t="s">
-        <v>296</v>
+        <v>587</v>
       </c>
       <c r="B292" s="5">
         <v>301</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D292" s="1">
         <v>111401</v>
       </c>
-    </row>
-    <row r="293" ht="15.15" spans="1:4">
+      <c r="E292" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="293" ht="15.15" spans="1:5">
       <c r="A293" s="4" t="s">
-        <v>297</v>
+        <v>589</v>
       </c>
       <c r="B293" s="5">
         <v>302</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D293" s="1">
         <v>111402</v>
       </c>
-    </row>
-    <row r="294" ht="15.15" spans="1:4">
+      <c r="E293" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="294" ht="15.15" spans="1:5">
       <c r="A294" s="4" t="s">
-        <v>298</v>
+        <v>591</v>
       </c>
       <c r="B294" s="5">
         <v>303</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D294" s="1">
         <v>111403</v>
       </c>
-    </row>
-    <row r="295" ht="15.15" spans="1:4">
+      <c r="E294" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="295" ht="15.15" spans="1:5">
       <c r="A295" s="4" t="s">
-        <v>299</v>
+        <v>593</v>
       </c>
       <c r="B295" s="5">
         <v>304</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D295" s="1">
         <v>111404</v>
       </c>
-    </row>
-    <row r="296" ht="15.15" spans="1:4">
+      <c r="E295" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="296" ht="15.15" spans="1:5">
       <c r="A296" s="4" t="s">
-        <v>300</v>
+        <v>595</v>
       </c>
       <c r="B296" s="5">
         <v>305</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D296" s="1">
         <v>111405</v>
       </c>
-    </row>
-    <row r="297" ht="15.15" spans="1:4">
+      <c r="E296" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="297" ht="15.15" spans="1:5">
       <c r="A297" s="4" t="s">
-        <v>301</v>
+        <v>597</v>
       </c>
       <c r="B297" s="5">
         <v>306</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D297" s="1">
         <v>111406</v>
       </c>
-    </row>
-    <row r="298" ht="15.15" spans="1:4">
+      <c r="E297" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="298" ht="15.15" spans="1:5">
       <c r="A298" s="4" t="s">
-        <v>302</v>
+        <v>599</v>
       </c>
       <c r="B298" s="5">
         <v>307</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D298" s="1">
         <v>111407</v>
       </c>
-    </row>
-    <row r="299" ht="15.15" spans="1:4">
+      <c r="E298" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="299" ht="15.15" spans="1:5">
       <c r="A299" s="4" t="s">
-        <v>303</v>
+        <v>601</v>
       </c>
       <c r="B299" s="5">
         <v>308</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D299" s="1">
         <v>111408</v>
       </c>
-    </row>
-    <row r="300" ht="15.15" spans="1:4">
+      <c r="E299" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="300" ht="15.15" spans="1:5">
       <c r="A300" s="4" t="s">
-        <v>304</v>
+        <v>603</v>
       </c>
       <c r="B300" s="5">
         <v>309</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D300" s="1">
         <v>111409</v>
       </c>
-    </row>
-    <row r="301" ht="15.15" spans="1:4">
+      <c r="E300" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="301" ht="15.15" spans="1:5">
       <c r="A301" s="4" t="s">
-        <v>305</v>
+        <v>605</v>
       </c>
       <c r="B301" s="5">
         <v>310</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D301" s="1">
         <v>111410</v>
       </c>
-    </row>
-    <row r="302" ht="15.15" spans="1:4">
+      <c r="E301" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="302" ht="15.15" spans="1:5">
       <c r="A302" s="4" t="s">
-        <v>306</v>
+        <v>607</v>
       </c>
       <c r="B302" s="5">
         <v>311</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D302" s="1">
         <v>111411</v>
       </c>
-    </row>
-    <row r="303" ht="15.15" spans="1:4">
+      <c r="E302" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="303" ht="15.15" spans="1:5">
       <c r="A303" s="4" t="s">
-        <v>307</v>
+        <v>609</v>
       </c>
       <c r="B303" s="5">
         <v>312</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D303" s="1">
         <v>111412</v>
       </c>
-    </row>
-    <row r="304" ht="15.15" spans="1:4">
+      <c r="E303" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="304" ht="15.15" spans="1:5">
       <c r="A304" s="4" t="s">
-        <v>308</v>
+        <v>611</v>
       </c>
       <c r="B304" s="5">
         <v>313</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D304" s="1">
         <v>111413</v>
       </c>
-    </row>
-    <row r="305" ht="15.15" spans="1:4">
+      <c r="E304" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="305" ht="15.15" spans="1:5">
       <c r="A305" s="4" t="s">
-        <v>309</v>
+        <v>613</v>
       </c>
       <c r="B305" s="5">
         <v>314</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D305" s="1">
         <v>111414</v>
       </c>
-    </row>
-    <row r="306" ht="15.15" spans="1:4">
+      <c r="E305" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="306" ht="15.15" spans="1:5">
       <c r="A306" s="4" t="s">
-        <v>310</v>
+        <v>615</v>
       </c>
       <c r="B306" s="5">
         <v>315</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D306" s="1">
         <v>111415</v>
       </c>
-    </row>
-    <row r="307" ht="15.15" spans="1:4">
+      <c r="E306" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="307" ht="15.15" spans="1:5">
       <c r="A307" s="4" t="s">
-        <v>311</v>
+        <v>617</v>
       </c>
       <c r="B307" s="5">
         <v>316</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D307" s="1">
         <v>111416</v>
       </c>
-    </row>
-    <row r="308" ht="15.15" spans="1:4">
+      <c r="E307" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="308" ht="15.15" spans="1:5">
       <c r="A308" s="4" t="s">
-        <v>312</v>
+        <v>619</v>
       </c>
       <c r="B308" s="5">
         <v>317</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D308" s="1">
         <v>111417</v>
       </c>
-    </row>
-    <row r="309" ht="15.15" spans="1:4">
+      <c r="E308" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="309" ht="15.15" spans="1:5">
       <c r="A309" s="4" t="s">
-        <v>313</v>
+        <v>621</v>
       </c>
       <c r="B309" s="5">
         <v>318</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D309" s="1">
         <v>111418</v>
       </c>
-    </row>
-    <row r="310" ht="15.15" spans="1:4">
+      <c r="E309" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="310" ht="15.15" spans="1:5">
       <c r="A310" s="4" t="s">
-        <v>314</v>
+        <v>623</v>
       </c>
       <c r="B310" s="5">
         <v>319</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D310" s="1">
         <v>111419</v>
       </c>
-    </row>
-    <row r="311" ht="15.15" spans="1:4">
+      <c r="E310" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="311" ht="15.15" spans="1:5">
       <c r="A311" s="4" t="s">
-        <v>315</v>
+        <v>625</v>
       </c>
       <c r="B311" s="5">
         <v>320</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D311" s="1">
         <v>111420</v>
       </c>
-    </row>
-    <row r="312" ht="15.15" spans="1:4">
+      <c r="E311" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="312" ht="15.15" spans="1:5">
       <c r="A312" s="4" t="s">
-        <v>316</v>
+        <v>627</v>
       </c>
       <c r="B312" s="5">
         <v>321</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D312" s="1">
         <v>111421</v>
       </c>
-    </row>
-    <row r="313" ht="15.15" spans="1:4">
+      <c r="E312" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="313" ht="15.15" spans="1:5">
       <c r="A313" s="4" t="s">
-        <v>317</v>
+        <v>629</v>
       </c>
       <c r="B313" s="5">
         <v>322</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D313" s="1">
         <v>111422</v>
       </c>
-    </row>
-    <row r="314" ht="15.15" spans="1:4">
+      <c r="E313" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="314" ht="15.15" spans="1:5">
       <c r="A314" s="4" t="s">
-        <v>318</v>
+        <v>631</v>
       </c>
       <c r="B314" s="5">
         <v>323</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D314" s="1">
         <v>111423</v>
       </c>
-    </row>
-    <row r="315" ht="15.15" spans="1:4">
+      <c r="E314" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="315" ht="15.15" spans="1:5">
       <c r="A315" s="4" t="s">
-        <v>319</v>
+        <v>633</v>
       </c>
       <c r="B315" s="5">
         <v>324</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D315" s="1">
         <v>111424</v>
       </c>
-    </row>
-    <row r="316" ht="15.15" spans="1:4">
+      <c r="E315" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="316" ht="15.15" spans="1:5">
       <c r="A316" s="4" t="s">
-        <v>320</v>
+        <v>635</v>
       </c>
       <c r="B316" s="5">
         <v>325</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D316" s="1">
         <v>111425</v>
       </c>
-    </row>
-    <row r="317" ht="15.15" spans="1:4">
+      <c r="E316" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="317" ht="15.15" spans="1:5">
       <c r="A317" s="4" t="s">
-        <v>321</v>
+        <v>637</v>
       </c>
       <c r="B317" s="5">
         <v>326</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D317" s="1">
         <v>111426</v>
       </c>
-    </row>
-    <row r="318" ht="15.15" spans="1:4">
+      <c r="E317" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="318" ht="15.15" spans="1:5">
       <c r="A318" s="4" t="s">
-        <v>322</v>
+        <v>639</v>
       </c>
       <c r="B318" s="5">
         <v>327</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D318" s="1">
         <v>111427</v>
       </c>
-    </row>
-    <row r="319" ht="15.15" spans="1:4">
+      <c r="E318" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="319" ht="15.15" spans="1:5">
       <c r="A319" s="4" t="s">
-        <v>323</v>
+        <v>641</v>
       </c>
       <c r="B319" s="5">
         <v>328</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D319" s="1">
         <v>111428</v>
       </c>
-    </row>
-    <row r="320" ht="15.15" spans="1:4">
+      <c r="E319" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="320" ht="15.15" spans="1:5">
       <c r="A320" s="4" t="s">
-        <v>324</v>
+        <v>643</v>
       </c>
       <c r="B320" s="5">
         <v>329</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D320" s="1">
         <v>111429</v>
       </c>
-    </row>
-    <row r="321" ht="15.15" spans="1:4">
+      <c r="E320" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="321" ht="15.15" spans="1:5">
       <c r="A321" s="4" t="s">
-        <v>325</v>
+        <v>645</v>
       </c>
       <c r="B321" s="5">
         <v>330</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D321" s="1">
         <v>111430</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -6522,14 +8505,159 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B2">
+        <v>2020001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B3">
+        <v>2020002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>651</v>
+      </c>
+      <c r="B4">
+        <v>2020003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>652</v>
+      </c>
+      <c r="B5">
+        <v>2020004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>653</v>
+      </c>
+      <c r="B6">
+        <v>2020005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>654</v>
+      </c>
+      <c r="B7">
+        <v>2020006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>655</v>
+      </c>
+      <c r="B8">
+        <v>2020007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>656</v>
+      </c>
+      <c r="B9">
+        <v>2020008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>657</v>
+      </c>
+      <c r="B10">
+        <v>2020009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>658</v>
+      </c>
+      <c r="B11">
+        <v>2020010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>659</v>
+      </c>
+      <c r="B12">
+        <v>2020011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>660</v>
+      </c>
+      <c r="B13">
+        <v>2020012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>661</v>
+      </c>
+      <c r="B14">
+        <v>2020013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>662</v>
+      </c>
+      <c r="B15">
+        <v>2020014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>663</v>
+      </c>
+      <c r="B16">
+        <v>2020015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>664</v>
+      </c>
+      <c r="B17">
+        <v>2020016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>665</v>
+      </c>
+      <c r="B18">
+        <v>2020017</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
